--- a/Data/Ozone/Ozone Data_corrected.xlsx
+++ b/Data/Ozone/Ozone Data_corrected.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/1375134373328/WOPIServiceId_TP_BOX_2/WOPIUserId_19028455394/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cello\OneDrive\문서\GitHub\EvapCoolerUtahCounty\Data\Ozone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{7FC04D85-BC2E-40A5-8FA5-D9589262EB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B08D767-146E-41AF-B152-8FDF97CCF0E7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD12AFB-013B-4442-B921-4979B1451E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="2385" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,6 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhx/3LOQcezNK0Jx8aBsP2PrKcacg=="/>
     </ext>
@@ -766,7 +755,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -801,7 +790,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1687,7 +1676,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2356,7 +2345,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5359,44 +5348,44 @@
   <dimension ref="A1:AH1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.453125" style="15" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.42578125" style="15" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="9.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.54296875" style="15" customWidth="1"/>
-    <col min="26" max="26" width="4.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5703125" style="15" customWidth="1"/>
+    <col min="26" max="26" width="4.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="34" width="8.54296875" style="15" customWidth="1"/>
-    <col min="35" max="16384" width="14.453125" style="15"/>
+    <col min="29" max="29" width="10.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="34" width="8.5703125" style="15" customWidth="1"/>
+    <col min="35" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="14.5">
+    <row r="1" spans="1:34">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5477,7 +5466,7 @@
       <c r="AG1" s="28"/>
       <c r="AH1" s="28"/>
     </row>
-    <row r="2" spans="1:34" ht="14.5" hidden="1">
+    <row r="2" spans="1:34" hidden="1">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -5563,7 +5552,7 @@
       <c r="AG2" s="28"/>
       <c r="AH2" s="28"/>
     </row>
-    <row r="3" spans="1:34" ht="14.5" hidden="1">
+    <row r="3" spans="1:34" hidden="1">
       <c r="A3" s="21" t="s">
         <v>23</v>
       </c>
@@ -5647,7 +5636,7 @@
       <c r="AG3" s="28"/>
       <c r="AH3" s="28"/>
     </row>
-    <row r="4" spans="1:34" ht="14.5">
+    <row r="4" spans="1:34">
       <c r="A4" s="21" t="s">
         <v>32</v>
       </c>
@@ -5735,7 +5724,7 @@
       <c r="AG4" s="28"/>
       <c r="AH4" s="28"/>
     </row>
-    <row r="5" spans="1:34" ht="14.5">
+    <row r="5" spans="1:34">
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
@@ -5822,7 +5811,7 @@
       <c r="AG5" s="28"/>
       <c r="AH5" s="28"/>
     </row>
-    <row r="6" spans="1:34" ht="14.5">
+    <row r="6" spans="1:34">
       <c r="A6" s="21" t="s">
         <v>33</v>
       </c>
@@ -5912,7 +5901,7 @@
       <c r="AG6" s="28"/>
       <c r="AH6" s="28"/>
     </row>
-    <row r="7" spans="1:34" ht="14.5">
+    <row r="7" spans="1:34">
       <c r="A7" s="21" t="s">
         <v>33</v>
       </c>
@@ -6001,7 +5990,7 @@
       <c r="AG7" s="28"/>
       <c r="AH7" s="28"/>
     </row>
-    <row r="8" spans="1:34" ht="14.5" hidden="1">
+    <row r="8" spans="1:34" hidden="1">
       <c r="A8" s="21" t="s">
         <v>35</v>
       </c>
@@ -6087,7 +6076,7 @@
       <c r="AG8" s="28"/>
       <c r="AH8" s="28"/>
     </row>
-    <row r="9" spans="1:34" ht="14.5" hidden="1">
+    <row r="9" spans="1:34" hidden="1">
       <c r="A9" s="21" t="s">
         <v>35</v>
       </c>
@@ -6175,7 +6164,7 @@
       <c r="AG9" s="28"/>
       <c r="AH9" s="28"/>
     </row>
-    <row r="10" spans="1:34" ht="14.5" hidden="1">
+    <row r="10" spans="1:34" hidden="1">
       <c r="A10" s="21" t="s">
         <v>37</v>
       </c>
@@ -6264,7 +6253,7 @@
       <c r="AG10" s="28"/>
       <c r="AH10" s="28"/>
     </row>
-    <row r="11" spans="1:34" ht="14.5" hidden="1">
+    <row r="11" spans="1:34" hidden="1">
       <c r="A11" s="21" t="s">
         <v>37</v>
       </c>
@@ -6348,7 +6337,7 @@
       <c r="AG11" s="28"/>
       <c r="AH11" s="28"/>
     </row>
-    <row r="12" spans="1:34" ht="14.5" hidden="1">
+    <row r="12" spans="1:34" hidden="1">
       <c r="A12" s="21" t="s">
         <v>38</v>
       </c>
@@ -6434,7 +6423,7 @@
       <c r="AG12" s="28"/>
       <c r="AH12" s="28"/>
     </row>
-    <row r="13" spans="1:34" ht="14.5" hidden="1">
+    <row r="13" spans="1:34" hidden="1">
       <c r="A13" s="21" t="s">
         <v>38</v>
       </c>
@@ -6519,7 +6508,7 @@
       <c r="AG13" s="28"/>
       <c r="AH13" s="28"/>
     </row>
-    <row r="14" spans="1:34" ht="14.5" hidden="1">
+    <row r="14" spans="1:34" hidden="1">
       <c r="A14" s="21" t="s">
         <v>40</v>
       </c>
@@ -6605,7 +6594,7 @@
       <c r="AG14" s="28"/>
       <c r="AH14" s="28"/>
     </row>
-    <row r="15" spans="1:34" ht="14.5" hidden="1">
+    <row r="15" spans="1:34" hidden="1">
       <c r="A15" s="21" t="s">
         <v>40</v>
       </c>
@@ -6690,7 +6679,7 @@
       <c r="AG15" s="28"/>
       <c r="AH15" s="28"/>
     </row>
-    <row r="16" spans="1:34" ht="14.5" hidden="1">
+    <row r="16" spans="1:34" hidden="1">
       <c r="A16" s="21" t="s">
         <v>41</v>
       </c>
@@ -6776,7 +6765,7 @@
       <c r="AG16" s="28"/>
       <c r="AH16" s="28"/>
     </row>
-    <row r="17" spans="1:34" ht="14.5" hidden="1">
+    <row r="17" spans="1:34" hidden="1">
       <c r="A17" s="21" t="s">
         <v>41</v>
       </c>
@@ -6861,7 +6850,7 @@
       <c r="AG17" s="28"/>
       <c r="AH17" s="28"/>
     </row>
-    <row r="18" spans="1:34" ht="14.5" hidden="1">
+    <row r="18" spans="1:34" hidden="1">
       <c r="A18" s="21" t="s">
         <v>42</v>
       </c>
@@ -6947,7 +6936,7 @@
       <c r="AG18" s="28"/>
       <c r="AH18" s="28"/>
     </row>
-    <row r="19" spans="1:34" ht="14.5" hidden="1">
+    <row r="19" spans="1:34" hidden="1">
       <c r="A19" s="21" t="s">
         <v>42</v>
       </c>
@@ -7030,7 +7019,7 @@
       <c r="AG19" s="28"/>
       <c r="AH19" s="28"/>
     </row>
-    <row r="20" spans="1:34" ht="14.5" hidden="1">
+    <row r="20" spans="1:34" hidden="1">
       <c r="A20" s="21" t="s">
         <v>43</v>
       </c>
@@ -7114,7 +7103,7 @@
       <c r="AG20" s="28"/>
       <c r="AH20" s="28"/>
     </row>
-    <row r="21" spans="1:34" ht="14.5" hidden="1">
+    <row r="21" spans="1:34" hidden="1">
       <c r="A21" s="21" t="s">
         <v>43</v>
       </c>
@@ -7197,7 +7186,7 @@
       <c r="AG21" s="28"/>
       <c r="AH21" s="28"/>
     </row>
-    <row r="22" spans="1:34" ht="14.5" hidden="1">
+    <row r="22" spans="1:34" hidden="1">
       <c r="A22" s="21" t="s">
         <v>44</v>
       </c>
@@ -7281,7 +7270,7 @@
       <c r="AG22" s="28"/>
       <c r="AH22" s="28"/>
     </row>
-    <row r="23" spans="1:34" ht="14.5" hidden="1">
+    <row r="23" spans="1:34" hidden="1">
       <c r="A23" s="21" t="s">
         <v>44</v>
       </c>
@@ -7364,7 +7353,7 @@
       <c r="AG23" s="28"/>
       <c r="AH23" s="28"/>
     </row>
-    <row r="24" spans="1:34" ht="14.5" hidden="1">
+    <row r="24" spans="1:34" hidden="1">
       <c r="A24" s="21" t="s">
         <v>45</v>
       </c>
@@ -7448,7 +7437,7 @@
       <c r="AG24" s="28"/>
       <c r="AH24" s="28"/>
     </row>
-    <row r="25" spans="1:34" ht="14.5" hidden="1">
+    <row r="25" spans="1:34" hidden="1">
       <c r="A25" s="21" t="s">
         <v>45</v>
       </c>
@@ -7531,7 +7520,7 @@
       <c r="AG25" s="28"/>
       <c r="AH25" s="28"/>
     </row>
-    <row r="26" spans="1:34" ht="14.5" hidden="1">
+    <row r="26" spans="1:34" hidden="1">
       <c r="A26" s="21" t="s">
         <v>46</v>
       </c>
@@ -7615,7 +7604,7 @@
       <c r="AG26" s="28"/>
       <c r="AH26" s="28"/>
     </row>
-    <row r="27" spans="1:34" ht="14.5" hidden="1">
+    <row r="27" spans="1:34" hidden="1">
       <c r="A27" s="21" t="s">
         <v>47</v>
       </c>
@@ -7698,7 +7687,7 @@
       <c r="AG27" s="28"/>
       <c r="AH27" s="28"/>
     </row>
-    <row r="28" spans="1:34" ht="14.5" hidden="1">
+    <row r="28" spans="1:34" hidden="1">
       <c r="A28" s="21" t="s">
         <v>46</v>
       </c>
@@ -7782,7 +7771,7 @@
       <c r="AG28" s="28"/>
       <c r="AH28" s="28"/>
     </row>
-    <row r="29" spans="1:34" ht="14.5" hidden="1">
+    <row r="29" spans="1:34" hidden="1">
       <c r="A29" s="21" t="s">
         <v>47</v>
       </c>
@@ -7865,7 +7854,7 @@
       <c r="AG29" s="28"/>
       <c r="AH29" s="28"/>
     </row>
-    <row r="30" spans="1:34" ht="14.5" hidden="1">
+    <row r="30" spans="1:34" hidden="1">
       <c r="A30" s="21" t="s">
         <v>49</v>
       </c>
@@ -7949,7 +7938,7 @@
       <c r="AG30" s="28"/>
       <c r="AH30" s="28"/>
     </row>
-    <row r="31" spans="1:34" ht="14.5" hidden="1">
+    <row r="31" spans="1:34" hidden="1">
       <c r="A31" s="21" t="s">
         <v>49</v>
       </c>
@@ -8033,7 +8022,7 @@
       <c r="AG31" s="28"/>
       <c r="AH31" s="28"/>
     </row>
-    <row r="32" spans="1:34" ht="14.5" hidden="1">
+    <row r="32" spans="1:34" hidden="1">
       <c r="A32" s="21" t="s">
         <v>50</v>
       </c>
@@ -8117,7 +8106,7 @@
       <c r="AG32" s="28"/>
       <c r="AH32" s="28"/>
     </row>
-    <row r="33" spans="1:34" ht="14.5" hidden="1">
+    <row r="33" spans="1:34" hidden="1">
       <c r="A33" s="21" t="s">
         <v>50</v>
       </c>
@@ -8201,7 +8190,7 @@
       <c r="AG33" s="28"/>
       <c r="AH33" s="28"/>
     </row>
-    <row r="34" spans="1:34" ht="14.5" hidden="1">
+    <row r="34" spans="1:34" hidden="1">
       <c r="A34" s="21" t="s">
         <v>40</v>
       </c>
@@ -8287,7 +8276,7 @@
       <c r="AG34" s="28"/>
       <c r="AH34" s="28"/>
     </row>
-    <row r="35" spans="1:34" ht="14.5" hidden="1">
+    <row r="35" spans="1:34" hidden="1">
       <c r="A35" s="21" t="s">
         <v>40</v>
       </c>
@@ -8373,7 +8362,7 @@
       <c r="AG35" s="28"/>
       <c r="AH35" s="28"/>
     </row>
-    <row r="36" spans="1:34" ht="14.5" hidden="1">
+    <row r="36" spans="1:34" hidden="1">
       <c r="A36" s="21" t="s">
         <v>53</v>
       </c>
@@ -8459,7 +8448,7 @@
       <c r="AG36" s="28"/>
       <c r="AH36" s="28"/>
     </row>
-    <row r="37" spans="1:34" ht="14.5" hidden="1">
+    <row r="37" spans="1:34" hidden="1">
       <c r="A37" s="21" t="s">
         <v>53</v>
       </c>
@@ -8545,7 +8534,7 @@
       <c r="AG37" s="28"/>
       <c r="AH37" s="28"/>
     </row>
-    <row r="38" spans="1:34" ht="14.5" hidden="1">
+    <row r="38" spans="1:34" hidden="1">
       <c r="A38" s="21" t="s">
         <v>54</v>
       </c>
@@ -8631,7 +8620,7 @@
       <c r="AG38" s="28"/>
       <c r="AH38" s="28"/>
     </row>
-    <row r="39" spans="1:34" ht="14.5" hidden="1">
+    <row r="39" spans="1:34" hidden="1">
       <c r="A39" s="21" t="s">
         <v>54</v>
       </c>
@@ -8717,7 +8706,7 @@
       <c r="AG39" s="28"/>
       <c r="AH39" s="28"/>
     </row>
-    <row r="40" spans="1:34" ht="14.5" hidden="1">
+    <row r="40" spans="1:34" hidden="1">
       <c r="A40" s="21" t="s">
         <v>55</v>
       </c>
@@ -8803,7 +8792,7 @@
       <c r="AG40" s="28"/>
       <c r="AH40" s="28"/>
     </row>
-    <row r="41" spans="1:34" ht="14.5" hidden="1">
+    <row r="41" spans="1:34" hidden="1">
       <c r="A41" s="21" t="s">
         <v>55</v>
       </c>
@@ -8889,7 +8878,7 @@
       <c r="AG41" s="28"/>
       <c r="AH41" s="28"/>
     </row>
-    <row r="42" spans="1:34" ht="14.5" hidden="1">
+    <row r="42" spans="1:34" hidden="1">
       <c r="A42" s="21" t="s">
         <v>46</v>
       </c>
@@ -8975,7 +8964,7 @@
       <c r="AG42" s="28"/>
       <c r="AH42" s="28"/>
     </row>
-    <row r="43" spans="1:34" ht="14.5" hidden="1">
+    <row r="43" spans="1:34" hidden="1">
       <c r="A43" s="21" t="s">
         <v>46</v>
       </c>
@@ -9061,7 +9050,7 @@
       <c r="AG43" s="28"/>
       <c r="AH43" s="28"/>
     </row>
-    <row r="44" spans="1:34" ht="14.5" hidden="1">
+    <row r="44" spans="1:34" hidden="1">
       <c r="A44" s="21" t="s">
         <v>56</v>
       </c>
@@ -9147,7 +9136,7 @@
       <c r="AG44" s="28"/>
       <c r="AH44" s="28"/>
     </row>
-    <row r="45" spans="1:34" ht="14.5" hidden="1">
+    <row r="45" spans="1:34" hidden="1">
       <c r="A45" s="21" t="s">
         <v>56</v>
       </c>
@@ -9232,7 +9221,7 @@
       <c r="AG45" s="28"/>
       <c r="AH45" s="28"/>
     </row>
-    <row r="46" spans="1:34" ht="14.5" hidden="1">
+    <row r="46" spans="1:34" hidden="1">
       <c r="A46" s="21" t="s">
         <v>57</v>
       </c>
@@ -9318,7 +9307,7 @@
       <c r="AG46" s="28"/>
       <c r="AH46" s="28"/>
     </row>
-    <row r="47" spans="1:34" ht="14.5" hidden="1">
+    <row r="47" spans="1:34" hidden="1">
       <c r="A47" s="21" t="s">
         <v>57</v>
       </c>
@@ -9403,7 +9392,7 @@
       <c r="AG47" s="28"/>
       <c r="AH47" s="28"/>
     </row>
-    <row r="48" spans="1:34" ht="14.5" hidden="1">
+    <row r="48" spans="1:34" hidden="1">
       <c r="A48" s="21" t="s">
         <v>58</v>
       </c>
@@ -9489,7 +9478,7 @@
       <c r="AG48" s="28"/>
       <c r="AH48" s="28"/>
     </row>
-    <row r="49" spans="1:34" ht="14.5" hidden="1">
+    <row r="49" spans="1:34" hidden="1">
       <c r="A49" s="21" t="s">
         <v>58</v>
       </c>
@@ -9575,7 +9564,7 @@
       <c r="AG49" s="28"/>
       <c r="AH49" s="28"/>
     </row>
-    <row r="50" spans="1:34" ht="14.5" hidden="1">
+    <row r="50" spans="1:34" hidden="1">
       <c r="A50" s="21" t="s">
         <v>59</v>
       </c>
@@ -9661,7 +9650,7 @@
       <c r="AG50" s="28"/>
       <c r="AH50" s="28"/>
     </row>
-    <row r="51" spans="1:34" ht="14.5" hidden="1">
+    <row r="51" spans="1:34" hidden="1">
       <c r="A51" s="21" t="s">
         <v>59</v>
       </c>
@@ -9747,7 +9736,7 @@
       <c r="AG51" s="28"/>
       <c r="AH51" s="28"/>
     </row>
-    <row r="52" spans="1:34" ht="14.5" hidden="1">
+    <row r="52" spans="1:34" hidden="1">
       <c r="A52" s="21" t="s">
         <v>60</v>
       </c>
@@ -9833,7 +9822,7 @@
       <c r="AG52" s="28"/>
       <c r="AH52" s="28"/>
     </row>
-    <row r="53" spans="1:34" ht="14.5" hidden="1">
+    <row r="53" spans="1:34" hidden="1">
       <c r="A53" s="21" t="s">
         <v>60</v>
       </c>
@@ -9919,7 +9908,7 @@
       <c r="AG53" s="28"/>
       <c r="AH53" s="28"/>
     </row>
-    <row r="54" spans="1:34" ht="14.5" hidden="1">
+    <row r="54" spans="1:34" hidden="1">
       <c r="A54" s="21" t="s">
         <v>61</v>
       </c>
@@ -10005,7 +9994,7 @@
       <c r="AG54" s="28"/>
       <c r="AH54" s="28"/>
     </row>
-    <row r="55" spans="1:34" ht="14.5" hidden="1">
+    <row r="55" spans="1:34" hidden="1">
       <c r="A55" s="21" t="s">
         <v>61</v>
       </c>
@@ -10091,7 +10080,7 @@
       <c r="AG55" s="28"/>
       <c r="AH55" s="28"/>
     </row>
-    <row r="56" spans="1:34" ht="14.5" hidden="1">
+    <row r="56" spans="1:34" hidden="1">
       <c r="A56" s="21" t="s">
         <v>62</v>
       </c>
@@ -10145,7 +10134,7 @@
       <c r="AG56" s="28"/>
       <c r="AH56" s="28"/>
     </row>
-    <row r="57" spans="1:34" ht="14.5" hidden="1">
+    <row r="57" spans="1:34" hidden="1">
       <c r="A57" s="21" t="s">
         <v>62</v>
       </c>
@@ -10199,7 +10188,7 @@
       <c r="AG57" s="28"/>
       <c r="AH57" s="28"/>
     </row>
-    <row r="58" spans="1:34" ht="14.5">
+    <row r="58" spans="1:34">
       <c r="A58" s="40" t="s">
         <v>33</v>
       </c>
@@ -10210,7 +10199,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="29">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="E58" s="30">
         <v>57</v>
@@ -10285,7 +10274,7 @@
       <c r="AG58" s="28"/>
       <c r="AH58" s="28"/>
     </row>
-    <row r="59" spans="1:34" ht="14.5">
+    <row r="59" spans="1:34">
       <c r="A59" s="40" t="s">
         <v>33</v>
       </c>
@@ -10296,7 +10285,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="29">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="E59" s="30">
         <v>58</v>
@@ -10371,7 +10360,7 @@
       <c r="AG59" s="28"/>
       <c r="AH59" s="28"/>
     </row>
-    <row r="60" spans="1:34" ht="14.5" hidden="1">
+    <row r="60" spans="1:34" hidden="1">
       <c r="A60" s="21" t="s">
         <v>42</v>
       </c>
@@ -10457,7 +10446,7 @@
       <c r="AG60" s="28"/>
       <c r="AH60" s="28"/>
     </row>
-    <row r="61" spans="1:34" ht="14.5" hidden="1">
+    <row r="61" spans="1:34" hidden="1">
       <c r="A61" s="21" t="s">
         <v>42</v>
       </c>
@@ -10543,7 +10532,7 @@
       <c r="AG61" s="28"/>
       <c r="AH61" s="28"/>
     </row>
-    <row r="62" spans="1:34" ht="14.5" hidden="1">
+    <row r="62" spans="1:34" hidden="1">
       <c r="A62" s="21" t="s">
         <v>47</v>
       </c>
@@ -10629,7 +10618,7 @@
       <c r="AG62" s="28"/>
       <c r="AH62" s="28"/>
     </row>
-    <row r="63" spans="1:34" ht="14.5" hidden="1">
+    <row r="63" spans="1:34" hidden="1">
       <c r="A63" s="21" t="s">
         <v>47</v>
       </c>
@@ -10715,7 +10704,7 @@
       <c r="AG63" s="28"/>
       <c r="AH63" s="28"/>
     </row>
-    <row r="64" spans="1:34" ht="14.5" hidden="1">
+    <row r="64" spans="1:34" hidden="1">
       <c r="A64" s="21" t="s">
         <v>69</v>
       </c>
@@ -10801,7 +10790,7 @@
       <c r="AG64" s="28"/>
       <c r="AH64" s="28"/>
     </row>
-    <row r="65" spans="1:34" ht="14.5" hidden="1">
+    <row r="65" spans="1:34" hidden="1">
       <c r="A65" s="21" t="s">
         <v>69</v>
       </c>
@@ -10887,7 +10876,7 @@
       <c r="AG65" s="28"/>
       <c r="AH65" s="28"/>
     </row>
-    <row r="66" spans="1:34" ht="14.5" hidden="1">
+    <row r="66" spans="1:34" hidden="1">
       <c r="A66" s="21" t="s">
         <v>70</v>
       </c>
@@ -10973,7 +10962,7 @@
       <c r="AG66" s="28"/>
       <c r="AH66" s="28"/>
     </row>
-    <row r="67" spans="1:34" ht="14.5" hidden="1">
+    <row r="67" spans="1:34" hidden="1">
       <c r="A67" s="21" t="s">
         <v>70</v>
       </c>
@@ -11059,7 +11048,7 @@
       <c r="AG67" s="28"/>
       <c r="AH67" s="28"/>
     </row>
-    <row r="68" spans="1:34" ht="14.5" hidden="1">
+    <row r="68" spans="1:34" hidden="1">
       <c r="A68" s="21" t="s">
         <v>46</v>
       </c>
@@ -11145,7 +11134,7 @@
       <c r="AG68" s="28"/>
       <c r="AH68" s="28"/>
     </row>
-    <row r="69" spans="1:34" ht="14.5" hidden="1">
+    <row r="69" spans="1:34" hidden="1">
       <c r="A69" s="21" t="s">
         <v>46</v>
       </c>
@@ -11231,7 +11220,7 @@
       <c r="AG69" s="28"/>
       <c r="AH69" s="28"/>
     </row>
-    <row r="70" spans="1:34" ht="14.5">
+    <row r="70" spans="1:34">
       <c r="A70" s="40" t="s">
         <v>32</v>
       </c>
@@ -11317,7 +11306,7 @@
       <c r="AG70" s="28"/>
       <c r="AH70" s="28"/>
     </row>
-    <row r="71" spans="1:34" ht="14.5">
+    <row r="71" spans="1:34">
       <c r="A71" s="40" t="s">
         <v>32</v>
       </c>
@@ -11403,7 +11392,7 @@
       <c r="AG71" s="28"/>
       <c r="AH71" s="28"/>
     </row>
-    <row r="72" spans="1:34" ht="14.5" hidden="1">
+    <row r="72" spans="1:34" hidden="1">
       <c r="A72" s="21" t="s">
         <v>35</v>
       </c>
@@ -11487,7 +11476,7 @@
       <c r="AG72" s="28"/>
       <c r="AH72" s="28"/>
     </row>
-    <row r="73" spans="1:34" ht="14.5" hidden="1">
+    <row r="73" spans="1:34" hidden="1">
       <c r="A73" s="21" t="s">
         <v>35</v>
       </c>
@@ -11573,7 +11562,7 @@
       <c r="AG73" s="28"/>
       <c r="AH73" s="28"/>
     </row>
-    <row r="74" spans="1:34" ht="14.5" hidden="1">
+    <row r="74" spans="1:34" hidden="1">
       <c r="A74" s="21" t="s">
         <v>75</v>
       </c>
@@ -11651,7 +11640,7 @@
       <c r="Y74" s="28"/>
       <c r="Z74" s="28"/>
     </row>
-    <row r="75" spans="1:34" ht="14.5" hidden="1">
+    <row r="75" spans="1:34" hidden="1">
       <c r="A75" s="21" t="s">
         <v>75</v>
       </c>
@@ -11737,7 +11726,7 @@
       <c r="AG75" s="28"/>
       <c r="AH75" s="28"/>
     </row>
-    <row r="76" spans="1:34" ht="14.5" hidden="1">
+    <row r="76" spans="1:34" hidden="1">
       <c r="A76" s="21" t="s">
         <v>70</v>
       </c>
@@ -11821,7 +11810,7 @@
       <c r="AG76" s="28"/>
       <c r="AH76" s="28"/>
     </row>
-    <row r="77" spans="1:34" ht="14.5" hidden="1">
+    <row r="77" spans="1:34" hidden="1">
       <c r="A77" s="21" t="s">
         <v>70</v>
       </c>
@@ -11907,7 +11896,7 @@
       <c r="AG77" s="28"/>
       <c r="AH77" s="28"/>
     </row>
-    <row r="78" spans="1:34" ht="14.5" hidden="1">
+    <row r="78" spans="1:34" hidden="1">
       <c r="A78" s="21" t="s">
         <v>77</v>
       </c>
@@ -11991,7 +11980,7 @@
       <c r="AG78" s="28"/>
       <c r="AH78" s="28"/>
     </row>
-    <row r="79" spans="1:34" ht="14.5" hidden="1">
+    <row r="79" spans="1:34" hidden="1">
       <c r="A79" s="21" t="s">
         <v>77</v>
       </c>
@@ -12077,7 +12066,7 @@
       <c r="AG79" s="28"/>
       <c r="AH79" s="28"/>
     </row>
-    <row r="80" spans="1:34" ht="14.5" hidden="1">
+    <row r="80" spans="1:34" hidden="1">
       <c r="A80" s="21" t="s">
         <v>78</v>
       </c>
@@ -12155,7 +12144,7 @@
       <c r="Y80" s="28"/>
       <c r="Z80" s="28"/>
     </row>
-    <row r="81" spans="1:34" ht="14.5" hidden="1">
+    <row r="81" spans="1:34" hidden="1">
       <c r="A81" s="21" t="s">
         <v>78</v>
       </c>
@@ -12241,7 +12230,7 @@
       <c r="AG81" s="28"/>
       <c r="AH81" s="28"/>
     </row>
-    <row r="82" spans="1:34" ht="14.5" hidden="1">
+    <row r="82" spans="1:34" hidden="1">
       <c r="A82" s="21" t="s">
         <v>60</v>
       </c>
@@ -12325,7 +12314,7 @@
       <c r="AG82" s="28"/>
       <c r="AH82" s="28"/>
     </row>
-    <row r="83" spans="1:34" ht="14.5" hidden="1">
+    <row r="83" spans="1:34" hidden="1">
       <c r="A83" s="21" t="s">
         <v>60</v>
       </c>
@@ -12411,7 +12400,7 @@
       <c r="AG83" s="28"/>
       <c r="AH83" s="28"/>
     </row>
-    <row r="84" spans="1:34" ht="14.5" hidden="1">
+    <row r="84" spans="1:34" hidden="1">
       <c r="A84" s="21" t="s">
         <v>79</v>
       </c>
@@ -12497,7 +12486,7 @@
       <c r="AG84" s="28"/>
       <c r="AH84" s="28"/>
     </row>
-    <row r="85" spans="1:34" ht="14.5" hidden="1">
+    <row r="85" spans="1:34" hidden="1">
       <c r="A85" s="21" t="s">
         <v>79</v>
       </c>
@@ -12583,7 +12572,7 @@
       <c r="AG85" s="28"/>
       <c r="AH85" s="28"/>
     </row>
-    <row r="86" spans="1:34" ht="14.5" hidden="1">
+    <row r="86" spans="1:34" hidden="1">
       <c r="A86" s="21" t="s">
         <v>62</v>
       </c>
@@ -12637,7 +12626,7 @@
       <c r="AG86" s="28"/>
       <c r="AH86" s="28"/>
     </row>
-    <row r="87" spans="1:34" ht="14.5" hidden="1">
+    <row r="87" spans="1:34" hidden="1">
       <c r="A87" s="21" t="s">
         <v>80</v>
       </c>
@@ -12723,7 +12712,7 @@
       <c r="AG87" s="28"/>
       <c r="AH87" s="28"/>
     </row>
-    <row r="88" spans="1:34" ht="14.5" hidden="1">
+    <row r="88" spans="1:34" hidden="1">
       <c r="A88" s="21" t="s">
         <v>80</v>
       </c>
@@ -12809,7 +12798,7 @@
       <c r="AG88" s="28"/>
       <c r="AH88" s="28"/>
     </row>
-    <row r="89" spans="1:34" ht="14.5" hidden="1">
+    <row r="89" spans="1:34" hidden="1">
       <c r="A89" s="21" t="s">
         <v>50</v>
       </c>
@@ -12895,7 +12884,7 @@
       <c r="AG89" s="28"/>
       <c r="AH89" s="28"/>
     </row>
-    <row r="90" spans="1:34" ht="14.5" hidden="1">
+    <row r="90" spans="1:34" hidden="1">
       <c r="A90" s="21" t="s">
         <v>50</v>
       </c>
@@ -12981,7 +12970,7 @@
       <c r="AG90" s="28"/>
       <c r="AH90" s="28"/>
     </row>
-    <row r="91" spans="1:34" ht="14.5">
+    <row r="91" spans="1:34">
       <c r="A91" s="40" t="s">
         <v>32</v>
       </c>
@@ -13067,7 +13056,7 @@
       <c r="AG91" s="28"/>
       <c r="AH91" s="28"/>
     </row>
-    <row r="92" spans="1:34" ht="14.5">
+    <row r="92" spans="1:34">
       <c r="A92" s="40" t="s">
         <v>32</v>
       </c>
@@ -13153,7 +13142,7 @@
       <c r="AG92" s="28"/>
       <c r="AH92" s="28"/>
     </row>
-    <row r="93" spans="1:34" ht="14.5" hidden="1">
+    <row r="93" spans="1:34" hidden="1">
       <c r="A93" s="21" t="s">
         <v>79</v>
       </c>
@@ -13239,7 +13228,7 @@
       <c r="AG93" s="28"/>
       <c r="AH93" s="28"/>
     </row>
-    <row r="94" spans="1:34" ht="14.5" hidden="1">
+    <row r="94" spans="1:34" hidden="1">
       <c r="A94" s="21" t="s">
         <v>79</v>
       </c>
@@ -13325,7 +13314,7 @@
       <c r="AG94" s="28"/>
       <c r="AH94" s="28"/>
     </row>
-    <row r="95" spans="1:34" ht="14.5" hidden="1">
+    <row r="95" spans="1:34" hidden="1">
       <c r="A95" s="21" t="s">
         <v>62</v>
       </c>
@@ -13366,7 +13355,7 @@
       <c r="AG95" s="28"/>
       <c r="AH95" s="28"/>
     </row>
-    <row r="96" spans="1:34" ht="14.5" hidden="1">
+    <row r="96" spans="1:34" hidden="1">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="28"/>
@@ -13402,7 +13391,7 @@
       <c r="AG96" s="28"/>
       <c r="AH96" s="28"/>
     </row>
-    <row r="97" spans="1:34" ht="14.5" hidden="1">
+    <row r="97" spans="1:34" hidden="1">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="28"/>
@@ -13438,7 +13427,7 @@
       <c r="AG97" s="28"/>
       <c r="AH97" s="28"/>
     </row>
-    <row r="98" spans="1:34" ht="14.5" hidden="1">
+    <row r="98" spans="1:34" hidden="1">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="28"/>
@@ -13474,7 +13463,7 @@
       <c r="AG98" s="28"/>
       <c r="AH98" s="28"/>
     </row>
-    <row r="99" spans="1:34" ht="14.5" hidden="1">
+    <row r="99" spans="1:34" hidden="1">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="28"/>
@@ -13510,7 +13499,7 @@
       <c r="AG99" s="28"/>
       <c r="AH99" s="28"/>
     </row>
-    <row r="100" spans="1:34" ht="14.5" hidden="1">
+    <row r="100" spans="1:34" hidden="1">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="28"/>
@@ -13546,7 +13535,7 @@
       <c r="AG100" s="28"/>
       <c r="AH100" s="28"/>
     </row>
-    <row r="101" spans="1:34" ht="14.5" hidden="1">
+    <row r="101" spans="1:34" hidden="1">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="28"/>
@@ -13582,7 +13571,7 @@
       <c r="AG101" s="28"/>
       <c r="AH101" s="28"/>
     </row>
-    <row r="102" spans="1:34" ht="14.5" hidden="1">
+    <row r="102" spans="1:34" hidden="1">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="28"/>
@@ -13618,7 +13607,7 @@
       <c r="AG102" s="28"/>
       <c r="AH102" s="28"/>
     </row>
-    <row r="103" spans="1:34" ht="14.5" hidden="1">
+    <row r="103" spans="1:34" hidden="1">
       <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="28"/>
@@ -13654,7 +13643,7 @@
       <c r="AG103" s="28"/>
       <c r="AH103" s="28"/>
     </row>
-    <row r="104" spans="1:34" ht="14.5" hidden="1">
+    <row r="104" spans="1:34" hidden="1">
       <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="28"/>
@@ -13690,7 +13679,7 @@
       <c r="AG104" s="28"/>
       <c r="AH104" s="28"/>
     </row>
-    <row r="105" spans="1:34" ht="14.5" hidden="1">
+    <row r="105" spans="1:34" hidden="1">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="28"/>
@@ -13726,7 +13715,7 @@
       <c r="AG105" s="28"/>
       <c r="AH105" s="28"/>
     </row>
-    <row r="106" spans="1:34" ht="14.5" hidden="1">
+    <row r="106" spans="1:34" hidden="1">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="28"/>
@@ -13762,7 +13751,7 @@
       <c r="AG106" s="28"/>
       <c r="AH106" s="28"/>
     </row>
-    <row r="107" spans="1:34" ht="14.5" hidden="1">
+    <row r="107" spans="1:34" hidden="1">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="28"/>
@@ -13798,7 +13787,7 @@
       <c r="AG107" s="28"/>
       <c r="AH107" s="28"/>
     </row>
-    <row r="108" spans="1:34" ht="14.5" hidden="1">
+    <row r="108" spans="1:34" hidden="1">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="28"/>
@@ -13834,7 +13823,7 @@
       <c r="AG108" s="28"/>
       <c r="AH108" s="28"/>
     </row>
-    <row r="109" spans="1:34" ht="14.5" hidden="1">
+    <row r="109" spans="1:34" hidden="1">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="28"/>
@@ -13870,7 +13859,7 @@
       <c r="AG109" s="28"/>
       <c r="AH109" s="28"/>
     </row>
-    <row r="110" spans="1:34" ht="14.5" hidden="1">
+    <row r="110" spans="1:34" hidden="1">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="28"/>
@@ -13906,7 +13895,7 @@
       <c r="AG110" s="28"/>
       <c r="AH110" s="28"/>
     </row>
-    <row r="111" spans="1:34" ht="14.5" hidden="1">
+    <row r="111" spans="1:34" hidden="1">
       <c r="A111" s="21"/>
       <c r="B111" s="21"/>
       <c r="C111" s="28"/>
@@ -13942,7 +13931,7 @@
       <c r="AG111" s="28"/>
       <c r="AH111" s="28"/>
     </row>
-    <row r="112" spans="1:34" ht="14.5" hidden="1">
+    <row r="112" spans="1:34" hidden="1">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="28"/>
@@ -13978,7 +13967,7 @@
       <c r="AG112" s="28"/>
       <c r="AH112" s="28"/>
     </row>
-    <row r="113" spans="1:34" ht="14.5" hidden="1">
+    <row r="113" spans="1:34" hidden="1">
       <c r="A113" s="21"/>
       <c r="B113" s="21"/>
       <c r="C113" s="28"/>
@@ -14014,7 +14003,7 @@
       <c r="AG113" s="28"/>
       <c r="AH113" s="28"/>
     </row>
-    <row r="114" spans="1:34" ht="14.5" hidden="1">
+    <row r="114" spans="1:34" hidden="1">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
       <c r="C114" s="28"/>
@@ -14050,7 +14039,7 @@
       <c r="AG114" s="28"/>
       <c r="AH114" s="28"/>
     </row>
-    <row r="115" spans="1:34" ht="14.5" hidden="1">
+    <row r="115" spans="1:34" hidden="1">
       <c r="A115" s="21"/>
       <c r="B115" s="21"/>
       <c r="C115" s="28"/>
@@ -14086,7 +14075,7 @@
       <c r="AG115" s="28"/>
       <c r="AH115" s="28"/>
     </row>
-    <row r="116" spans="1:34" ht="14.5" hidden="1">
+    <row r="116" spans="1:34" hidden="1">
       <c r="A116" s="21"/>
       <c r="B116" s="21"/>
       <c r="C116" s="28"/>
@@ -14122,7 +14111,7 @@
       <c r="AG116" s="28"/>
       <c r="AH116" s="28"/>
     </row>
-    <row r="117" spans="1:34" ht="14.5" hidden="1">
+    <row r="117" spans="1:34" hidden="1">
       <c r="A117" s="21"/>
       <c r="B117" s="21"/>
       <c r="C117" s="28"/>
@@ -14158,7 +14147,7 @@
       <c r="AG117" s="28"/>
       <c r="AH117" s="28"/>
     </row>
-    <row r="118" spans="1:34" ht="14.5" hidden="1">
+    <row r="118" spans="1:34" hidden="1">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
       <c r="C118" s="28"/>
@@ -14194,7 +14183,7 @@
       <c r="AG118" s="28"/>
       <c r="AH118" s="28"/>
     </row>
-    <row r="119" spans="1:34" ht="14.5" hidden="1">
+    <row r="119" spans="1:34" hidden="1">
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="28"/>
@@ -14230,7 +14219,7 @@
       <c r="AG119" s="28"/>
       <c r="AH119" s="28"/>
     </row>
-    <row r="120" spans="1:34" ht="14.5" hidden="1">
+    <row r="120" spans="1:34" hidden="1">
       <c r="A120" s="21"/>
       <c r="B120" s="21"/>
       <c r="C120" s="28"/>
@@ -14266,7 +14255,7 @@
       <c r="AG120" s="28"/>
       <c r="AH120" s="28"/>
     </row>
-    <row r="121" spans="1:34" ht="14.5" hidden="1">
+    <row r="121" spans="1:34" hidden="1">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="28"/>
@@ -14302,7 +14291,7 @@
       <c r="AG121" s="28"/>
       <c r="AH121" s="28"/>
     </row>
-    <row r="122" spans="1:34" ht="14.5" hidden="1">
+    <row r="122" spans="1:34" hidden="1">
       <c r="A122" s="21"/>
       <c r="B122" s="21"/>
       <c r="C122" s="28"/>
@@ -14338,7 +14327,7 @@
       <c r="AG122" s="28"/>
       <c r="AH122" s="28"/>
     </row>
-    <row r="123" spans="1:34" ht="14.5" hidden="1">
+    <row r="123" spans="1:34" hidden="1">
       <c r="A123" s="21"/>
       <c r="B123" s="21"/>
       <c r="C123" s="28"/>
@@ -14374,7 +14363,7 @@
       <c r="AG123" s="28"/>
       <c r="AH123" s="28"/>
     </row>
-    <row r="124" spans="1:34" ht="14.5" hidden="1">
+    <row r="124" spans="1:34" hidden="1">
       <c r="A124" s="21"/>
       <c r="B124" s="21"/>
       <c r="C124" s="28"/>
@@ -14410,7 +14399,7 @@
       <c r="AG124" s="28"/>
       <c r="AH124" s="28"/>
     </row>
-    <row r="125" spans="1:34" ht="14.5" hidden="1">
+    <row r="125" spans="1:34" hidden="1">
       <c r="A125" s="21"/>
       <c r="B125" s="21"/>
       <c r="C125" s="28"/>
@@ -14446,7 +14435,7 @@
       <c r="AG125" s="28"/>
       <c r="AH125" s="28"/>
     </row>
-    <row r="126" spans="1:34" ht="14.5" hidden="1">
+    <row r="126" spans="1:34" hidden="1">
       <c r="A126" s="21"/>
       <c r="B126" s="21"/>
       <c r="C126" s="28"/>
@@ -14482,7 +14471,7 @@
       <c r="AG126" s="28"/>
       <c r="AH126" s="28"/>
     </row>
-    <row r="127" spans="1:34" ht="14.5" hidden="1">
+    <row r="127" spans="1:34" hidden="1">
       <c r="A127" s="21"/>
       <c r="B127" s="21"/>
       <c r="C127" s="28"/>
@@ -14518,7 +14507,7 @@
       <c r="AG127" s="28"/>
       <c r="AH127" s="28"/>
     </row>
-    <row r="128" spans="1:34" ht="14.5" hidden="1">
+    <row r="128" spans="1:34" hidden="1">
       <c r="A128" s="21"/>
       <c r="B128" s="21"/>
       <c r="C128" s="28"/>
@@ -14554,7 +14543,7 @@
       <c r="AG128" s="28"/>
       <c r="AH128" s="28"/>
     </row>
-    <row r="129" spans="1:34" ht="14.5" hidden="1">
+    <row r="129" spans="1:34" hidden="1">
       <c r="A129" s="21"/>
       <c r="B129" s="21"/>
       <c r="C129" s="28"/>
@@ -14590,7 +14579,7 @@
       <c r="AG129" s="28"/>
       <c r="AH129" s="28"/>
     </row>
-    <row r="130" spans="1:34" ht="14.5" hidden="1">
+    <row r="130" spans="1:34" hidden="1">
       <c r="A130" s="21"/>
       <c r="B130" s="21"/>
       <c r="C130" s="28"/>
@@ -14626,7 +14615,7 @@
       <c r="AG130" s="28"/>
       <c r="AH130" s="28"/>
     </row>
-    <row r="131" spans="1:34" ht="14.5" hidden="1">
+    <row r="131" spans="1:34" hidden="1">
       <c r="A131" s="21"/>
       <c r="B131" s="21"/>
       <c r="C131" s="28"/>
@@ -14662,7 +14651,7 @@
       <c r="AG131" s="28"/>
       <c r="AH131" s="28"/>
     </row>
-    <row r="132" spans="1:34" ht="14.5" hidden="1">
+    <row r="132" spans="1:34" hidden="1">
       <c r="A132" s="21"/>
       <c r="B132" s="21"/>
       <c r="C132" s="28"/>
@@ -14698,7 +14687,7 @@
       <c r="AG132" s="28"/>
       <c r="AH132" s="28"/>
     </row>
-    <row r="133" spans="1:34" ht="14.5" hidden="1">
+    <row r="133" spans="1:34" hidden="1">
       <c r="A133" s="21"/>
       <c r="B133" s="21"/>
       <c r="C133" s="28"/>
@@ -14734,7 +14723,7 @@
       <c r="AG133" s="28"/>
       <c r="AH133" s="28"/>
     </row>
-    <row r="134" spans="1:34" ht="14.5" hidden="1">
+    <row r="134" spans="1:34" hidden="1">
       <c r="A134" s="21"/>
       <c r="B134" s="21"/>
       <c r="C134" s="28"/>
@@ -14770,7 +14759,7 @@
       <c r="AG134" s="28"/>
       <c r="AH134" s="28"/>
     </row>
-    <row r="135" spans="1:34" ht="14.5" hidden="1">
+    <row r="135" spans="1:34" hidden="1">
       <c r="A135" s="21"/>
       <c r="B135" s="21"/>
       <c r="C135" s="28"/>
@@ -14806,7 +14795,7 @@
       <c r="AG135" s="28"/>
       <c r="AH135" s="28"/>
     </row>
-    <row r="136" spans="1:34" ht="14.5" hidden="1">
+    <row r="136" spans="1:34" hidden="1">
       <c r="A136" s="21"/>
       <c r="B136" s="21"/>
       <c r="C136" s="28"/>
@@ -14842,7 +14831,7 @@
       <c r="AG136" s="28"/>
       <c r="AH136" s="28"/>
     </row>
-    <row r="137" spans="1:34" ht="14.5" hidden="1">
+    <row r="137" spans="1:34" hidden="1">
       <c r="A137" s="21"/>
       <c r="B137" s="21"/>
       <c r="C137" s="28"/>
@@ -14878,7 +14867,7 @@
       <c r="AG137" s="28"/>
       <c r="AH137" s="28"/>
     </row>
-    <row r="138" spans="1:34" ht="14.5" hidden="1">
+    <row r="138" spans="1:34" hidden="1">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="28"/>
@@ -14914,7 +14903,7 @@
       <c r="AG138" s="28"/>
       <c r="AH138" s="28"/>
     </row>
-    <row r="139" spans="1:34" ht="14.5" hidden="1">
+    <row r="139" spans="1:34" hidden="1">
       <c r="A139" s="21"/>
       <c r="B139" s="21"/>
       <c r="C139" s="28"/>
@@ -14950,7 +14939,7 @@
       <c r="AG139" s="28"/>
       <c r="AH139" s="28"/>
     </row>
-    <row r="140" spans="1:34" ht="14.5" hidden="1">
+    <row r="140" spans="1:34" hidden="1">
       <c r="A140" s="21"/>
       <c r="B140" s="21"/>
       <c r="C140" s="28"/>
@@ -14986,7 +14975,7 @@
       <c r="AG140" s="28"/>
       <c r="AH140" s="28"/>
     </row>
-    <row r="141" spans="1:34" ht="14.5" hidden="1">
+    <row r="141" spans="1:34" hidden="1">
       <c r="A141" s="21"/>
       <c r="B141" s="21"/>
       <c r="C141" s="28"/>
@@ -15022,7 +15011,7 @@
       <c r="AG141" s="28"/>
       <c r="AH141" s="28"/>
     </row>
-    <row r="142" spans="1:34" ht="14.5" hidden="1">
+    <row r="142" spans="1:34" hidden="1">
       <c r="A142" s="21"/>
       <c r="B142" s="21"/>
       <c r="C142" s="28"/>
@@ -15058,7 +15047,7 @@
       <c r="AG142" s="28"/>
       <c r="AH142" s="28"/>
     </row>
-    <row r="143" spans="1:34" ht="14.5" hidden="1">
+    <row r="143" spans="1:34" hidden="1">
       <c r="A143" s="21"/>
       <c r="B143" s="21"/>
       <c r="C143" s="28"/>
@@ -15094,7 +15083,7 @@
       <c r="AG143" s="28"/>
       <c r="AH143" s="28"/>
     </row>
-    <row r="144" spans="1:34" ht="14.5" hidden="1">
+    <row r="144" spans="1:34" hidden="1">
       <c r="A144" s="21"/>
       <c r="B144" s="21"/>
       <c r="C144" s="28"/>
@@ -15130,7 +15119,7 @@
       <c r="AG144" s="28"/>
       <c r="AH144" s="28"/>
     </row>
-    <row r="145" spans="1:34" ht="14.5" hidden="1">
+    <row r="145" spans="1:34" hidden="1">
       <c r="A145" s="21"/>
       <c r="B145" s="21"/>
       <c r="C145" s="28"/>
@@ -15166,7 +15155,7 @@
       <c r="AG145" s="28"/>
       <c r="AH145" s="28"/>
     </row>
-    <row r="146" spans="1:34" ht="14.5" hidden="1">
+    <row r="146" spans="1:34" hidden="1">
       <c r="A146" s="21"/>
       <c r="B146" s="21"/>
       <c r="C146" s="28"/>
@@ -15202,7 +15191,7 @@
       <c r="AG146" s="28"/>
       <c r="AH146" s="28"/>
     </row>
-    <row r="147" spans="1:34" ht="14.5" hidden="1">
+    <row r="147" spans="1:34" hidden="1">
       <c r="A147" s="21"/>
       <c r="B147" s="21"/>
       <c r="C147" s="28"/>
@@ -15238,7 +15227,7 @@
       <c r="AG147" s="28"/>
       <c r="AH147" s="28"/>
     </row>
-    <row r="148" spans="1:34" ht="14.5" hidden="1">
+    <row r="148" spans="1:34" hidden="1">
       <c r="A148" s="21"/>
       <c r="B148" s="21"/>
       <c r="C148" s="28"/>
@@ -15274,7 +15263,7 @@
       <c r="AG148" s="28"/>
       <c r="AH148" s="28"/>
     </row>
-    <row r="149" spans="1:34" ht="14.5" hidden="1">
+    <row r="149" spans="1:34" hidden="1">
       <c r="A149" s="21"/>
       <c r="B149" s="21"/>
       <c r="C149" s="28"/>
@@ -15310,7 +15299,7 @@
       <c r="AG149" s="28"/>
       <c r="AH149" s="28"/>
     </row>
-    <row r="150" spans="1:34" ht="14.5" hidden="1">
+    <row r="150" spans="1:34" hidden="1">
       <c r="A150" s="21"/>
       <c r="B150" s="21"/>
       <c r="C150" s="28"/>
@@ -15346,7 +15335,7 @@
       <c r="AG150" s="28"/>
       <c r="AH150" s="28"/>
     </row>
-    <row r="151" spans="1:34" ht="14.5" hidden="1">
+    <row r="151" spans="1:34" hidden="1">
       <c r="A151" s="21"/>
       <c r="B151" s="21"/>
       <c r="C151" s="28"/>
@@ -15382,7 +15371,7 @@
       <c r="AG151" s="28"/>
       <c r="AH151" s="28"/>
     </row>
-    <row r="152" spans="1:34" ht="14.5" hidden="1">
+    <row r="152" spans="1:34" hidden="1">
       <c r="A152" s="21"/>
       <c r="B152" s="21"/>
       <c r="C152" s="28"/>
@@ -15418,7 +15407,7 @@
       <c r="AG152" s="28"/>
       <c r="AH152" s="28"/>
     </row>
-    <row r="153" spans="1:34" ht="14.5" hidden="1">
+    <row r="153" spans="1:34" hidden="1">
       <c r="A153" s="21"/>
       <c r="B153" s="21"/>
       <c r="C153" s="28"/>
@@ -15454,7 +15443,7 @@
       <c r="AG153" s="28"/>
       <c r="AH153" s="28"/>
     </row>
-    <row r="154" spans="1:34" ht="14.5" hidden="1">
+    <row r="154" spans="1:34" hidden="1">
       <c r="A154" s="21"/>
       <c r="B154" s="21"/>
       <c r="C154" s="28"/>
@@ -15490,7 +15479,7 @@
       <c r="AG154" s="28"/>
       <c r="AH154" s="28"/>
     </row>
-    <row r="155" spans="1:34" ht="14.5" hidden="1">
+    <row r="155" spans="1:34" hidden="1">
       <c r="A155" s="21"/>
       <c r="B155" s="21"/>
       <c r="C155" s="28"/>
@@ -15526,7 +15515,7 @@
       <c r="AG155" s="28"/>
       <c r="AH155" s="28"/>
     </row>
-    <row r="156" spans="1:34" ht="14.5" hidden="1">
+    <row r="156" spans="1:34" hidden="1">
       <c r="A156" s="21"/>
       <c r="B156" s="21"/>
       <c r="C156" s="28"/>
@@ -15562,7 +15551,7 @@
       <c r="AG156" s="28"/>
       <c r="AH156" s="28"/>
     </row>
-    <row r="157" spans="1:34" ht="14.5" hidden="1">
+    <row r="157" spans="1:34" hidden="1">
       <c r="A157" s="21"/>
       <c r="B157" s="21"/>
       <c r="C157" s="28"/>
@@ -15598,7 +15587,7 @@
       <c r="AG157" s="28"/>
       <c r="AH157" s="28"/>
     </row>
-    <row r="158" spans="1:34" ht="14.5" hidden="1">
+    <row r="158" spans="1:34" hidden="1">
       <c r="A158" s="21"/>
       <c r="B158" s="21"/>
       <c r="C158" s="28"/>
@@ -15634,7 +15623,7 @@
       <c r="AG158" s="28"/>
       <c r="AH158" s="28"/>
     </row>
-    <row r="159" spans="1:34" ht="14.5" hidden="1">
+    <row r="159" spans="1:34" hidden="1">
       <c r="A159" s="21"/>
       <c r="B159" s="21"/>
       <c r="C159" s="28"/>
@@ -15670,7 +15659,7 @@
       <c r="AG159" s="28"/>
       <c r="AH159" s="28"/>
     </row>
-    <row r="160" spans="1:34" ht="14.5" hidden="1">
+    <row r="160" spans="1:34" hidden="1">
       <c r="A160" s="21"/>
       <c r="B160" s="21"/>
       <c r="C160" s="28"/>
@@ -15706,7 +15695,7 @@
       <c r="AG160" s="28"/>
       <c r="AH160" s="28"/>
     </row>
-    <row r="161" spans="1:34" ht="14.5" hidden="1">
+    <row r="161" spans="1:34" hidden="1">
       <c r="A161" s="21"/>
       <c r="B161" s="21"/>
       <c r="C161" s="28"/>
@@ -15742,7 +15731,7 @@
       <c r="AG161" s="28"/>
       <c r="AH161" s="28"/>
     </row>
-    <row r="162" spans="1:34" ht="14.5" hidden="1">
+    <row r="162" spans="1:34" hidden="1">
       <c r="A162" s="21"/>
       <c r="B162" s="21"/>
       <c r="C162" s="28"/>
@@ -15778,7 +15767,7 @@
       <c r="AG162" s="28"/>
       <c r="AH162" s="28"/>
     </row>
-    <row r="163" spans="1:34" ht="14.5" hidden="1">
+    <row r="163" spans="1:34" hidden="1">
       <c r="A163" s="21"/>
       <c r="B163" s="21"/>
       <c r="C163" s="28"/>
@@ -15814,7 +15803,7 @@
       <c r="AG163" s="28"/>
       <c r="AH163" s="28"/>
     </row>
-    <row r="164" spans="1:34" ht="14.5" hidden="1">
+    <row r="164" spans="1:34" hidden="1">
       <c r="A164" s="21"/>
       <c r="B164" s="21"/>
       <c r="C164" s="28"/>
@@ -15850,7 +15839,7 @@
       <c r="AG164" s="28"/>
       <c r="AH164" s="28"/>
     </row>
-    <row r="165" spans="1:34" ht="14.5" hidden="1">
+    <row r="165" spans="1:34" hidden="1">
       <c r="A165" s="21"/>
       <c r="B165" s="21"/>
       <c r="C165" s="28"/>
@@ -15886,7 +15875,7 @@
       <c r="AG165" s="28"/>
       <c r="AH165" s="28"/>
     </row>
-    <row r="166" spans="1:34" ht="14.5" hidden="1">
+    <row r="166" spans="1:34" hidden="1">
       <c r="A166" s="21"/>
       <c r="B166" s="21"/>
       <c r="C166" s="28"/>
@@ -15922,7 +15911,7 @@
       <c r="AG166" s="28"/>
       <c r="AH166" s="28"/>
     </row>
-    <row r="167" spans="1:34" ht="14.5" hidden="1">
+    <row r="167" spans="1:34" hidden="1">
       <c r="A167" s="21"/>
       <c r="B167" s="21"/>
       <c r="C167" s="28"/>
@@ -15958,7 +15947,7 @@
       <c r="AG167" s="28"/>
       <c r="AH167" s="28"/>
     </row>
-    <row r="168" spans="1:34" ht="14.5" hidden="1">
+    <row r="168" spans="1:34" hidden="1">
       <c r="A168" s="21"/>
       <c r="B168" s="21"/>
       <c r="C168" s="28"/>
@@ -15994,7 +15983,7 @@
       <c r="AG168" s="28"/>
       <c r="AH168" s="28"/>
     </row>
-    <row r="169" spans="1:34" ht="14.5" hidden="1">
+    <row r="169" spans="1:34" hidden="1">
       <c r="A169" s="21"/>
       <c r="B169" s="21"/>
       <c r="C169" s="28"/>
@@ -16030,7 +16019,7 @@
       <c r="AG169" s="28"/>
       <c r="AH169" s="28"/>
     </row>
-    <row r="170" spans="1:34" ht="14.5" hidden="1">
+    <row r="170" spans="1:34" hidden="1">
       <c r="A170" s="21"/>
       <c r="B170" s="21"/>
       <c r="C170" s="28"/>
@@ -16066,7 +16055,7 @@
       <c r="AG170" s="28"/>
       <c r="AH170" s="28"/>
     </row>
-    <row r="171" spans="1:34" ht="14.5" hidden="1">
+    <row r="171" spans="1:34" hidden="1">
       <c r="A171" s="21"/>
       <c r="B171" s="21"/>
       <c r="C171" s="28"/>
@@ -16102,7 +16091,7 @@
       <c r="AG171" s="28"/>
       <c r="AH171" s="28"/>
     </row>
-    <row r="172" spans="1:34" ht="14.5" hidden="1">
+    <row r="172" spans="1:34" hidden="1">
       <c r="A172" s="21"/>
       <c r="B172" s="21"/>
       <c r="C172" s="28"/>
@@ -16138,7 +16127,7 @@
       <c r="AG172" s="28"/>
       <c r="AH172" s="28"/>
     </row>
-    <row r="173" spans="1:34" ht="14.5" hidden="1">
+    <row r="173" spans="1:34" hidden="1">
       <c r="A173" s="21"/>
       <c r="B173" s="21"/>
       <c r="C173" s="28"/>
@@ -16174,7 +16163,7 @@
       <c r="AG173" s="28"/>
       <c r="AH173" s="28"/>
     </row>
-    <row r="174" spans="1:34" ht="14.5" hidden="1">
+    <row r="174" spans="1:34" hidden="1">
       <c r="A174" s="21"/>
       <c r="B174" s="21"/>
       <c r="C174" s="28"/>
@@ -16210,7 +16199,7 @@
       <c r="AG174" s="28"/>
       <c r="AH174" s="28"/>
     </row>
-    <row r="175" spans="1:34" ht="14.5" hidden="1">
+    <row r="175" spans="1:34" hidden="1">
       <c r="A175" s="21"/>
       <c r="B175" s="21"/>
       <c r="C175" s="28"/>
@@ -16246,7 +16235,7 @@
       <c r="AG175" s="28"/>
       <c r="AH175" s="28"/>
     </row>
-    <row r="176" spans="1:34" ht="14.5" hidden="1">
+    <row r="176" spans="1:34" hidden="1">
       <c r="A176" s="21"/>
       <c r="B176" s="21"/>
       <c r="C176" s="28"/>
@@ -16282,7 +16271,7 @@
       <c r="AG176" s="28"/>
       <c r="AH176" s="28"/>
     </row>
-    <row r="177" spans="1:34" ht="14.5" hidden="1">
+    <row r="177" spans="1:34" hidden="1">
       <c r="A177" s="21"/>
       <c r="B177" s="21"/>
       <c r="C177" s="28"/>
@@ -16318,7 +16307,7 @@
       <c r="AG177" s="28"/>
       <c r="AH177" s="28"/>
     </row>
-    <row r="178" spans="1:34" ht="14.5" hidden="1">
+    <row r="178" spans="1:34" hidden="1">
       <c r="A178" s="21"/>
       <c r="B178" s="21"/>
       <c r="C178" s="28"/>
@@ -16354,7 +16343,7 @@
       <c r="AG178" s="28"/>
       <c r="AH178" s="28"/>
     </row>
-    <row r="179" spans="1:34" ht="14.5" hidden="1">
+    <row r="179" spans="1:34" hidden="1">
       <c r="A179" s="21"/>
       <c r="B179" s="21"/>
       <c r="C179" s="28"/>
@@ -16390,7 +16379,7 @@
       <c r="AG179" s="28"/>
       <c r="AH179" s="28"/>
     </row>
-    <row r="180" spans="1:34" ht="14.5" hidden="1">
+    <row r="180" spans="1:34" hidden="1">
       <c r="A180" s="21"/>
       <c r="B180" s="21"/>
       <c r="C180" s="28"/>
@@ -16426,7 +16415,7 @@
       <c r="AG180" s="28"/>
       <c r="AH180" s="28"/>
     </row>
-    <row r="181" spans="1:34" ht="14.5" hidden="1">
+    <row r="181" spans="1:34" hidden="1">
       <c r="A181" s="21"/>
       <c r="B181" s="21"/>
       <c r="C181" s="28"/>
@@ -16462,7 +16451,7 @@
       <c r="AG181" s="28"/>
       <c r="AH181" s="28"/>
     </row>
-    <row r="182" spans="1:34" ht="14.5" hidden="1">
+    <row r="182" spans="1:34" hidden="1">
       <c r="A182" s="21"/>
       <c r="B182" s="21"/>
       <c r="C182" s="28"/>
@@ -16498,7 +16487,7 @@
       <c r="AG182" s="28"/>
       <c r="AH182" s="28"/>
     </row>
-    <row r="183" spans="1:34" ht="14.5" hidden="1">
+    <row r="183" spans="1:34" hidden="1">
       <c r="A183" s="21"/>
       <c r="B183" s="21"/>
       <c r="C183" s="28"/>
@@ -16534,7 +16523,7 @@
       <c r="AG183" s="28"/>
       <c r="AH183" s="28"/>
     </row>
-    <row r="184" spans="1:34" ht="14.5" hidden="1">
+    <row r="184" spans="1:34" hidden="1">
       <c r="A184" s="21"/>
       <c r="B184" s="21"/>
       <c r="C184" s="28"/>
@@ -16570,7 +16559,7 @@
       <c r="AG184" s="28"/>
       <c r="AH184" s="28"/>
     </row>
-    <row r="185" spans="1:34" ht="14.5" hidden="1">
+    <row r="185" spans="1:34" hidden="1">
       <c r="A185" s="21"/>
       <c r="B185" s="21"/>
       <c r="C185" s="28"/>
@@ -16606,7 +16595,7 @@
       <c r="AG185" s="28"/>
       <c r="AH185" s="28"/>
     </row>
-    <row r="186" spans="1:34" ht="14.5" hidden="1">
+    <row r="186" spans="1:34" hidden="1">
       <c r="A186" s="21"/>
       <c r="B186" s="21"/>
       <c r="C186" s="28"/>
@@ -16642,7 +16631,7 @@
       <c r="AG186" s="28"/>
       <c r="AH186" s="28"/>
     </row>
-    <row r="187" spans="1:34" ht="14.5" hidden="1">
+    <row r="187" spans="1:34" hidden="1">
       <c r="A187" s="21"/>
       <c r="B187" s="21"/>
       <c r="C187" s="28"/>
@@ -16678,7 +16667,7 @@
       <c r="AG187" s="28"/>
       <c r="AH187" s="28"/>
     </row>
-    <row r="188" spans="1:34" ht="14.5" hidden="1">
+    <row r="188" spans="1:34" hidden="1">
       <c r="A188" s="21"/>
       <c r="B188" s="21"/>
       <c r="C188" s="28"/>
@@ -16714,7 +16703,7 @@
       <c r="AG188" s="28"/>
       <c r="AH188" s="28"/>
     </row>
-    <row r="189" spans="1:34" ht="14.5" hidden="1">
+    <row r="189" spans="1:34" hidden="1">
       <c r="A189" s="21"/>
       <c r="B189" s="21"/>
       <c r="C189" s="28"/>
@@ -16750,7 +16739,7 @@
       <c r="AG189" s="28"/>
       <c r="AH189" s="28"/>
     </row>
-    <row r="190" spans="1:34" ht="14.5" hidden="1">
+    <row r="190" spans="1:34" hidden="1">
       <c r="A190" s="21"/>
       <c r="B190" s="21"/>
       <c r="C190" s="28"/>
@@ -16786,7 +16775,7 @@
       <c r="AG190" s="28"/>
       <c r="AH190" s="28"/>
     </row>
-    <row r="191" spans="1:34" ht="14.5" hidden="1">
+    <row r="191" spans="1:34" hidden="1">
       <c r="A191" s="21"/>
       <c r="B191" s="21"/>
       <c r="C191" s="28"/>
@@ -16822,7 +16811,7 @@
       <c r="AG191" s="28"/>
       <c r="AH191" s="28"/>
     </row>
-    <row r="192" spans="1:34" ht="14.5" hidden="1">
+    <row r="192" spans="1:34" hidden="1">
       <c r="A192" s="21"/>
       <c r="B192" s="21"/>
       <c r="C192" s="28"/>
@@ -16858,7 +16847,7 @@
       <c r="AG192" s="28"/>
       <c r="AH192" s="28"/>
     </row>
-    <row r="193" spans="1:34" ht="14.5" hidden="1">
+    <row r="193" spans="1:34" hidden="1">
       <c r="A193" s="21"/>
       <c r="B193" s="21"/>
       <c r="C193" s="28"/>
@@ -16894,7 +16883,7 @@
       <c r="AG193" s="28"/>
       <c r="AH193" s="28"/>
     </row>
-    <row r="194" spans="1:34" ht="14.5" hidden="1">
+    <row r="194" spans="1:34" hidden="1">
       <c r="A194" s="21"/>
       <c r="B194" s="21"/>
       <c r="C194" s="28"/>
@@ -16930,7 +16919,7 @@
       <c r="AG194" s="28"/>
       <c r="AH194" s="28"/>
     </row>
-    <row r="195" spans="1:34" ht="14.5" hidden="1">
+    <row r="195" spans="1:34" hidden="1">
       <c r="A195" s="21"/>
       <c r="B195" s="21"/>
       <c r="C195" s="28"/>
@@ -16966,7 +16955,7 @@
       <c r="AG195" s="28"/>
       <c r="AH195" s="28"/>
     </row>
-    <row r="196" spans="1:34" ht="14.5" hidden="1">
+    <row r="196" spans="1:34" hidden="1">
       <c r="A196" s="21"/>
       <c r="B196" s="21"/>
       <c r="C196" s="28"/>
@@ -17002,7 +16991,7 @@
       <c r="AG196" s="28"/>
       <c r="AH196" s="28"/>
     </row>
-    <row r="197" spans="1:34" ht="14.5" hidden="1">
+    <row r="197" spans="1:34" hidden="1">
       <c r="A197" s="21"/>
       <c r="B197" s="21"/>
       <c r="C197" s="28"/>
@@ -17038,7 +17027,7 @@
       <c r="AG197" s="28"/>
       <c r="AH197" s="28"/>
     </row>
-    <row r="198" spans="1:34" ht="14.5" hidden="1">
+    <row r="198" spans="1:34" hidden="1">
       <c r="A198" s="21"/>
       <c r="B198" s="21"/>
       <c r="C198" s="28"/>
@@ -17074,7 +17063,7 @@
       <c r="AG198" s="28"/>
       <c r="AH198" s="28"/>
     </row>
-    <row r="199" spans="1:34" ht="14.5" hidden="1">
+    <row r="199" spans="1:34" hidden="1">
       <c r="A199" s="21"/>
       <c r="B199" s="21"/>
       <c r="C199" s="28"/>
@@ -17110,7 +17099,7 @@
       <c r="AG199" s="28"/>
       <c r="AH199" s="28"/>
     </row>
-    <row r="200" spans="1:34" ht="14.5" hidden="1">
+    <row r="200" spans="1:34" hidden="1">
       <c r="A200" s="21"/>
       <c r="B200" s="21"/>
       <c r="C200" s="28"/>
@@ -17146,7 +17135,7 @@
       <c r="AG200" s="28"/>
       <c r="AH200" s="28"/>
     </row>
-    <row r="201" spans="1:34" ht="14.5" hidden="1">
+    <row r="201" spans="1:34" hidden="1">
       <c r="A201" s="21"/>
       <c r="B201" s="21"/>
       <c r="C201" s="28"/>
@@ -17182,7 +17171,7 @@
       <c r="AG201" s="28"/>
       <c r="AH201" s="28"/>
     </row>
-    <row r="202" spans="1:34" ht="14.5" hidden="1">
+    <row r="202" spans="1:34" hidden="1">
       <c r="A202" s="21"/>
       <c r="B202" s="21"/>
       <c r="C202" s="28"/>
@@ -17218,7 +17207,7 @@
       <c r="AG202" s="28"/>
       <c r="AH202" s="28"/>
     </row>
-    <row r="203" spans="1:34" ht="14.5" hidden="1">
+    <row r="203" spans="1:34" hidden="1">
       <c r="A203" s="21"/>
       <c r="B203" s="21"/>
       <c r="C203" s="28"/>
@@ -17254,7 +17243,7 @@
       <c r="AG203" s="28"/>
       <c r="AH203" s="28"/>
     </row>
-    <row r="204" spans="1:34" ht="14.5" hidden="1">
+    <row r="204" spans="1:34" hidden="1">
       <c r="A204" s="21"/>
       <c r="B204" s="21"/>
       <c r="C204" s="28"/>
@@ -17290,7 +17279,7 @@
       <c r="AG204" s="28"/>
       <c r="AH204" s="28"/>
     </row>
-    <row r="205" spans="1:34" ht="14.5" hidden="1">
+    <row r="205" spans="1:34" hidden="1">
       <c r="A205" s="21"/>
       <c r="B205" s="21"/>
       <c r="C205" s="28"/>
@@ -17326,7 +17315,7 @@
       <c r="AG205" s="28"/>
       <c r="AH205" s="28"/>
     </row>
-    <row r="206" spans="1:34" ht="14.5" hidden="1">
+    <row r="206" spans="1:34" hidden="1">
       <c r="A206" s="21"/>
       <c r="B206" s="21"/>
       <c r="C206" s="28"/>
@@ -17362,7 +17351,7 @@
       <c r="AG206" s="28"/>
       <c r="AH206" s="28"/>
     </row>
-    <row r="207" spans="1:34" ht="14.5" hidden="1">
+    <row r="207" spans="1:34" hidden="1">
       <c r="A207" s="21"/>
       <c r="B207" s="21"/>
       <c r="C207" s="28"/>
@@ -17398,7 +17387,7 @@
       <c r="AG207" s="28"/>
       <c r="AH207" s="28"/>
     </row>
-    <row r="208" spans="1:34" ht="14.5" hidden="1">
+    <row r="208" spans="1:34" hidden="1">
       <c r="A208" s="21"/>
       <c r="B208" s="21"/>
       <c r="C208" s="28"/>
@@ -17434,7 +17423,7 @@
       <c r="AG208" s="28"/>
       <c r="AH208" s="28"/>
     </row>
-    <row r="209" spans="1:34" ht="14.5" hidden="1">
+    <row r="209" spans="1:34" hidden="1">
       <c r="A209" s="21"/>
       <c r="B209" s="21"/>
       <c r="C209" s="28"/>
@@ -17470,7 +17459,7 @@
       <c r="AG209" s="28"/>
       <c r="AH209" s="28"/>
     </row>
-    <row r="210" spans="1:34" ht="14.5" hidden="1">
+    <row r="210" spans="1:34" hidden="1">
       <c r="A210" s="21"/>
       <c r="B210" s="21"/>
       <c r="C210" s="28"/>
@@ -17506,7 +17495,7 @@
       <c r="AG210" s="28"/>
       <c r="AH210" s="28"/>
     </row>
-    <row r="211" spans="1:34" ht="14.5" hidden="1">
+    <row r="211" spans="1:34" hidden="1">
       <c r="A211" s="21"/>
       <c r="B211" s="21"/>
       <c r="C211" s="28"/>
@@ -17542,7 +17531,7 @@
       <c r="AG211" s="28"/>
       <c r="AH211" s="28"/>
     </row>
-    <row r="212" spans="1:34" ht="14.5" hidden="1">
+    <row r="212" spans="1:34" hidden="1">
       <c r="A212" s="21"/>
       <c r="B212" s="21"/>
       <c r="C212" s="28"/>
@@ -17578,7 +17567,7 @@
       <c r="AG212" s="28"/>
       <c r="AH212" s="28"/>
     </row>
-    <row r="213" spans="1:34" ht="14.5" hidden="1">
+    <row r="213" spans="1:34" hidden="1">
       <c r="A213" s="21"/>
       <c r="B213" s="21"/>
       <c r="C213" s="28"/>
@@ -17614,7 +17603,7 @@
       <c r="AG213" s="28"/>
       <c r="AH213" s="28"/>
     </row>
-    <row r="214" spans="1:34" ht="14.5" hidden="1">
+    <row r="214" spans="1:34" hidden="1">
       <c r="A214" s="21"/>
       <c r="B214" s="21"/>
       <c r="C214" s="28"/>
@@ -17650,7 +17639,7 @@
       <c r="AG214" s="28"/>
       <c r="AH214" s="28"/>
     </row>
-    <row r="215" spans="1:34" ht="14.5" hidden="1">
+    <row r="215" spans="1:34" hidden="1">
       <c r="A215" s="21"/>
       <c r="B215" s="21"/>
       <c r="C215" s="28"/>
@@ -17686,7 +17675,7 @@
       <c r="AG215" s="28"/>
       <c r="AH215" s="28"/>
     </row>
-    <row r="216" spans="1:34" ht="14.5" hidden="1">
+    <row r="216" spans="1:34" hidden="1">
       <c r="A216" s="21"/>
       <c r="B216" s="21"/>
       <c r="C216" s="28"/>
@@ -17722,7 +17711,7 @@
       <c r="AG216" s="28"/>
       <c r="AH216" s="28"/>
     </row>
-    <row r="217" spans="1:34" ht="14.5" hidden="1">
+    <row r="217" spans="1:34" hidden="1">
       <c r="A217" s="21"/>
       <c r="B217" s="21"/>
       <c r="C217" s="28"/>
@@ -17758,7 +17747,7 @@
       <c r="AG217" s="28"/>
       <c r="AH217" s="28"/>
     </row>
-    <row r="218" spans="1:34" ht="14.5" hidden="1">
+    <row r="218" spans="1:34" hidden="1">
       <c r="A218" s="21"/>
       <c r="B218" s="21"/>
       <c r="C218" s="28"/>
@@ -17794,7 +17783,7 @@
       <c r="AG218" s="28"/>
       <c r="AH218" s="28"/>
     </row>
-    <row r="219" spans="1:34" ht="14.5" hidden="1">
+    <row r="219" spans="1:34" hidden="1">
       <c r="A219" s="21"/>
       <c r="B219" s="21"/>
       <c r="C219" s="28"/>
@@ -17830,7 +17819,7 @@
       <c r="AG219" s="28"/>
       <c r="AH219" s="28"/>
     </row>
-    <row r="220" spans="1:34" ht="14.5" hidden="1">
+    <row r="220" spans="1:34" hidden="1">
       <c r="A220" s="21"/>
       <c r="B220" s="21"/>
       <c r="C220" s="28"/>
@@ -17866,7 +17855,7 @@
       <c r="AG220" s="28"/>
       <c r="AH220" s="28"/>
     </row>
-    <row r="221" spans="1:34" ht="14.5" hidden="1">
+    <row r="221" spans="1:34" hidden="1">
       <c r="A221" s="21"/>
       <c r="B221" s="21"/>
       <c r="C221" s="28"/>
@@ -17902,7 +17891,7 @@
       <c r="AG221" s="28"/>
       <c r="AH221" s="28"/>
     </row>
-    <row r="222" spans="1:34" ht="14.5" hidden="1">
+    <row r="222" spans="1:34" hidden="1">
       <c r="A222" s="21"/>
       <c r="B222" s="21"/>
       <c r="C222" s="28"/>
@@ -17938,7 +17927,7 @@
       <c r="AG222" s="28"/>
       <c r="AH222" s="28"/>
     </row>
-    <row r="223" spans="1:34" ht="14.5" hidden="1">
+    <row r="223" spans="1:34" hidden="1">
       <c r="A223" s="21"/>
       <c r="B223" s="21"/>
       <c r="C223" s="28"/>
@@ -17974,7 +17963,7 @@
       <c r="AG223" s="28"/>
       <c r="AH223" s="28"/>
     </row>
-    <row r="224" spans="1:34" ht="14.5" hidden="1">
+    <row r="224" spans="1:34" hidden="1">
       <c r="A224" s="21"/>
       <c r="B224" s="21"/>
       <c r="C224" s="28"/>
@@ -18010,7 +17999,7 @@
       <c r="AG224" s="28"/>
       <c r="AH224" s="28"/>
     </row>
-    <row r="225" spans="1:34" ht="14.5" hidden="1">
+    <row r="225" spans="1:34" hidden="1">
       <c r="A225" s="21"/>
       <c r="B225" s="21"/>
       <c r="C225" s="28"/>
@@ -18046,7 +18035,7 @@
       <c r="AG225" s="28"/>
       <c r="AH225" s="28"/>
     </row>
-    <row r="226" spans="1:34" ht="14.5" hidden="1">
+    <row r="226" spans="1:34" hidden="1">
       <c r="A226" s="21"/>
       <c r="B226" s="21"/>
       <c r="C226" s="28"/>
@@ -18082,7 +18071,7 @@
       <c r="AG226" s="28"/>
       <c r="AH226" s="28"/>
     </row>
-    <row r="227" spans="1:34" ht="14.5" hidden="1">
+    <row r="227" spans="1:34" hidden="1">
       <c r="A227" s="21"/>
       <c r="B227" s="21"/>
       <c r="C227" s="28"/>
@@ -18118,7 +18107,7 @@
       <c r="AG227" s="28"/>
       <c r="AH227" s="28"/>
     </row>
-    <row r="228" spans="1:34" ht="14.5" hidden="1">
+    <row r="228" spans="1:34" hidden="1">
       <c r="A228" s="21"/>
       <c r="B228" s="21"/>
       <c r="C228" s="28"/>
@@ -18154,7 +18143,7 @@
       <c r="AG228" s="28"/>
       <c r="AH228" s="28"/>
     </row>
-    <row r="229" spans="1:34" ht="14.5" hidden="1">
+    <row r="229" spans="1:34" hidden="1">
       <c r="A229" s="21"/>
       <c r="B229" s="21"/>
       <c r="C229" s="28"/>
@@ -18190,7 +18179,7 @@
       <c r="AG229" s="28"/>
       <c r="AH229" s="28"/>
     </row>
-    <row r="230" spans="1:34" ht="14.5" hidden="1">
+    <row r="230" spans="1:34" hidden="1">
       <c r="A230" s="21"/>
       <c r="B230" s="21"/>
       <c r="C230" s="28"/>
@@ -18226,7 +18215,7 @@
       <c r="AG230" s="28"/>
       <c r="AH230" s="28"/>
     </row>
-    <row r="231" spans="1:34" ht="14.5" hidden="1">
+    <row r="231" spans="1:34" hidden="1">
       <c r="A231" s="21"/>
       <c r="B231" s="21"/>
       <c r="C231" s="28"/>
@@ -18262,7 +18251,7 @@
       <c r="AG231" s="28"/>
       <c r="AH231" s="28"/>
     </row>
-    <row r="232" spans="1:34" ht="14.5" hidden="1">
+    <row r="232" spans="1:34" hidden="1">
       <c r="A232" s="21"/>
       <c r="B232" s="21"/>
       <c r="C232" s="28"/>
@@ -18298,7 +18287,7 @@
       <c r="AG232" s="28"/>
       <c r="AH232" s="28"/>
     </row>
-    <row r="233" spans="1:34" ht="14.5" hidden="1">
+    <row r="233" spans="1:34" hidden="1">
       <c r="A233" s="21"/>
       <c r="B233" s="21"/>
       <c r="C233" s="28"/>
@@ -18334,7 +18323,7 @@
       <c r="AG233" s="28"/>
       <c r="AH233" s="28"/>
     </row>
-    <row r="234" spans="1:34" ht="14.5" hidden="1">
+    <row r="234" spans="1:34" hidden="1">
       <c r="A234" s="21"/>
       <c r="B234" s="21"/>
       <c r="C234" s="28"/>
@@ -18370,7 +18359,7 @@
       <c r="AG234" s="28"/>
       <c r="AH234" s="28"/>
     </row>
-    <row r="235" spans="1:34" ht="14.5" hidden="1">
+    <row r="235" spans="1:34" hidden="1">
       <c r="A235" s="21"/>
       <c r="B235" s="21"/>
       <c r="C235" s="28"/>
@@ -18406,7 +18395,7 @@
       <c r="AG235" s="28"/>
       <c r="AH235" s="28"/>
     </row>
-    <row r="236" spans="1:34" ht="14.5" hidden="1">
+    <row r="236" spans="1:34" hidden="1">
       <c r="A236" s="21"/>
       <c r="B236" s="21"/>
       <c r="C236" s="28"/>
@@ -18442,7 +18431,7 @@
       <c r="AG236" s="28"/>
       <c r="AH236" s="28"/>
     </row>
-    <row r="237" spans="1:34" ht="14.5" hidden="1">
+    <row r="237" spans="1:34" hidden="1">
       <c r="A237" s="21"/>
       <c r="B237" s="21"/>
       <c r="C237" s="28"/>
@@ -18478,7 +18467,7 @@
       <c r="AG237" s="28"/>
       <c r="AH237" s="28"/>
     </row>
-    <row r="238" spans="1:34" ht="14.5" hidden="1">
+    <row r="238" spans="1:34" hidden="1">
       <c r="A238" s="21"/>
       <c r="B238" s="21"/>
       <c r="C238" s="28"/>
@@ -18514,7 +18503,7 @@
       <c r="AG238" s="28"/>
       <c r="AH238" s="28"/>
     </row>
-    <row r="239" spans="1:34" ht="14.5" hidden="1">
+    <row r="239" spans="1:34" hidden="1">
       <c r="A239" s="21"/>
       <c r="B239" s="21"/>
       <c r="C239" s="28"/>
@@ -18550,7 +18539,7 @@
       <c r="AG239" s="28"/>
       <c r="AH239" s="28"/>
     </row>
-    <row r="240" spans="1:34" ht="14.5" hidden="1">
+    <row r="240" spans="1:34" hidden="1">
       <c r="A240" s="21"/>
       <c r="B240" s="21"/>
       <c r="C240" s="28"/>
@@ -18586,7 +18575,7 @@
       <c r="AG240" s="28"/>
       <c r="AH240" s="28"/>
     </row>
-    <row r="241" spans="1:34" ht="14.5" hidden="1">
+    <row r="241" spans="1:34" hidden="1">
       <c r="A241" s="21"/>
       <c r="B241" s="21"/>
       <c r="C241" s="28"/>
@@ -18622,7 +18611,7 @@
       <c r="AG241" s="28"/>
       <c r="AH241" s="28"/>
     </row>
-    <row r="242" spans="1:34" ht="14.5" hidden="1">
+    <row r="242" spans="1:34" hidden="1">
       <c r="A242" s="21"/>
       <c r="B242" s="21"/>
       <c r="C242" s="28"/>
@@ -18658,7 +18647,7 @@
       <c r="AG242" s="28"/>
       <c r="AH242" s="28"/>
     </row>
-    <row r="243" spans="1:34" ht="14.5" hidden="1">
+    <row r="243" spans="1:34" hidden="1">
       <c r="A243" s="21"/>
       <c r="B243" s="21"/>
       <c r="C243" s="28"/>
@@ -18694,7 +18683,7 @@
       <c r="AG243" s="28"/>
       <c r="AH243" s="28"/>
     </row>
-    <row r="244" spans="1:34" ht="14.5" hidden="1">
+    <row r="244" spans="1:34" hidden="1">
       <c r="A244" s="21"/>
       <c r="B244" s="21"/>
       <c r="C244" s="28"/>
@@ -18730,7 +18719,7 @@
       <c r="AG244" s="28"/>
       <c r="AH244" s="28"/>
     </row>
-    <row r="245" spans="1:34" ht="14.5" hidden="1">
+    <row r="245" spans="1:34" hidden="1">
       <c r="A245" s="21"/>
       <c r="B245" s="21"/>
       <c r="C245" s="28"/>
@@ -18766,7 +18755,7 @@
       <c r="AG245" s="28"/>
       <c r="AH245" s="28"/>
     </row>
-    <row r="246" spans="1:34" ht="14.5" hidden="1">
+    <row r="246" spans="1:34" hidden="1">
       <c r="A246" s="21"/>
       <c r="B246" s="21"/>
       <c r="C246" s="28"/>
@@ -18802,7 +18791,7 @@
       <c r="AG246" s="28"/>
       <c r="AH246" s="28"/>
     </row>
-    <row r="247" spans="1:34" ht="14.5" hidden="1">
+    <row r="247" spans="1:34" hidden="1">
       <c r="A247" s="21"/>
       <c r="B247" s="21"/>
       <c r="C247" s="28"/>
@@ -18838,7 +18827,7 @@
       <c r="AG247" s="28"/>
       <c r="AH247" s="28"/>
     </row>
-    <row r="248" spans="1:34" ht="14.5" hidden="1">
+    <row r="248" spans="1:34" hidden="1">
       <c r="A248" s="21"/>
       <c r="B248" s="21"/>
       <c r="C248" s="28"/>
@@ -18874,7 +18863,7 @@
       <c r="AG248" s="28"/>
       <c r="AH248" s="28"/>
     </row>
-    <row r="249" spans="1:34" ht="14.5" hidden="1">
+    <row r="249" spans="1:34" hidden="1">
       <c r="A249" s="21"/>
       <c r="B249" s="21"/>
       <c r="C249" s="28"/>
@@ -18910,7 +18899,7 @@
       <c r="AG249" s="28"/>
       <c r="AH249" s="28"/>
     </row>
-    <row r="250" spans="1:34" ht="14.5" hidden="1">
+    <row r="250" spans="1:34" hidden="1">
       <c r="A250" s="21"/>
       <c r="B250" s="21"/>
       <c r="C250" s="28"/>
@@ -18946,7 +18935,7 @@
       <c r="AG250" s="28"/>
       <c r="AH250" s="28"/>
     </row>
-    <row r="251" spans="1:34" ht="14.5" hidden="1">
+    <row r="251" spans="1:34" hidden="1">
       <c r="A251" s="21"/>
       <c r="B251" s="21"/>
       <c r="C251" s="28"/>
@@ -18982,7 +18971,7 @@
       <c r="AG251" s="28"/>
       <c r="AH251" s="28"/>
     </row>
-    <row r="252" spans="1:34" ht="14.5" hidden="1">
+    <row r="252" spans="1:34" hidden="1">
       <c r="A252" s="21"/>
       <c r="B252" s="21"/>
       <c r="C252" s="28"/>
@@ -19018,7 +19007,7 @@
       <c r="AG252" s="28"/>
       <c r="AH252" s="28"/>
     </row>
-    <row r="253" spans="1:34" ht="14.5" hidden="1">
+    <row r="253" spans="1:34" hidden="1">
       <c r="A253" s="21"/>
       <c r="B253" s="21"/>
       <c r="C253" s="28"/>
@@ -19054,7 +19043,7 @@
       <c r="AG253" s="28"/>
       <c r="AH253" s="28"/>
     </row>
-    <row r="254" spans="1:34" ht="14.5" hidden="1">
+    <row r="254" spans="1:34" hidden="1">
       <c r="A254" s="21"/>
       <c r="B254" s="21"/>
       <c r="C254" s="28"/>
@@ -19090,7 +19079,7 @@
       <c r="AG254" s="28"/>
       <c r="AH254" s="28"/>
     </row>
-    <row r="255" spans="1:34" ht="14.5" hidden="1">
+    <row r="255" spans="1:34" hidden="1">
       <c r="A255" s="21"/>
       <c r="B255" s="21"/>
       <c r="C255" s="28"/>
@@ -19126,7 +19115,7 @@
       <c r="AG255" s="28"/>
       <c r="AH255" s="28"/>
     </row>
-    <row r="256" spans="1:34" ht="14.5" hidden="1">
+    <row r="256" spans="1:34" hidden="1">
       <c r="A256" s="21"/>
       <c r="B256" s="21"/>
       <c r="C256" s="28"/>
@@ -19162,7 +19151,7 @@
       <c r="AG256" s="28"/>
       <c r="AH256" s="28"/>
     </row>
-    <row r="257" spans="1:34" ht="14.5" hidden="1">
+    <row r="257" spans="1:34" hidden="1">
       <c r="A257" s="21"/>
       <c r="B257" s="21"/>
       <c r="C257" s="28"/>
@@ -19198,7 +19187,7 @@
       <c r="AG257" s="28"/>
       <c r="AH257" s="28"/>
     </row>
-    <row r="258" spans="1:34" ht="14.5" hidden="1">
+    <row r="258" spans="1:34" hidden="1">
       <c r="A258" s="21"/>
       <c r="B258" s="21"/>
       <c r="C258" s="28"/>
@@ -19234,7 +19223,7 @@
       <c r="AG258" s="28"/>
       <c r="AH258" s="28"/>
     </row>
-    <row r="259" spans="1:34" ht="14.5" hidden="1">
+    <row r="259" spans="1:34" hidden="1">
       <c r="A259" s="21"/>
       <c r="B259" s="21"/>
       <c r="C259" s="28"/>
@@ -19270,7 +19259,7 @@
       <c r="AG259" s="28"/>
       <c r="AH259" s="28"/>
     </row>
-    <row r="260" spans="1:34" ht="14.5" hidden="1">
+    <row r="260" spans="1:34" hidden="1">
       <c r="A260" s="21"/>
       <c r="B260" s="21"/>
       <c r="C260" s="28"/>
@@ -19306,7 +19295,7 @@
       <c r="AG260" s="28"/>
       <c r="AH260" s="28"/>
     </row>
-    <row r="261" spans="1:34" ht="14.5" hidden="1">
+    <row r="261" spans="1:34" hidden="1">
       <c r="A261" s="21"/>
       <c r="B261" s="21"/>
       <c r="C261" s="28"/>
@@ -19342,7 +19331,7 @@
       <c r="AG261" s="28"/>
       <c r="AH261" s="28"/>
     </row>
-    <row r="262" spans="1:34" ht="14.5" hidden="1">
+    <row r="262" spans="1:34" hidden="1">
       <c r="A262" s="21"/>
       <c r="B262" s="21"/>
       <c r="C262" s="28"/>
@@ -19378,7 +19367,7 @@
       <c r="AG262" s="28"/>
       <c r="AH262" s="28"/>
     </row>
-    <row r="263" spans="1:34" ht="14.5" hidden="1">
+    <row r="263" spans="1:34" hidden="1">
       <c r="A263" s="21"/>
       <c r="B263" s="21"/>
       <c r="C263" s="28"/>
@@ -19414,7 +19403,7 @@
       <c r="AG263" s="28"/>
       <c r="AH263" s="28"/>
     </row>
-    <row r="264" spans="1:34" ht="14.5" hidden="1">
+    <row r="264" spans="1:34" hidden="1">
       <c r="A264" s="21"/>
       <c r="B264" s="21"/>
       <c r="C264" s="28"/>
@@ -19450,7 +19439,7 @@
       <c r="AG264" s="28"/>
       <c r="AH264" s="28"/>
     </row>
-    <row r="265" spans="1:34" ht="14.5" hidden="1">
+    <row r="265" spans="1:34" hidden="1">
       <c r="A265" s="21"/>
       <c r="B265" s="21"/>
       <c r="C265" s="28"/>
@@ -19486,7 +19475,7 @@
       <c r="AG265" s="28"/>
       <c r="AH265" s="28"/>
     </row>
-    <row r="266" spans="1:34" ht="14.5" hidden="1">
+    <row r="266" spans="1:34" hidden="1">
       <c r="A266" s="21"/>
       <c r="B266" s="21"/>
       <c r="C266" s="28"/>
@@ -19522,7 +19511,7 @@
       <c r="AG266" s="28"/>
       <c r="AH266" s="28"/>
     </row>
-    <row r="267" spans="1:34" ht="14.5" hidden="1">
+    <row r="267" spans="1:34" hidden="1">
       <c r="A267" s="21"/>
       <c r="B267" s="21"/>
       <c r="C267" s="28"/>
@@ -19558,7 +19547,7 @@
       <c r="AG267" s="28"/>
       <c r="AH267" s="28"/>
     </row>
-    <row r="268" spans="1:34" ht="14.5" hidden="1">
+    <row r="268" spans="1:34" hidden="1">
       <c r="A268" s="21"/>
       <c r="B268" s="21"/>
       <c r="C268" s="28"/>
@@ -19594,7 +19583,7 @@
       <c r="AG268" s="28"/>
       <c r="AH268" s="28"/>
     </row>
-    <row r="269" spans="1:34" ht="14.5" hidden="1">
+    <row r="269" spans="1:34" hidden="1">
       <c r="A269" s="21"/>
       <c r="B269" s="21"/>
       <c r="C269" s="28"/>
@@ -19630,7 +19619,7 @@
       <c r="AG269" s="28"/>
       <c r="AH269" s="28"/>
     </row>
-    <row r="270" spans="1:34" ht="14.5" hidden="1">
+    <row r="270" spans="1:34" hidden="1">
       <c r="A270" s="21"/>
       <c r="B270" s="21"/>
       <c r="C270" s="28"/>
@@ -19666,7 +19655,7 @@
       <c r="AG270" s="28"/>
       <c r="AH270" s="28"/>
     </row>
-    <row r="271" spans="1:34" ht="14.5" hidden="1">
+    <row r="271" spans="1:34" hidden="1">
       <c r="A271" s="21"/>
       <c r="B271" s="21"/>
       <c r="C271" s="28"/>
@@ -19702,7 +19691,7 @@
       <c r="AG271" s="28"/>
       <c r="AH271" s="28"/>
     </row>
-    <row r="272" spans="1:34" ht="14.5" hidden="1">
+    <row r="272" spans="1:34" hidden="1">
       <c r="A272" s="21"/>
       <c r="B272" s="21"/>
       <c r="C272" s="28"/>
@@ -19738,7 +19727,7 @@
       <c r="AG272" s="28"/>
       <c r="AH272" s="28"/>
     </row>
-    <row r="273" spans="1:34" ht="14.5" hidden="1">
+    <row r="273" spans="1:34" hidden="1">
       <c r="A273" s="21"/>
       <c r="B273" s="21"/>
       <c r="C273" s="28"/>
@@ -19774,7 +19763,7 @@
       <c r="AG273" s="28"/>
       <c r="AH273" s="28"/>
     </row>
-    <row r="274" spans="1:34" ht="14.5" hidden="1">
+    <row r="274" spans="1:34" hidden="1">
       <c r="A274" s="21"/>
       <c r="B274" s="21"/>
       <c r="C274" s="28"/>
@@ -19810,7 +19799,7 @@
       <c r="AG274" s="28"/>
       <c r="AH274" s="28"/>
     </row>
-    <row r="275" spans="1:34" ht="14.5" hidden="1">
+    <row r="275" spans="1:34" hidden="1">
       <c r="A275" s="21"/>
       <c r="B275" s="21"/>
       <c r="C275" s="28"/>
@@ -19846,7 +19835,7 @@
       <c r="AG275" s="28"/>
       <c r="AH275" s="28"/>
     </row>
-    <row r="276" spans="1:34" ht="14.5" hidden="1">
+    <row r="276" spans="1:34" hidden="1">
       <c r="A276" s="21"/>
       <c r="B276" s="21"/>
       <c r="C276" s="28"/>
@@ -19882,7 +19871,7 @@
       <c r="AG276" s="28"/>
       <c r="AH276" s="28"/>
     </row>
-    <row r="277" spans="1:34" ht="14.5" hidden="1">
+    <row r="277" spans="1:34" hidden="1">
       <c r="A277" s="21"/>
       <c r="B277" s="21"/>
       <c r="C277" s="28"/>
@@ -19918,7 +19907,7 @@
       <c r="AG277" s="28"/>
       <c r="AH277" s="28"/>
     </row>
-    <row r="278" spans="1:34" ht="14.5" hidden="1">
+    <row r="278" spans="1:34" hidden="1">
       <c r="A278" s="21"/>
       <c r="B278" s="21"/>
       <c r="C278" s="28"/>
@@ -19954,7 +19943,7 @@
       <c r="AG278" s="28"/>
       <c r="AH278" s="28"/>
     </row>
-    <row r="279" spans="1:34" ht="14.5" hidden="1">
+    <row r="279" spans="1:34" hidden="1">
       <c r="A279" s="21"/>
       <c r="B279" s="21"/>
       <c r="C279" s="28"/>
@@ -19990,7 +19979,7 @@
       <c r="AG279" s="28"/>
       <c r="AH279" s="28"/>
     </row>
-    <row r="280" spans="1:34" ht="14.5" hidden="1">
+    <row r="280" spans="1:34" hidden="1">
       <c r="A280" s="21"/>
       <c r="B280" s="21"/>
       <c r="C280" s="28"/>
@@ -20026,7 +20015,7 @@
       <c r="AG280" s="28"/>
       <c r="AH280" s="28"/>
     </row>
-    <row r="281" spans="1:34" ht="14.5" hidden="1">
+    <row r="281" spans="1:34" hidden="1">
       <c r="A281" s="21"/>
       <c r="B281" s="21"/>
       <c r="C281" s="28"/>
@@ -20062,7 +20051,7 @@
       <c r="AG281" s="28"/>
       <c r="AH281" s="28"/>
     </row>
-    <row r="282" spans="1:34" ht="14.5" hidden="1">
+    <row r="282" spans="1:34" hidden="1">
       <c r="A282" s="21"/>
       <c r="B282" s="21"/>
       <c r="C282" s="28"/>
@@ -20098,7 +20087,7 @@
       <c r="AG282" s="28"/>
       <c r="AH282" s="28"/>
     </row>
-    <row r="283" spans="1:34" ht="14.5" hidden="1">
+    <row r="283" spans="1:34" hidden="1">
       <c r="A283" s="21"/>
       <c r="B283" s="21"/>
       <c r="C283" s="28"/>
@@ -20134,7 +20123,7 @@
       <c r="AG283" s="28"/>
       <c r="AH283" s="28"/>
     </row>
-    <row r="284" spans="1:34" ht="14.5" hidden="1">
+    <row r="284" spans="1:34" hidden="1">
       <c r="A284" s="21"/>
       <c r="B284" s="21"/>
       <c r="C284" s="28"/>
@@ -20170,7 +20159,7 @@
       <c r="AG284" s="28"/>
       <c r="AH284" s="28"/>
     </row>
-    <row r="285" spans="1:34" ht="14.5" hidden="1">
+    <row r="285" spans="1:34" hidden="1">
       <c r="A285" s="21"/>
       <c r="B285" s="21"/>
       <c r="C285" s="28"/>
@@ -20206,7 +20195,7 @@
       <c r="AG285" s="28"/>
       <c r="AH285" s="28"/>
     </row>
-    <row r="286" spans="1:34" ht="14.5" hidden="1">
+    <row r="286" spans="1:34" hidden="1">
       <c r="A286" s="21"/>
       <c r="B286" s="21"/>
       <c r="C286" s="28"/>
@@ -20242,7 +20231,7 @@
       <c r="AG286" s="28"/>
       <c r="AH286" s="28"/>
     </row>
-    <row r="287" spans="1:34" ht="14.5" hidden="1">
+    <row r="287" spans="1:34" hidden="1">
       <c r="A287" s="21"/>
       <c r="B287" s="21"/>
       <c r="C287" s="28"/>
@@ -20278,7 +20267,7 @@
       <c r="AG287" s="28"/>
       <c r="AH287" s="28"/>
     </row>
-    <row r="288" spans="1:34" ht="14.5" hidden="1">
+    <row r="288" spans="1:34" hidden="1">
       <c r="A288" s="21"/>
       <c r="B288" s="21"/>
       <c r="C288" s="28"/>
@@ -20314,7 +20303,7 @@
       <c r="AG288" s="28"/>
       <c r="AH288" s="28"/>
     </row>
-    <row r="289" spans="1:34" ht="14.5" hidden="1">
+    <row r="289" spans="1:34" hidden="1">
       <c r="A289" s="21"/>
       <c r="B289" s="21"/>
       <c r="C289" s="28"/>
@@ -20350,7 +20339,7 @@
       <c r="AG289" s="28"/>
       <c r="AH289" s="28"/>
     </row>
-    <row r="290" spans="1:34" ht="14.5" hidden="1">
+    <row r="290" spans="1:34" hidden="1">
       <c r="A290" s="21"/>
       <c r="B290" s="21"/>
       <c r="C290" s="28"/>
@@ -20386,7 +20375,7 @@
       <c r="AG290" s="28"/>
       <c r="AH290" s="28"/>
     </row>
-    <row r="291" spans="1:34" ht="14.5" hidden="1">
+    <row r="291" spans="1:34" hidden="1">
       <c r="A291" s="21"/>
       <c r="B291" s="21"/>
       <c r="C291" s="28"/>
@@ -20422,7 +20411,7 @@
       <c r="AG291" s="28"/>
       <c r="AH291" s="28"/>
     </row>
-    <row r="292" spans="1:34" ht="14.5" hidden="1">
+    <row r="292" spans="1:34" hidden="1">
       <c r="A292" s="21"/>
       <c r="B292" s="21"/>
       <c r="C292" s="28"/>
@@ -20458,7 +20447,7 @@
       <c r="AG292" s="28"/>
       <c r="AH292" s="28"/>
     </row>
-    <row r="293" spans="1:34" ht="14.5" hidden="1">
+    <row r="293" spans="1:34" hidden="1">
       <c r="A293" s="21"/>
       <c r="B293" s="21"/>
       <c r="C293" s="28"/>
@@ -20494,7 +20483,7 @@
       <c r="AG293" s="28"/>
       <c r="AH293" s="28"/>
     </row>
-    <row r="294" spans="1:34" ht="14.5" hidden="1">
+    <row r="294" spans="1:34" hidden="1">
       <c r="A294" s="21"/>
       <c r="B294" s="21"/>
       <c r="C294" s="28"/>
@@ -20530,7 +20519,7 @@
       <c r="AG294" s="28"/>
       <c r="AH294" s="28"/>
     </row>
-    <row r="295" spans="1:34" ht="14.5" hidden="1">
+    <row r="295" spans="1:34" hidden="1">
       <c r="A295" s="21"/>
       <c r="B295" s="21"/>
       <c r="C295" s="28"/>
@@ -20566,7 +20555,7 @@
       <c r="AG295" s="28"/>
       <c r="AH295" s="28"/>
     </row>
-    <row r="296" spans="1:34" ht="14.5" hidden="1">
+    <row r="296" spans="1:34" hidden="1">
       <c r="A296" s="21"/>
       <c r="B296" s="21"/>
       <c r="C296" s="28"/>
@@ -20602,7 +20591,7 @@
       <c r="AG296" s="28"/>
       <c r="AH296" s="28"/>
     </row>
-    <row r="297" spans="1:34" ht="14.5" hidden="1">
+    <row r="297" spans="1:34" hidden="1">
       <c r="A297" s="21"/>
       <c r="B297" s="21"/>
       <c r="C297" s="28"/>
@@ -20638,7 +20627,7 @@
       <c r="AG297" s="28"/>
       <c r="AH297" s="28"/>
     </row>
-    <row r="298" spans="1:34" ht="14.5" hidden="1">
+    <row r="298" spans="1:34" hidden="1">
       <c r="A298" s="21"/>
       <c r="B298" s="21"/>
       <c r="C298" s="28"/>
@@ -20674,7 +20663,7 @@
       <c r="AG298" s="28"/>
       <c r="AH298" s="28"/>
     </row>
-    <row r="299" spans="1:34" ht="14.5" hidden="1">
+    <row r="299" spans="1:34" hidden="1">
       <c r="A299" s="21"/>
       <c r="B299" s="21"/>
       <c r="C299" s="28"/>
@@ -20710,7 +20699,7 @@
       <c r="AG299" s="28"/>
       <c r="AH299" s="28"/>
     </row>
-    <row r="300" spans="1:34" ht="14.5" hidden="1">
+    <row r="300" spans="1:34" hidden="1">
       <c r="A300" s="21"/>
       <c r="B300" s="21"/>
       <c r="C300" s="28"/>
@@ -20746,7 +20735,7 @@
       <c r="AG300" s="28"/>
       <c r="AH300" s="28"/>
     </row>
-    <row r="301" spans="1:34" ht="14.5" hidden="1">
+    <row r="301" spans="1:34" hidden="1">
       <c r="A301" s="21"/>
       <c r="B301" s="21"/>
       <c r="C301" s="28"/>
@@ -20782,7 +20771,7 @@
       <c r="AG301" s="28"/>
       <c r="AH301" s="28"/>
     </row>
-    <row r="302" spans="1:34" ht="14.5" hidden="1">
+    <row r="302" spans="1:34" hidden="1">
       <c r="A302" s="21"/>
       <c r="B302" s="21"/>
       <c r="C302" s="28"/>
@@ -20818,7 +20807,7 @@
       <c r="AG302" s="28"/>
       <c r="AH302" s="28"/>
     </row>
-    <row r="303" spans="1:34" ht="14.5" hidden="1">
+    <row r="303" spans="1:34" hidden="1">
       <c r="A303" s="21"/>
       <c r="B303" s="21"/>
       <c r="C303" s="28"/>
@@ -20854,7 +20843,7 @@
       <c r="AG303" s="28"/>
       <c r="AH303" s="28"/>
     </row>
-    <row r="304" spans="1:34" ht="14.5" hidden="1">
+    <row r="304" spans="1:34" hidden="1">
       <c r="A304" s="21"/>
       <c r="B304" s="21"/>
       <c r="C304" s="28"/>
@@ -20890,7 +20879,7 @@
       <c r="AG304" s="28"/>
       <c r="AH304" s="28"/>
     </row>
-    <row r="305" spans="1:34" ht="14.5" hidden="1">
+    <row r="305" spans="1:34" hidden="1">
       <c r="A305" s="21"/>
       <c r="B305" s="21"/>
       <c r="C305" s="28"/>
@@ -20926,7 +20915,7 @@
       <c r="AG305" s="28"/>
       <c r="AH305" s="28"/>
     </row>
-    <row r="306" spans="1:34" ht="14.5" hidden="1">
+    <row r="306" spans="1:34" hidden="1">
       <c r="A306" s="21"/>
       <c r="B306" s="21"/>
       <c r="C306" s="28"/>
@@ -20962,7 +20951,7 @@
       <c r="AG306" s="28"/>
       <c r="AH306" s="28"/>
     </row>
-    <row r="307" spans="1:34" ht="14.5" hidden="1">
+    <row r="307" spans="1:34" hidden="1">
       <c r="A307" s="21"/>
       <c r="B307" s="21"/>
       <c r="C307" s="28"/>
@@ -20998,7 +20987,7 @@
       <c r="AG307" s="28"/>
       <c r="AH307" s="28"/>
     </row>
-    <row r="308" spans="1:34" ht="14.5" hidden="1">
+    <row r="308" spans="1:34" hidden="1">
       <c r="A308" s="21"/>
       <c r="B308" s="21"/>
       <c r="C308" s="28"/>
@@ -21034,7 +21023,7 @@
       <c r="AG308" s="28"/>
       <c r="AH308" s="28"/>
     </row>
-    <row r="309" spans="1:34" ht="14.5" hidden="1">
+    <row r="309" spans="1:34" hidden="1">
       <c r="A309" s="21"/>
       <c r="B309" s="21"/>
       <c r="C309" s="28"/>
@@ -21070,7 +21059,7 @@
       <c r="AG309" s="28"/>
       <c r="AH309" s="28"/>
     </row>
-    <row r="310" spans="1:34" ht="14.5" hidden="1">
+    <row r="310" spans="1:34" hidden="1">
       <c r="A310" s="21"/>
       <c r="B310" s="21"/>
       <c r="C310" s="28"/>
@@ -21106,7 +21095,7 @@
       <c r="AG310" s="28"/>
       <c r="AH310" s="28"/>
     </row>
-    <row r="311" spans="1:34" ht="14.5" hidden="1">
+    <row r="311" spans="1:34" hidden="1">
       <c r="A311" s="21"/>
       <c r="B311" s="21"/>
       <c r="C311" s="28"/>
@@ -21142,7 +21131,7 @@
       <c r="AG311" s="28"/>
       <c r="AH311" s="28"/>
     </row>
-    <row r="312" spans="1:34" ht="14.5" hidden="1">
+    <row r="312" spans="1:34" hidden="1">
       <c r="A312" s="21"/>
       <c r="B312" s="21"/>
       <c r="C312" s="28"/>
@@ -21178,7 +21167,7 @@
       <c r="AG312" s="28"/>
       <c r="AH312" s="28"/>
     </row>
-    <row r="313" spans="1:34" ht="14.5" hidden="1">
+    <row r="313" spans="1:34" hidden="1">
       <c r="A313" s="21"/>
       <c r="B313" s="21"/>
       <c r="C313" s="28"/>
@@ -21214,7 +21203,7 @@
       <c r="AG313" s="28"/>
       <c r="AH313" s="28"/>
     </row>
-    <row r="314" spans="1:34" ht="14.5" hidden="1">
+    <row r="314" spans="1:34" hidden="1">
       <c r="A314" s="21"/>
       <c r="B314" s="21"/>
       <c r="C314" s="28"/>
@@ -21250,7 +21239,7 @@
       <c r="AG314" s="28"/>
       <c r="AH314" s="28"/>
     </row>
-    <row r="315" spans="1:34" ht="14.5" hidden="1">
+    <row r="315" spans="1:34" hidden="1">
       <c r="A315" s="21"/>
       <c r="B315" s="21"/>
       <c r="C315" s="28"/>
@@ -21286,7 +21275,7 @@
       <c r="AG315" s="28"/>
       <c r="AH315" s="28"/>
     </row>
-    <row r="316" spans="1:34" ht="14.5" hidden="1">
+    <row r="316" spans="1:34" hidden="1">
       <c r="A316" s="21"/>
       <c r="B316" s="21"/>
       <c r="C316" s="28"/>
@@ -21322,7 +21311,7 @@
       <c r="AG316" s="28"/>
       <c r="AH316" s="28"/>
     </row>
-    <row r="317" spans="1:34" ht="14.5" hidden="1">
+    <row r="317" spans="1:34" hidden="1">
       <c r="A317" s="21"/>
       <c r="B317" s="21"/>
       <c r="C317" s="28"/>
@@ -21358,7 +21347,7 @@
       <c r="AG317" s="28"/>
       <c r="AH317" s="28"/>
     </row>
-    <row r="318" spans="1:34" ht="14.5" hidden="1">
+    <row r="318" spans="1:34" hidden="1">
       <c r="A318" s="21"/>
       <c r="B318" s="21"/>
       <c r="C318" s="28"/>
@@ -21394,7 +21383,7 @@
       <c r="AG318" s="28"/>
       <c r="AH318" s="28"/>
     </row>
-    <row r="319" spans="1:34" ht="14.5" hidden="1">
+    <row r="319" spans="1:34" hidden="1">
       <c r="A319" s="21"/>
       <c r="B319" s="21"/>
       <c r="C319" s="28"/>
@@ -21430,7 +21419,7 @@
       <c r="AG319" s="28"/>
       <c r="AH319" s="28"/>
     </row>
-    <row r="320" spans="1:34" ht="14.5" hidden="1">
+    <row r="320" spans="1:34" hidden="1">
       <c r="A320" s="21"/>
       <c r="B320" s="21"/>
       <c r="C320" s="28"/>
@@ -21466,7 +21455,7 @@
       <c r="AG320" s="28"/>
       <c r="AH320" s="28"/>
     </row>
-    <row r="321" spans="1:34" ht="14.5" hidden="1">
+    <row r="321" spans="1:34" hidden="1">
       <c r="A321" s="21"/>
       <c r="B321" s="21"/>
       <c r="C321" s="28"/>
@@ -21502,7 +21491,7 @@
       <c r="AG321" s="28"/>
       <c r="AH321" s="28"/>
     </row>
-    <row r="322" spans="1:34" ht="14.5" hidden="1">
+    <row r="322" spans="1:34" hidden="1">
       <c r="A322" s="21"/>
       <c r="B322" s="21"/>
       <c r="C322" s="28"/>
@@ -21538,7 +21527,7 @@
       <c r="AG322" s="28"/>
       <c r="AH322" s="28"/>
     </row>
-    <row r="323" spans="1:34" ht="14.5" hidden="1">
+    <row r="323" spans="1:34" hidden="1">
       <c r="A323" s="21"/>
       <c r="B323" s="21"/>
       <c r="C323" s="28"/>
@@ -21574,7 +21563,7 @@
       <c r="AG323" s="28"/>
       <c r="AH323" s="28"/>
     </row>
-    <row r="324" spans="1:34" ht="14.5" hidden="1">
+    <row r="324" spans="1:34" hidden="1">
       <c r="A324" s="21"/>
       <c r="B324" s="21"/>
       <c r="C324" s="28"/>
@@ -21610,7 +21599,7 @@
       <c r="AG324" s="28"/>
       <c r="AH324" s="28"/>
     </row>
-    <row r="325" spans="1:34" ht="14.5" hidden="1">
+    <row r="325" spans="1:34" hidden="1">
       <c r="A325" s="21"/>
       <c r="B325" s="21"/>
       <c r="C325" s="28"/>
@@ -21646,7 +21635,7 @@
       <c r="AG325" s="28"/>
       <c r="AH325" s="28"/>
     </row>
-    <row r="326" spans="1:34" ht="14.5" hidden="1">
+    <row r="326" spans="1:34" hidden="1">
       <c r="A326" s="21"/>
       <c r="B326" s="21"/>
       <c r="C326" s="28"/>
@@ -21682,7 +21671,7 @@
       <c r="AG326" s="28"/>
       <c r="AH326" s="28"/>
     </row>
-    <row r="327" spans="1:34" ht="14.5" hidden="1">
+    <row r="327" spans="1:34" hidden="1">
       <c r="A327" s="21"/>
       <c r="B327" s="21"/>
       <c r="C327" s="28"/>
@@ -21718,7 +21707,7 @@
       <c r="AG327" s="28"/>
       <c r="AH327" s="28"/>
     </row>
-    <row r="328" spans="1:34" ht="14.5" hidden="1">
+    <row r="328" spans="1:34" hidden="1">
       <c r="A328" s="21"/>
       <c r="B328" s="21"/>
       <c r="C328" s="28"/>
@@ -21754,7 +21743,7 @@
       <c r="AG328" s="28"/>
       <c r="AH328" s="28"/>
     </row>
-    <row r="329" spans="1:34" ht="14.5" hidden="1">
+    <row r="329" spans="1:34" hidden="1">
       <c r="A329" s="21"/>
       <c r="B329" s="21"/>
       <c r="C329" s="28"/>
@@ -21790,7 +21779,7 @@
       <c r="AG329" s="28"/>
       <c r="AH329" s="28"/>
     </row>
-    <row r="330" spans="1:34" ht="14.5" hidden="1">
+    <row r="330" spans="1:34" hidden="1">
       <c r="A330" s="21"/>
       <c r="B330" s="21"/>
       <c r="C330" s="28"/>
@@ -21826,7 +21815,7 @@
       <c r="AG330" s="28"/>
       <c r="AH330" s="28"/>
     </row>
-    <row r="331" spans="1:34" ht="14.5" hidden="1">
+    <row r="331" spans="1:34" hidden="1">
       <c r="A331" s="21"/>
       <c r="B331" s="21"/>
       <c r="C331" s="28"/>
@@ -21862,7 +21851,7 @@
       <c r="AG331" s="28"/>
       <c r="AH331" s="28"/>
     </row>
-    <row r="332" spans="1:34" ht="14.5" hidden="1">
+    <row r="332" spans="1:34" hidden="1">
       <c r="A332" s="21"/>
       <c r="B332" s="21"/>
       <c r="C332" s="28"/>
@@ -21898,7 +21887,7 @@
       <c r="AG332" s="28"/>
       <c r="AH332" s="28"/>
     </row>
-    <row r="333" spans="1:34" ht="14.5" hidden="1">
+    <row r="333" spans="1:34" hidden="1">
       <c r="A333" s="21"/>
       <c r="B333" s="21"/>
       <c r="C333" s="28"/>
@@ -21934,7 +21923,7 @@
       <c r="AG333" s="28"/>
       <c r="AH333" s="28"/>
     </row>
-    <row r="334" spans="1:34" ht="14.5" hidden="1">
+    <row r="334" spans="1:34" hidden="1">
       <c r="A334" s="21"/>
       <c r="B334" s="21"/>
       <c r="C334" s="28"/>
@@ -21970,7 +21959,7 @@
       <c r="AG334" s="28"/>
       <c r="AH334" s="28"/>
     </row>
-    <row r="335" spans="1:34" ht="14.5" hidden="1">
+    <row r="335" spans="1:34" hidden="1">
       <c r="A335" s="21"/>
       <c r="B335" s="21"/>
       <c r="C335" s="28"/>
@@ -22006,7 +21995,7 @@
       <c r="AG335" s="28"/>
       <c r="AH335" s="28"/>
     </row>
-    <row r="336" spans="1:34" ht="14.5" hidden="1">
+    <row r="336" spans="1:34" hidden="1">
       <c r="A336" s="21"/>
       <c r="B336" s="21"/>
       <c r="C336" s="28"/>
@@ -22042,7 +22031,7 @@
       <c r="AG336" s="28"/>
       <c r="AH336" s="28"/>
     </row>
-    <row r="337" spans="1:34" ht="14.5" hidden="1">
+    <row r="337" spans="1:34" hidden="1">
       <c r="A337" s="21"/>
       <c r="B337" s="21"/>
       <c r="C337" s="28"/>
@@ -22078,7 +22067,7 @@
       <c r="AG337" s="28"/>
       <c r="AH337" s="28"/>
     </row>
-    <row r="338" spans="1:34" ht="14.5" hidden="1">
+    <row r="338" spans="1:34" hidden="1">
       <c r="A338" s="21"/>
       <c r="B338" s="21"/>
       <c r="C338" s="28"/>
@@ -22114,7 +22103,7 @@
       <c r="AG338" s="28"/>
       <c r="AH338" s="28"/>
     </row>
-    <row r="339" spans="1:34" ht="14.5" hidden="1">
+    <row r="339" spans="1:34" hidden="1">
       <c r="A339" s="21"/>
       <c r="B339" s="21"/>
       <c r="C339" s="28"/>
@@ -22150,7 +22139,7 @@
       <c r="AG339" s="28"/>
       <c r="AH339" s="28"/>
     </row>
-    <row r="340" spans="1:34" ht="14.5" hidden="1">
+    <row r="340" spans="1:34" hidden="1">
       <c r="A340" s="21"/>
       <c r="B340" s="21"/>
       <c r="C340" s="28"/>
@@ -22186,7 +22175,7 @@
       <c r="AG340" s="28"/>
       <c r="AH340" s="28"/>
     </row>
-    <row r="341" spans="1:34" ht="14.5" hidden="1">
+    <row r="341" spans="1:34" hidden="1">
       <c r="A341" s="21"/>
       <c r="B341" s="21"/>
       <c r="C341" s="28"/>
@@ -22222,7 +22211,7 @@
       <c r="AG341" s="28"/>
       <c r="AH341" s="28"/>
     </row>
-    <row r="342" spans="1:34" ht="14.5" hidden="1">
+    <row r="342" spans="1:34" hidden="1">
       <c r="A342" s="21"/>
       <c r="B342" s="21"/>
       <c r="C342" s="28"/>
@@ -22258,7 +22247,7 @@
       <c r="AG342" s="28"/>
       <c r="AH342" s="28"/>
     </row>
-    <row r="343" spans="1:34" ht="14.5" hidden="1">
+    <row r="343" spans="1:34" hidden="1">
       <c r="A343" s="21"/>
       <c r="B343" s="21"/>
       <c r="C343" s="28"/>
@@ -22294,7 +22283,7 @@
       <c r="AG343" s="28"/>
       <c r="AH343" s="28"/>
     </row>
-    <row r="344" spans="1:34" ht="14.5" hidden="1">
+    <row r="344" spans="1:34" hidden="1">
       <c r="A344" s="21"/>
       <c r="B344" s="21"/>
       <c r="C344" s="28"/>
@@ -22330,7 +22319,7 @@
       <c r="AG344" s="28"/>
       <c r="AH344" s="28"/>
     </row>
-    <row r="345" spans="1:34" ht="14.5" hidden="1">
+    <row r="345" spans="1:34" hidden="1">
       <c r="A345" s="21"/>
       <c r="B345" s="21"/>
       <c r="C345" s="28"/>
@@ -22366,7 +22355,7 @@
       <c r="AG345" s="28"/>
       <c r="AH345" s="28"/>
     </row>
-    <row r="346" spans="1:34" ht="14.5" hidden="1">
+    <row r="346" spans="1:34" hidden="1">
       <c r="A346" s="21"/>
       <c r="B346" s="21"/>
       <c r="C346" s="28"/>
@@ -22402,7 +22391,7 @@
       <c r="AG346" s="28"/>
       <c r="AH346" s="28"/>
     </row>
-    <row r="347" spans="1:34" ht="14.5" hidden="1">
+    <row r="347" spans="1:34" hidden="1">
       <c r="A347" s="21"/>
       <c r="B347" s="21"/>
       <c r="C347" s="28"/>
@@ -22438,7 +22427,7 @@
       <c r="AG347" s="28"/>
       <c r="AH347" s="28"/>
     </row>
-    <row r="348" spans="1:34" ht="14.5" hidden="1">
+    <row r="348" spans="1:34" hidden="1">
       <c r="A348" s="21"/>
       <c r="B348" s="21"/>
       <c r="C348" s="28"/>
@@ -22474,7 +22463,7 @@
       <c r="AG348" s="28"/>
       <c r="AH348" s="28"/>
     </row>
-    <row r="349" spans="1:34" ht="14.5" hidden="1">
+    <row r="349" spans="1:34" hidden="1">
       <c r="A349" s="21"/>
       <c r="B349" s="21"/>
       <c r="C349" s="28"/>
@@ -22510,7 +22499,7 @@
       <c r="AG349" s="28"/>
       <c r="AH349" s="28"/>
     </row>
-    <row r="350" spans="1:34" ht="14.5" hidden="1">
+    <row r="350" spans="1:34" hidden="1">
       <c r="A350" s="21"/>
       <c r="B350" s="21"/>
       <c r="C350" s="28"/>
@@ -22546,7 +22535,7 @@
       <c r="AG350" s="28"/>
       <c r="AH350" s="28"/>
     </row>
-    <row r="351" spans="1:34" ht="14.5" hidden="1">
+    <row r="351" spans="1:34" hidden="1">
       <c r="A351" s="21"/>
       <c r="B351" s="21"/>
       <c r="C351" s="28"/>
@@ -22582,7 +22571,7 @@
       <c r="AG351" s="28"/>
       <c r="AH351" s="28"/>
     </row>
-    <row r="352" spans="1:34" ht="14.5" hidden="1">
+    <row r="352" spans="1:34" hidden="1">
       <c r="A352" s="21"/>
       <c r="B352" s="21"/>
       <c r="C352" s="28"/>
@@ -22618,7 +22607,7 @@
       <c r="AG352" s="28"/>
       <c r="AH352" s="28"/>
     </row>
-    <row r="353" spans="1:34" ht="14.5" hidden="1">
+    <row r="353" spans="1:34" hidden="1">
       <c r="A353" s="21"/>
       <c r="B353" s="21"/>
       <c r="C353" s="28"/>
@@ -22654,7 +22643,7 @@
       <c r="AG353" s="28"/>
       <c r="AH353" s="28"/>
     </row>
-    <row r="354" spans="1:34" ht="14.5" hidden="1">
+    <row r="354" spans="1:34" hidden="1">
       <c r="A354" s="21"/>
       <c r="B354" s="21"/>
       <c r="C354" s="28"/>
@@ -22690,7 +22679,7 @@
       <c r="AG354" s="28"/>
       <c r="AH354" s="28"/>
     </row>
-    <row r="355" spans="1:34" ht="14.5" hidden="1">
+    <row r="355" spans="1:34" hidden="1">
       <c r="A355" s="21"/>
       <c r="B355" s="21"/>
       <c r="C355" s="28"/>
@@ -22726,7 +22715,7 @@
       <c r="AG355" s="28"/>
       <c r="AH355" s="28"/>
     </row>
-    <row r="356" spans="1:34" ht="14.5" hidden="1">
+    <row r="356" spans="1:34" hidden="1">
       <c r="A356" s="21"/>
       <c r="B356" s="21"/>
       <c r="C356" s="28"/>
@@ -22762,7 +22751,7 @@
       <c r="AG356" s="28"/>
       <c r="AH356" s="28"/>
     </row>
-    <row r="357" spans="1:34" ht="14.5" hidden="1">
+    <row r="357" spans="1:34" hidden="1">
       <c r="A357" s="21"/>
       <c r="B357" s="21"/>
       <c r="C357" s="28"/>
@@ -22798,7 +22787,7 @@
       <c r="AG357" s="28"/>
       <c r="AH357" s="28"/>
     </row>
-    <row r="358" spans="1:34" ht="14.5" hidden="1">
+    <row r="358" spans="1:34" hidden="1">
       <c r="A358" s="21"/>
       <c r="B358" s="21"/>
       <c r="C358" s="28"/>
@@ -22834,7 +22823,7 @@
       <c r="AG358" s="28"/>
       <c r="AH358" s="28"/>
     </row>
-    <row r="359" spans="1:34" ht="14.5" hidden="1">
+    <row r="359" spans="1:34" hidden="1">
       <c r="A359" s="21"/>
       <c r="B359" s="21"/>
       <c r="C359" s="28"/>
@@ -22870,7 +22859,7 @@
       <c r="AG359" s="28"/>
       <c r="AH359" s="28"/>
     </row>
-    <row r="360" spans="1:34" ht="14.5" hidden="1">
+    <row r="360" spans="1:34" hidden="1">
       <c r="A360" s="21"/>
       <c r="B360" s="21"/>
       <c r="C360" s="28"/>
@@ -22906,7 +22895,7 @@
       <c r="AG360" s="28"/>
       <c r="AH360" s="28"/>
     </row>
-    <row r="361" spans="1:34" ht="14.5" hidden="1">
+    <row r="361" spans="1:34" hidden="1">
       <c r="A361" s="21"/>
       <c r="B361" s="21"/>
       <c r="C361" s="28"/>
@@ -22942,7 +22931,7 @@
       <c r="AG361" s="28"/>
       <c r="AH361" s="28"/>
     </row>
-    <row r="362" spans="1:34" ht="14.5" hidden="1">
+    <row r="362" spans="1:34" hidden="1">
       <c r="A362" s="21"/>
       <c r="B362" s="21"/>
       <c r="C362" s="28"/>
@@ -22978,7 +22967,7 @@
       <c r="AG362" s="28"/>
       <c r="AH362" s="28"/>
     </row>
-    <row r="363" spans="1:34" ht="14.5" hidden="1">
+    <row r="363" spans="1:34" hidden="1">
       <c r="A363" s="21"/>
       <c r="B363" s="21"/>
       <c r="C363" s="28"/>
@@ -23014,7 +23003,7 @@
       <c r="AG363" s="28"/>
       <c r="AH363" s="28"/>
     </row>
-    <row r="364" spans="1:34" ht="14.5" hidden="1">
+    <row r="364" spans="1:34" hidden="1">
       <c r="A364" s="21"/>
       <c r="B364" s="21"/>
       <c r="C364" s="28"/>
@@ -23050,7 +23039,7 @@
       <c r="AG364" s="28"/>
       <c r="AH364" s="28"/>
     </row>
-    <row r="365" spans="1:34" ht="14.5" hidden="1">
+    <row r="365" spans="1:34" hidden="1">
       <c r="A365" s="21"/>
       <c r="B365" s="21"/>
       <c r="C365" s="28"/>
@@ -23086,7 +23075,7 @@
       <c r="AG365" s="28"/>
       <c r="AH365" s="28"/>
     </row>
-    <row r="366" spans="1:34" ht="14.5" hidden="1">
+    <row r="366" spans="1:34" hidden="1">
       <c r="A366" s="21"/>
       <c r="B366" s="21"/>
       <c r="C366" s="28"/>
@@ -23122,7 +23111,7 @@
       <c r="AG366" s="28"/>
       <c r="AH366" s="28"/>
     </row>
-    <row r="367" spans="1:34" ht="14.5" hidden="1">
+    <row r="367" spans="1:34" hidden="1">
       <c r="A367" s="21"/>
       <c r="B367" s="21"/>
       <c r="C367" s="28"/>
@@ -23158,7 +23147,7 @@
       <c r="AG367" s="28"/>
       <c r="AH367" s="28"/>
     </row>
-    <row r="368" spans="1:34" ht="14.5" hidden="1">
+    <row r="368" spans="1:34" hidden="1">
       <c r="A368" s="21"/>
       <c r="B368" s="21"/>
       <c r="C368" s="28"/>
@@ -23194,7 +23183,7 @@
       <c r="AG368" s="28"/>
       <c r="AH368" s="28"/>
     </row>
-    <row r="369" spans="1:34" ht="14.5" hidden="1">
+    <row r="369" spans="1:34" hidden="1">
       <c r="A369" s="21"/>
       <c r="B369" s="21"/>
       <c r="C369" s="28"/>
@@ -23230,7 +23219,7 @@
       <c r="AG369" s="28"/>
       <c r="AH369" s="28"/>
     </row>
-    <row r="370" spans="1:34" ht="14.5" hidden="1">
+    <row r="370" spans="1:34" hidden="1">
       <c r="A370" s="21"/>
       <c r="B370" s="21"/>
       <c r="C370" s="28"/>
@@ -23266,7 +23255,7 @@
       <c r="AG370" s="28"/>
       <c r="AH370" s="28"/>
     </row>
-    <row r="371" spans="1:34" ht="14.5" hidden="1">
+    <row r="371" spans="1:34" hidden="1">
       <c r="A371" s="21"/>
       <c r="B371" s="21"/>
       <c r="C371" s="28"/>
@@ -23302,7 +23291,7 @@
       <c r="AG371" s="28"/>
       <c r="AH371" s="28"/>
     </row>
-    <row r="372" spans="1:34" ht="14.5" hidden="1">
+    <row r="372" spans="1:34" hidden="1">
       <c r="A372" s="21"/>
       <c r="B372" s="21"/>
       <c r="C372" s="28"/>
@@ -23338,7 +23327,7 @@
       <c r="AG372" s="28"/>
       <c r="AH372" s="28"/>
     </row>
-    <row r="373" spans="1:34" ht="14.5" hidden="1">
+    <row r="373" spans="1:34" hidden="1">
       <c r="A373" s="21"/>
       <c r="B373" s="21"/>
       <c r="C373" s="28"/>
@@ -23374,7 +23363,7 @@
       <c r="AG373" s="28"/>
       <c r="AH373" s="28"/>
     </row>
-    <row r="374" spans="1:34" ht="14.5" hidden="1">
+    <row r="374" spans="1:34" hidden="1">
       <c r="A374" s="21"/>
       <c r="B374" s="21"/>
       <c r="C374" s="28"/>
@@ -23410,7 +23399,7 @@
       <c r="AG374" s="28"/>
       <c r="AH374" s="28"/>
     </row>
-    <row r="375" spans="1:34" ht="14.5" hidden="1">
+    <row r="375" spans="1:34" hidden="1">
       <c r="A375" s="21"/>
       <c r="B375" s="21"/>
       <c r="C375" s="28"/>
@@ -23446,7 +23435,7 @@
       <c r="AG375" s="28"/>
       <c r="AH375" s="28"/>
     </row>
-    <row r="376" spans="1:34" ht="14.5" hidden="1">
+    <row r="376" spans="1:34" hidden="1">
       <c r="A376" s="21"/>
       <c r="B376" s="21"/>
       <c r="C376" s="28"/>
@@ -23482,7 +23471,7 @@
       <c r="AG376" s="28"/>
       <c r="AH376" s="28"/>
     </row>
-    <row r="377" spans="1:34" ht="14.5" hidden="1">
+    <row r="377" spans="1:34" hidden="1">
       <c r="A377" s="21"/>
       <c r="B377" s="21"/>
       <c r="C377" s="28"/>
@@ -23518,7 +23507,7 @@
       <c r="AG377" s="28"/>
       <c r="AH377" s="28"/>
     </row>
-    <row r="378" spans="1:34" ht="14.5" hidden="1">
+    <row r="378" spans="1:34" hidden="1">
       <c r="A378" s="21"/>
       <c r="B378" s="21"/>
       <c r="C378" s="28"/>
@@ -23554,7 +23543,7 @@
       <c r="AG378" s="28"/>
       <c r="AH378" s="28"/>
     </row>
-    <row r="379" spans="1:34" ht="14.5" hidden="1">
+    <row r="379" spans="1:34" hidden="1">
       <c r="A379" s="21"/>
       <c r="B379" s="21"/>
       <c r="C379" s="28"/>
@@ -23590,7 +23579,7 @@
       <c r="AG379" s="28"/>
       <c r="AH379" s="28"/>
     </row>
-    <row r="380" spans="1:34" ht="14.5" hidden="1">
+    <row r="380" spans="1:34" hidden="1">
       <c r="A380" s="21"/>
       <c r="B380" s="21"/>
       <c r="C380" s="28"/>
@@ -23626,7 +23615,7 @@
       <c r="AG380" s="28"/>
       <c r="AH380" s="28"/>
     </row>
-    <row r="381" spans="1:34" ht="14.5" hidden="1">
+    <row r="381" spans="1:34" hidden="1">
       <c r="A381" s="21"/>
       <c r="B381" s="21"/>
       <c r="C381" s="28"/>
@@ -23662,7 +23651,7 @@
       <c r="AG381" s="28"/>
       <c r="AH381" s="28"/>
     </row>
-    <row r="382" spans="1:34" ht="14.5" hidden="1">
+    <row r="382" spans="1:34" hidden="1">
       <c r="A382" s="21"/>
       <c r="B382" s="21"/>
       <c r="C382" s="28"/>
@@ -23698,7 +23687,7 @@
       <c r="AG382" s="28"/>
       <c r="AH382" s="28"/>
     </row>
-    <row r="383" spans="1:34" ht="14.5" hidden="1">
+    <row r="383" spans="1:34" hidden="1">
       <c r="A383" s="21"/>
       <c r="B383" s="21"/>
       <c r="C383" s="28"/>
@@ -23734,7 +23723,7 @@
       <c r="AG383" s="28"/>
       <c r="AH383" s="28"/>
     </row>
-    <row r="384" spans="1:34" ht="14.5" hidden="1">
+    <row r="384" spans="1:34" hidden="1">
       <c r="A384" s="21"/>
       <c r="B384" s="21"/>
       <c r="C384" s="28"/>
@@ -23770,7 +23759,7 @@
       <c r="AG384" s="28"/>
       <c r="AH384" s="28"/>
     </row>
-    <row r="385" spans="1:34" ht="14.5" hidden="1">
+    <row r="385" spans="1:34" hidden="1">
       <c r="A385" s="21"/>
       <c r="B385" s="21"/>
       <c r="C385" s="28"/>
@@ -23806,7 +23795,7 @@
       <c r="AG385" s="28"/>
       <c r="AH385" s="28"/>
     </row>
-    <row r="386" spans="1:34" ht="14.5" hidden="1">
+    <row r="386" spans="1:34" hidden="1">
       <c r="A386" s="21"/>
       <c r="B386" s="21"/>
       <c r="C386" s="28"/>
@@ -23842,7 +23831,7 @@
       <c r="AG386" s="28"/>
       <c r="AH386" s="28"/>
     </row>
-    <row r="387" spans="1:34" ht="14.5" hidden="1">
+    <row r="387" spans="1:34" hidden="1">
       <c r="A387" s="21"/>
       <c r="B387" s="21"/>
       <c r="C387" s="28"/>
@@ -23878,7 +23867,7 @@
       <c r="AG387" s="28"/>
       <c r="AH387" s="28"/>
     </row>
-    <row r="388" spans="1:34" ht="14.5" hidden="1">
+    <row r="388" spans="1:34" hidden="1">
       <c r="A388" s="21"/>
       <c r="B388" s="21"/>
       <c r="C388" s="28"/>
@@ -23914,7 +23903,7 @@
       <c r="AG388" s="28"/>
       <c r="AH388" s="28"/>
     </row>
-    <row r="389" spans="1:34" ht="14.5" hidden="1">
+    <row r="389" spans="1:34" hidden="1">
       <c r="A389" s="21"/>
       <c r="B389" s="21"/>
       <c r="C389" s="28"/>
@@ -23950,7 +23939,7 @@
       <c r="AG389" s="28"/>
       <c r="AH389" s="28"/>
     </row>
-    <row r="390" spans="1:34" ht="14.5" hidden="1">
+    <row r="390" spans="1:34" hidden="1">
       <c r="A390" s="21"/>
       <c r="B390" s="21"/>
       <c r="C390" s="28"/>
@@ -23986,7 +23975,7 @@
       <c r="AG390" s="28"/>
       <c r="AH390" s="28"/>
     </row>
-    <row r="391" spans="1:34" ht="14.5" hidden="1">
+    <row r="391" spans="1:34" hidden="1">
       <c r="A391" s="21"/>
       <c r="B391" s="21"/>
       <c r="C391" s="28"/>
@@ -24022,7 +24011,7 @@
       <c r="AG391" s="28"/>
       <c r="AH391" s="28"/>
     </row>
-    <row r="392" spans="1:34" ht="14.5" hidden="1">
+    <row r="392" spans="1:34" hidden="1">
       <c r="A392" s="21"/>
       <c r="B392" s="21"/>
       <c r="C392" s="28"/>
@@ -24058,7 +24047,7 @@
       <c r="AG392" s="28"/>
       <c r="AH392" s="28"/>
     </row>
-    <row r="393" spans="1:34" ht="14.5" hidden="1">
+    <row r="393" spans="1:34" hidden="1">
       <c r="A393" s="21"/>
       <c r="B393" s="21"/>
       <c r="C393" s="28"/>
@@ -24094,7 +24083,7 @@
       <c r="AG393" s="28"/>
       <c r="AH393" s="28"/>
     </row>
-    <row r="394" spans="1:34" ht="14.5" hidden="1">
+    <row r="394" spans="1:34" hidden="1">
       <c r="A394" s="21"/>
       <c r="B394" s="21"/>
       <c r="C394" s="28"/>
@@ -24130,7 +24119,7 @@
       <c r="AG394" s="28"/>
       <c r="AH394" s="28"/>
     </row>
-    <row r="395" spans="1:34" ht="14.5" hidden="1">
+    <row r="395" spans="1:34" hidden="1">
       <c r="A395" s="21"/>
       <c r="B395" s="21"/>
       <c r="C395" s="28"/>
@@ -24166,7 +24155,7 @@
       <c r="AG395" s="28"/>
       <c r="AH395" s="28"/>
     </row>
-    <row r="396" spans="1:34" ht="14.5" hidden="1">
+    <row r="396" spans="1:34" hidden="1">
       <c r="A396" s="21"/>
       <c r="B396" s="21"/>
       <c r="C396" s="28"/>
@@ -24202,7 +24191,7 @@
       <c r="AG396" s="28"/>
       <c r="AH396" s="28"/>
     </row>
-    <row r="397" spans="1:34" ht="14.5" hidden="1">
+    <row r="397" spans="1:34" hidden="1">
       <c r="A397" s="21"/>
       <c r="B397" s="21"/>
       <c r="C397" s="28"/>
@@ -24238,7 +24227,7 @@
       <c r="AG397" s="28"/>
       <c r="AH397" s="28"/>
     </row>
-    <row r="398" spans="1:34" ht="14.5" hidden="1">
+    <row r="398" spans="1:34" hidden="1">
       <c r="A398" s="21"/>
       <c r="B398" s="21"/>
       <c r="C398" s="28"/>
@@ -24274,7 +24263,7 @@
       <c r="AG398" s="28"/>
       <c r="AH398" s="28"/>
     </row>
-    <row r="399" spans="1:34" ht="14.5" hidden="1">
+    <row r="399" spans="1:34" hidden="1">
       <c r="A399" s="21"/>
       <c r="B399" s="21"/>
       <c r="C399" s="28"/>
@@ -24310,7 +24299,7 @@
       <c r="AG399" s="28"/>
       <c r="AH399" s="28"/>
     </row>
-    <row r="400" spans="1:34" ht="14.5" hidden="1">
+    <row r="400" spans="1:34" hidden="1">
       <c r="A400" s="21"/>
       <c r="B400" s="21"/>
       <c r="C400" s="28"/>
@@ -24346,7 +24335,7 @@
       <c r="AG400" s="28"/>
       <c r="AH400" s="28"/>
     </row>
-    <row r="401" spans="1:34" ht="14.5" hidden="1">
+    <row r="401" spans="1:34" hidden="1">
       <c r="A401" s="21"/>
       <c r="B401" s="21"/>
       <c r="C401" s="28"/>
@@ -24382,7 +24371,7 @@
       <c r="AG401" s="28"/>
       <c r="AH401" s="28"/>
     </row>
-    <row r="402" spans="1:34" ht="14.5" hidden="1">
+    <row r="402" spans="1:34" hidden="1">
       <c r="A402" s="21"/>
       <c r="B402" s="21"/>
       <c r="C402" s="28"/>
@@ -24418,7 +24407,7 @@
       <c r="AG402" s="28"/>
       <c r="AH402" s="28"/>
     </row>
-    <row r="403" spans="1:34" ht="14.5" hidden="1">
+    <row r="403" spans="1:34" hidden="1">
       <c r="A403" s="21"/>
       <c r="B403" s="21"/>
       <c r="C403" s="28"/>
@@ -24454,7 +24443,7 @@
       <c r="AG403" s="28"/>
       <c r="AH403" s="28"/>
     </row>
-    <row r="404" spans="1:34" ht="14.5" hidden="1">
+    <row r="404" spans="1:34" hidden="1">
       <c r="A404" s="21"/>
       <c r="B404" s="21"/>
       <c r="C404" s="28"/>
@@ -24490,7 +24479,7 @@
       <c r="AG404" s="28"/>
       <c r="AH404" s="28"/>
     </row>
-    <row r="405" spans="1:34" ht="14.5" hidden="1">
+    <row r="405" spans="1:34" hidden="1">
       <c r="A405" s="21"/>
       <c r="B405" s="21"/>
       <c r="C405" s="28"/>
@@ -24526,7 +24515,7 @@
       <c r="AG405" s="28"/>
       <c r="AH405" s="28"/>
     </row>
-    <row r="406" spans="1:34" ht="14.5" hidden="1">
+    <row r="406" spans="1:34" hidden="1">
       <c r="A406" s="21"/>
       <c r="B406" s="21"/>
       <c r="C406" s="28"/>
@@ -24562,7 +24551,7 @@
       <c r="AG406" s="28"/>
       <c r="AH406" s="28"/>
     </row>
-    <row r="407" spans="1:34" ht="14.5" hidden="1">
+    <row r="407" spans="1:34" hidden="1">
       <c r="A407" s="21"/>
       <c r="B407" s="21"/>
       <c r="C407" s="28"/>
@@ -24598,7 +24587,7 @@
       <c r="AG407" s="28"/>
       <c r="AH407" s="28"/>
     </row>
-    <row r="408" spans="1:34" ht="14.5" hidden="1">
+    <row r="408" spans="1:34" hidden="1">
       <c r="A408" s="21"/>
       <c r="B408" s="21"/>
       <c r="C408" s="28"/>
@@ -24634,7 +24623,7 @@
       <c r="AG408" s="28"/>
       <c r="AH408" s="28"/>
     </row>
-    <row r="409" spans="1:34" ht="14.5" hidden="1">
+    <row r="409" spans="1:34" hidden="1">
       <c r="A409" s="21"/>
       <c r="B409" s="21"/>
       <c r="C409" s="28"/>
@@ -24670,7 +24659,7 @@
       <c r="AG409" s="28"/>
       <c r="AH409" s="28"/>
     </row>
-    <row r="410" spans="1:34" ht="14.5" hidden="1">
+    <row r="410" spans="1:34" hidden="1">
       <c r="A410" s="21"/>
       <c r="B410" s="21"/>
       <c r="C410" s="28"/>
@@ -24706,7 +24695,7 @@
       <c r="AG410" s="28"/>
       <c r="AH410" s="28"/>
     </row>
-    <row r="411" spans="1:34" ht="14.5" hidden="1">
+    <row r="411" spans="1:34" hidden="1">
       <c r="A411" s="21"/>
       <c r="B411" s="21"/>
       <c r="C411" s="28"/>
@@ -24742,7 +24731,7 @@
       <c r="AG411" s="28"/>
       <c r="AH411" s="28"/>
     </row>
-    <row r="412" spans="1:34" ht="14.5" hidden="1">
+    <row r="412" spans="1:34" hidden="1">
       <c r="A412" s="21"/>
       <c r="B412" s="21"/>
       <c r="C412" s="28"/>
@@ -24778,7 +24767,7 @@
       <c r="AG412" s="28"/>
       <c r="AH412" s="28"/>
     </row>
-    <row r="413" spans="1:34" ht="14.5" hidden="1">
+    <row r="413" spans="1:34" hidden="1">
       <c r="A413" s="21"/>
       <c r="B413" s="21"/>
       <c r="C413" s="28"/>
@@ -24814,7 +24803,7 @@
       <c r="AG413" s="28"/>
       <c r="AH413" s="28"/>
     </row>
-    <row r="414" spans="1:34" ht="14.5" hidden="1">
+    <row r="414" spans="1:34" hidden="1">
       <c r="A414" s="21"/>
       <c r="B414" s="21"/>
       <c r="C414" s="28"/>
@@ -24850,7 +24839,7 @@
       <c r="AG414" s="28"/>
       <c r="AH414" s="28"/>
     </row>
-    <row r="415" spans="1:34" ht="14.5" hidden="1">
+    <row r="415" spans="1:34" hidden="1">
       <c r="A415" s="21"/>
       <c r="B415" s="21"/>
       <c r="C415" s="28"/>
@@ -24886,7 +24875,7 @@
       <c r="AG415" s="28"/>
       <c r="AH415" s="28"/>
     </row>
-    <row r="416" spans="1:34" ht="14.5" hidden="1">
+    <row r="416" spans="1:34" hidden="1">
       <c r="A416" s="21"/>
       <c r="B416" s="21"/>
       <c r="C416" s="28"/>
@@ -24922,7 +24911,7 @@
       <c r="AG416" s="28"/>
       <c r="AH416" s="28"/>
     </row>
-    <row r="417" spans="1:34" ht="14.5" hidden="1">
+    <row r="417" spans="1:34" hidden="1">
       <c r="A417" s="21"/>
       <c r="B417" s="21"/>
       <c r="C417" s="28"/>
@@ -24958,7 +24947,7 @@
       <c r="AG417" s="28"/>
       <c r="AH417" s="28"/>
     </row>
-    <row r="418" spans="1:34" ht="14.5" hidden="1">
+    <row r="418" spans="1:34" hidden="1">
       <c r="A418" s="21"/>
       <c r="B418" s="21"/>
       <c r="C418" s="28"/>
@@ -24994,7 +24983,7 @@
       <c r="AG418" s="28"/>
       <c r="AH418" s="28"/>
     </row>
-    <row r="419" spans="1:34" ht="14.5" hidden="1">
+    <row r="419" spans="1:34" hidden="1">
       <c r="A419" s="21"/>
       <c r="B419" s="21"/>
       <c r="C419" s="28"/>
@@ -25030,7 +25019,7 @@
       <c r="AG419" s="28"/>
       <c r="AH419" s="28"/>
     </row>
-    <row r="420" spans="1:34" ht="14.5" hidden="1">
+    <row r="420" spans="1:34" hidden="1">
       <c r="A420" s="21"/>
       <c r="B420" s="21"/>
       <c r="C420" s="28"/>
@@ -25066,7 +25055,7 @@
       <c r="AG420" s="28"/>
       <c r="AH420" s="28"/>
     </row>
-    <row r="421" spans="1:34" ht="14.5" hidden="1">
+    <row r="421" spans="1:34" hidden="1">
       <c r="A421" s="21"/>
       <c r="B421" s="21"/>
       <c r="C421" s="28"/>
@@ -25102,7 +25091,7 @@
       <c r="AG421" s="28"/>
       <c r="AH421" s="28"/>
     </row>
-    <row r="422" spans="1:34" ht="14.5" hidden="1">
+    <row r="422" spans="1:34" hidden="1">
       <c r="A422" s="21"/>
       <c r="B422" s="21"/>
       <c r="C422" s="28"/>
@@ -25138,7 +25127,7 @@
       <c r="AG422" s="28"/>
       <c r="AH422" s="28"/>
     </row>
-    <row r="423" spans="1:34" ht="14.5" hidden="1">
+    <row r="423" spans="1:34" hidden="1">
       <c r="A423" s="21"/>
       <c r="B423" s="21"/>
       <c r="C423" s="28"/>
@@ -25174,7 +25163,7 @@
       <c r="AG423" s="28"/>
       <c r="AH423" s="28"/>
     </row>
-    <row r="424" spans="1:34" ht="14.5" hidden="1">
+    <row r="424" spans="1:34" hidden="1">
       <c r="A424" s="21"/>
       <c r="B424" s="21"/>
       <c r="C424" s="28"/>
@@ -25210,7 +25199,7 @@
       <c r="AG424" s="28"/>
       <c r="AH424" s="28"/>
     </row>
-    <row r="425" spans="1:34" ht="14.5" hidden="1">
+    <row r="425" spans="1:34" hidden="1">
       <c r="A425" s="21"/>
       <c r="B425" s="21"/>
       <c r="C425" s="28"/>
@@ -25246,7 +25235,7 @@
       <c r="AG425" s="28"/>
       <c r="AH425" s="28"/>
     </row>
-    <row r="426" spans="1:34" ht="14.5" hidden="1">
+    <row r="426" spans="1:34" hidden="1">
       <c r="A426" s="21"/>
       <c r="B426" s="21"/>
       <c r="C426" s="28"/>
@@ -25282,7 +25271,7 @@
       <c r="AG426" s="28"/>
       <c r="AH426" s="28"/>
     </row>
-    <row r="427" spans="1:34" ht="14.5" hidden="1">
+    <row r="427" spans="1:34" hidden="1">
       <c r="A427" s="21"/>
       <c r="B427" s="21"/>
       <c r="C427" s="28"/>
@@ -25318,7 +25307,7 @@
       <c r="AG427" s="28"/>
       <c r="AH427" s="28"/>
     </row>
-    <row r="428" spans="1:34" ht="14.5" hidden="1">
+    <row r="428" spans="1:34" hidden="1">
       <c r="A428" s="21"/>
       <c r="B428" s="21"/>
       <c r="C428" s="28"/>
@@ -25354,7 +25343,7 @@
       <c r="AG428" s="28"/>
       <c r="AH428" s="28"/>
     </row>
-    <row r="429" spans="1:34" ht="14.5" hidden="1">
+    <row r="429" spans="1:34" hidden="1">
       <c r="A429" s="21"/>
       <c r="B429" s="21"/>
       <c r="C429" s="28"/>
@@ -25390,7 +25379,7 @@
       <c r="AG429" s="28"/>
       <c r="AH429" s="28"/>
     </row>
-    <row r="430" spans="1:34" ht="14.5" hidden="1">
+    <row r="430" spans="1:34" hidden="1">
       <c r="A430" s="21"/>
       <c r="B430" s="21"/>
       <c r="C430" s="28"/>
@@ -25426,7 +25415,7 @@
       <c r="AG430" s="28"/>
       <c r="AH430" s="28"/>
     </row>
-    <row r="431" spans="1:34" ht="14.5" hidden="1">
+    <row r="431" spans="1:34" hidden="1">
       <c r="A431" s="21"/>
       <c r="B431" s="21"/>
       <c r="C431" s="28"/>
@@ -25462,7 +25451,7 @@
       <c r="AG431" s="28"/>
       <c r="AH431" s="28"/>
     </row>
-    <row r="432" spans="1:34" ht="14.5" hidden="1">
+    <row r="432" spans="1:34" hidden="1">
       <c r="A432" s="21"/>
       <c r="B432" s="21"/>
       <c r="C432" s="28"/>
@@ -25498,7 +25487,7 @@
       <c r="AG432" s="28"/>
       <c r="AH432" s="28"/>
     </row>
-    <row r="433" spans="1:34" ht="14.5" hidden="1">
+    <row r="433" spans="1:34" hidden="1">
       <c r="A433" s="21"/>
       <c r="B433" s="21"/>
       <c r="C433" s="28"/>
@@ -25534,7 +25523,7 @@
       <c r="AG433" s="28"/>
       <c r="AH433" s="28"/>
     </row>
-    <row r="434" spans="1:34" ht="14.5" hidden="1">
+    <row r="434" spans="1:34" hidden="1">
       <c r="A434" s="21"/>
       <c r="B434" s="21"/>
       <c r="C434" s="28"/>
@@ -25570,7 +25559,7 @@
       <c r="AG434" s="28"/>
       <c r="AH434" s="28"/>
     </row>
-    <row r="435" spans="1:34" ht="14.5" hidden="1">
+    <row r="435" spans="1:34" hidden="1">
       <c r="A435" s="21"/>
       <c r="B435" s="21"/>
       <c r="C435" s="28"/>
@@ -25606,7 +25595,7 @@
       <c r="AG435" s="28"/>
       <c r="AH435" s="28"/>
     </row>
-    <row r="436" spans="1:34" ht="14.5" hidden="1">
+    <row r="436" spans="1:34" hidden="1">
       <c r="A436" s="21"/>
       <c r="B436" s="21"/>
       <c r="C436" s="28"/>
@@ -25642,7 +25631,7 @@
       <c r="AG436" s="28"/>
       <c r="AH436" s="28"/>
     </row>
-    <row r="437" spans="1:34" ht="14.5" hidden="1">
+    <row r="437" spans="1:34" hidden="1">
       <c r="A437" s="21"/>
       <c r="B437" s="21"/>
       <c r="C437" s="28"/>
@@ -25678,7 +25667,7 @@
       <c r="AG437" s="28"/>
       <c r="AH437" s="28"/>
     </row>
-    <row r="438" spans="1:34" ht="14.5" hidden="1">
+    <row r="438" spans="1:34" hidden="1">
       <c r="A438" s="21"/>
       <c r="B438" s="21"/>
       <c r="C438" s="28"/>
@@ -25714,7 +25703,7 @@
       <c r="AG438" s="28"/>
       <c r="AH438" s="28"/>
     </row>
-    <row r="439" spans="1:34" ht="14.5" hidden="1">
+    <row r="439" spans="1:34" hidden="1">
       <c r="A439" s="21"/>
       <c r="B439" s="21"/>
       <c r="C439" s="28"/>
@@ -25750,7 +25739,7 @@
       <c r="AG439" s="28"/>
       <c r="AH439" s="28"/>
     </row>
-    <row r="440" spans="1:34" ht="14.5" hidden="1">
+    <row r="440" spans="1:34" hidden="1">
       <c r="A440" s="21"/>
       <c r="B440" s="21"/>
       <c r="C440" s="28"/>
@@ -25786,7 +25775,7 @@
       <c r="AG440" s="28"/>
       <c r="AH440" s="28"/>
     </row>
-    <row r="441" spans="1:34" ht="14.5" hidden="1">
+    <row r="441" spans="1:34" hidden="1">
       <c r="A441" s="21"/>
       <c r="B441" s="21"/>
       <c r="C441" s="28"/>
@@ -25822,7 +25811,7 @@
       <c r="AG441" s="28"/>
       <c r="AH441" s="28"/>
     </row>
-    <row r="442" spans="1:34" ht="14.5" hidden="1">
+    <row r="442" spans="1:34" hidden="1">
       <c r="A442" s="21"/>
       <c r="B442" s="21"/>
       <c r="C442" s="28"/>
@@ -25858,7 +25847,7 @@
       <c r="AG442" s="28"/>
       <c r="AH442" s="28"/>
     </row>
-    <row r="443" spans="1:34" ht="14.5" hidden="1">
+    <row r="443" spans="1:34" hidden="1">
       <c r="A443" s="21"/>
       <c r="B443" s="21"/>
       <c r="C443" s="28"/>
@@ -25894,7 +25883,7 @@
       <c r="AG443" s="28"/>
       <c r="AH443" s="28"/>
     </row>
-    <row r="444" spans="1:34" ht="14.5" hidden="1">
+    <row r="444" spans="1:34" hidden="1">
       <c r="A444" s="21"/>
       <c r="B444" s="21"/>
       <c r="C444" s="28"/>
@@ -25930,7 +25919,7 @@
       <c r="AG444" s="28"/>
       <c r="AH444" s="28"/>
     </row>
-    <row r="445" spans="1:34" ht="14.5" hidden="1">
+    <row r="445" spans="1:34" hidden="1">
       <c r="A445" s="21"/>
       <c r="B445" s="21"/>
       <c r="C445" s="28"/>
@@ -25966,7 +25955,7 @@
       <c r="AG445" s="28"/>
       <c r="AH445" s="28"/>
     </row>
-    <row r="446" spans="1:34" ht="14.5" hidden="1">
+    <row r="446" spans="1:34" hidden="1">
       <c r="A446" s="21"/>
       <c r="B446" s="21"/>
       <c r="C446" s="28"/>
@@ -26002,7 +25991,7 @@
       <c r="AG446" s="28"/>
       <c r="AH446" s="28"/>
     </row>
-    <row r="447" spans="1:34" ht="14.5" hidden="1">
+    <row r="447" spans="1:34" hidden="1">
       <c r="A447" s="21"/>
       <c r="B447" s="21"/>
       <c r="C447" s="28"/>
@@ -26038,7 +26027,7 @@
       <c r="AG447" s="28"/>
       <c r="AH447" s="28"/>
     </row>
-    <row r="448" spans="1:34" ht="14.5" hidden="1">
+    <row r="448" spans="1:34" hidden="1">
       <c r="A448" s="21"/>
       <c r="B448" s="21"/>
       <c r="C448" s="28"/>
@@ -26074,7 +26063,7 @@
       <c r="AG448" s="28"/>
       <c r="AH448" s="28"/>
     </row>
-    <row r="449" spans="1:34" ht="14.5" hidden="1">
+    <row r="449" spans="1:34" hidden="1">
       <c r="A449" s="21"/>
       <c r="B449" s="21"/>
       <c r="C449" s="28"/>
@@ -26110,7 +26099,7 @@
       <c r="AG449" s="28"/>
       <c r="AH449" s="28"/>
     </row>
-    <row r="450" spans="1:34" ht="14.5" hidden="1">
+    <row r="450" spans="1:34" hidden="1">
       <c r="A450" s="21"/>
       <c r="B450" s="21"/>
       <c r="C450" s="28"/>
@@ -26146,7 +26135,7 @@
       <c r="AG450" s="28"/>
       <c r="AH450" s="28"/>
     </row>
-    <row r="451" spans="1:34" ht="14.5" hidden="1">
+    <row r="451" spans="1:34" hidden="1">
       <c r="A451" s="21"/>
       <c r="B451" s="21"/>
       <c r="C451" s="28"/>
@@ -26182,7 +26171,7 @@
       <c r="AG451" s="28"/>
       <c r="AH451" s="28"/>
     </row>
-    <row r="452" spans="1:34" ht="14.5" hidden="1">
+    <row r="452" spans="1:34" hidden="1">
       <c r="A452" s="21"/>
       <c r="B452" s="21"/>
       <c r="C452" s="28"/>
@@ -26218,7 +26207,7 @@
       <c r="AG452" s="28"/>
       <c r="AH452" s="28"/>
     </row>
-    <row r="453" spans="1:34" ht="14.5" hidden="1">
+    <row r="453" spans="1:34" hidden="1">
       <c r="A453" s="21"/>
       <c r="B453" s="21"/>
       <c r="C453" s="28"/>
@@ -26254,7 +26243,7 @@
       <c r="AG453" s="28"/>
       <c r="AH453" s="28"/>
     </row>
-    <row r="454" spans="1:34" ht="14.5" hidden="1">
+    <row r="454" spans="1:34" hidden="1">
       <c r="A454" s="21"/>
       <c r="B454" s="21"/>
       <c r="C454" s="28"/>
@@ -26290,7 +26279,7 @@
       <c r="AG454" s="28"/>
       <c r="AH454" s="28"/>
     </row>
-    <row r="455" spans="1:34" ht="14.5" hidden="1">
+    <row r="455" spans="1:34" hidden="1">
       <c r="A455" s="21"/>
       <c r="B455" s="21"/>
       <c r="C455" s="28"/>
@@ -26326,7 +26315,7 @@
       <c r="AG455" s="28"/>
       <c r="AH455" s="28"/>
     </row>
-    <row r="456" spans="1:34" ht="14.5" hidden="1">
+    <row r="456" spans="1:34" hidden="1">
       <c r="A456" s="21"/>
       <c r="B456" s="21"/>
       <c r="C456" s="28"/>
@@ -26362,7 +26351,7 @@
       <c r="AG456" s="28"/>
       <c r="AH456" s="28"/>
     </row>
-    <row r="457" spans="1:34" ht="14.5" hidden="1">
+    <row r="457" spans="1:34" hidden="1">
       <c r="A457" s="21"/>
       <c r="B457" s="21"/>
       <c r="C457" s="28"/>
@@ -26398,7 +26387,7 @@
       <c r="AG457" s="28"/>
       <c r="AH457" s="28"/>
     </row>
-    <row r="458" spans="1:34" ht="14.5" hidden="1">
+    <row r="458" spans="1:34" hidden="1">
       <c r="A458" s="21"/>
       <c r="B458" s="21"/>
       <c r="C458" s="28"/>
@@ -26434,7 +26423,7 @@
       <c r="AG458" s="28"/>
       <c r="AH458" s="28"/>
     </row>
-    <row r="459" spans="1:34" ht="14.5" hidden="1">
+    <row r="459" spans="1:34" hidden="1">
       <c r="A459" s="21"/>
       <c r="B459" s="21"/>
       <c r="C459" s="28"/>
@@ -26470,7 +26459,7 @@
       <c r="AG459" s="28"/>
       <c r="AH459" s="28"/>
     </row>
-    <row r="460" spans="1:34" ht="14.5" hidden="1">
+    <row r="460" spans="1:34" hidden="1">
       <c r="A460" s="21"/>
       <c r="B460" s="21"/>
       <c r="C460" s="28"/>
@@ -26506,7 +26495,7 @@
       <c r="AG460" s="28"/>
       <c r="AH460" s="28"/>
     </row>
-    <row r="461" spans="1:34" ht="14.5" hidden="1">
+    <row r="461" spans="1:34" hidden="1">
       <c r="A461" s="21"/>
       <c r="B461" s="21"/>
       <c r="C461" s="28"/>
@@ -26542,7 +26531,7 @@
       <c r="AG461" s="28"/>
       <c r="AH461" s="28"/>
     </row>
-    <row r="462" spans="1:34" ht="14.5" hidden="1">
+    <row r="462" spans="1:34" hidden="1">
       <c r="A462" s="21"/>
       <c r="B462" s="21"/>
       <c r="C462" s="28"/>
@@ -26578,7 +26567,7 @@
       <c r="AG462" s="28"/>
       <c r="AH462" s="28"/>
     </row>
-    <row r="463" spans="1:34" ht="14.5" hidden="1">
+    <row r="463" spans="1:34" hidden="1">
       <c r="A463" s="21"/>
       <c r="B463" s="21"/>
       <c r="C463" s="28"/>
@@ -26614,7 +26603,7 @@
       <c r="AG463" s="28"/>
       <c r="AH463" s="28"/>
     </row>
-    <row r="464" spans="1:34" ht="14.5" hidden="1">
+    <row r="464" spans="1:34" hidden="1">
       <c r="A464" s="21"/>
       <c r="B464" s="21"/>
       <c r="C464" s="28"/>
@@ -26650,7 +26639,7 @@
       <c r="AG464" s="28"/>
       <c r="AH464" s="28"/>
     </row>
-    <row r="465" spans="1:34" ht="14.5" hidden="1">
+    <row r="465" spans="1:34" hidden="1">
       <c r="A465" s="21"/>
       <c r="B465" s="21"/>
       <c r="C465" s="28"/>
@@ -26686,7 +26675,7 @@
       <c r="AG465" s="28"/>
       <c r="AH465" s="28"/>
     </row>
-    <row r="466" spans="1:34" ht="14.5" hidden="1">
+    <row r="466" spans="1:34" hidden="1">
       <c r="A466" s="21"/>
       <c r="B466" s="21"/>
       <c r="C466" s="28"/>
@@ -26722,7 +26711,7 @@
       <c r="AG466" s="28"/>
       <c r="AH466" s="28"/>
     </row>
-    <row r="467" spans="1:34" ht="14.5" hidden="1">
+    <row r="467" spans="1:34" hidden="1">
       <c r="A467" s="21"/>
       <c r="B467" s="21"/>
       <c r="C467" s="28"/>
@@ -26758,7 +26747,7 @@
       <c r="AG467" s="28"/>
       <c r="AH467" s="28"/>
     </row>
-    <row r="468" spans="1:34" ht="14.5" hidden="1">
+    <row r="468" spans="1:34" hidden="1">
       <c r="A468" s="21"/>
       <c r="B468" s="21"/>
       <c r="C468" s="28"/>
@@ -26794,7 +26783,7 @@
       <c r="AG468" s="28"/>
       <c r="AH468" s="28"/>
     </row>
-    <row r="469" spans="1:34" ht="14.5" hidden="1">
+    <row r="469" spans="1:34" hidden="1">
       <c r="A469" s="21"/>
       <c r="B469" s="21"/>
       <c r="C469" s="28"/>
@@ -26830,7 +26819,7 @@
       <c r="AG469" s="28"/>
       <c r="AH469" s="28"/>
     </row>
-    <row r="470" spans="1:34" ht="14.5" hidden="1">
+    <row r="470" spans="1:34" hidden="1">
       <c r="A470" s="21"/>
       <c r="B470" s="21"/>
       <c r="C470" s="28"/>
@@ -26866,7 +26855,7 @@
       <c r="AG470" s="28"/>
       <c r="AH470" s="28"/>
     </row>
-    <row r="471" spans="1:34" ht="14.5" hidden="1">
+    <row r="471" spans="1:34" hidden="1">
       <c r="A471" s="21"/>
       <c r="B471" s="21"/>
       <c r="C471" s="28"/>
@@ -26902,7 +26891,7 @@
       <c r="AG471" s="28"/>
       <c r="AH471" s="28"/>
     </row>
-    <row r="472" spans="1:34" ht="14.5" hidden="1">
+    <row r="472" spans="1:34" hidden="1">
       <c r="A472" s="21"/>
       <c r="B472" s="21"/>
       <c r="C472" s="28"/>
@@ -26938,7 +26927,7 @@
       <c r="AG472" s="28"/>
       <c r="AH472" s="28"/>
     </row>
-    <row r="473" spans="1:34" ht="14.5" hidden="1">
+    <row r="473" spans="1:34" hidden="1">
       <c r="A473" s="21"/>
       <c r="B473" s="21"/>
       <c r="C473" s="28"/>
@@ -26974,7 +26963,7 @@
       <c r="AG473" s="28"/>
       <c r="AH473" s="28"/>
     </row>
-    <row r="474" spans="1:34" ht="14.5" hidden="1">
+    <row r="474" spans="1:34" hidden="1">
       <c r="A474" s="21"/>
       <c r="B474" s="21"/>
       <c r="C474" s="28"/>
@@ -27010,7 +26999,7 @@
       <c r="AG474" s="28"/>
       <c r="AH474" s="28"/>
     </row>
-    <row r="475" spans="1:34" ht="14.5" hidden="1">
+    <row r="475" spans="1:34" hidden="1">
       <c r="A475" s="21"/>
       <c r="B475" s="21"/>
       <c r="C475" s="28"/>
@@ -27046,7 +27035,7 @@
       <c r="AG475" s="28"/>
       <c r="AH475" s="28"/>
     </row>
-    <row r="476" spans="1:34" ht="14.5" hidden="1">
+    <row r="476" spans="1:34" hidden="1">
       <c r="A476" s="21"/>
       <c r="B476" s="21"/>
       <c r="C476" s="28"/>
@@ -27082,7 +27071,7 @@
       <c r="AG476" s="28"/>
       <c r="AH476" s="28"/>
     </row>
-    <row r="477" spans="1:34" ht="14.5" hidden="1">
+    <row r="477" spans="1:34" hidden="1">
       <c r="A477" s="21"/>
       <c r="B477" s="21"/>
       <c r="C477" s="28"/>
@@ -27118,7 +27107,7 @@
       <c r="AG477" s="28"/>
       <c r="AH477" s="28"/>
     </row>
-    <row r="478" spans="1:34" ht="14.5" hidden="1">
+    <row r="478" spans="1:34" hidden="1">
       <c r="A478" s="21"/>
       <c r="B478" s="21"/>
       <c r="C478" s="28"/>
@@ -27154,7 +27143,7 @@
       <c r="AG478" s="28"/>
       <c r="AH478" s="28"/>
     </row>
-    <row r="479" spans="1:34" ht="14.5" hidden="1">
+    <row r="479" spans="1:34" hidden="1">
       <c r="A479" s="21"/>
       <c r="B479" s="21"/>
       <c r="C479" s="28"/>
@@ -27190,7 +27179,7 @@
       <c r="AG479" s="28"/>
       <c r="AH479" s="28"/>
     </row>
-    <row r="480" spans="1:34" ht="14.5" hidden="1">
+    <row r="480" spans="1:34" hidden="1">
       <c r="A480" s="21"/>
       <c r="B480" s="21"/>
       <c r="C480" s="28"/>
@@ -27226,7 +27215,7 @@
       <c r="AG480" s="28"/>
       <c r="AH480" s="28"/>
     </row>
-    <row r="481" spans="1:34" ht="14.5" hidden="1">
+    <row r="481" spans="1:34" hidden="1">
       <c r="A481" s="21"/>
       <c r="B481" s="21"/>
       <c r="C481" s="28"/>
@@ -27262,7 +27251,7 @@
       <c r="AG481" s="28"/>
       <c r="AH481" s="28"/>
     </row>
-    <row r="482" spans="1:34" ht="14.5" hidden="1">
+    <row r="482" spans="1:34" hidden="1">
       <c r="A482" s="21"/>
       <c r="B482" s="21"/>
       <c r="C482" s="28"/>
@@ -27298,7 +27287,7 @@
       <c r="AG482" s="28"/>
       <c r="AH482" s="28"/>
     </row>
-    <row r="483" spans="1:34" ht="14.5" hidden="1">
+    <row r="483" spans="1:34" hidden="1">
       <c r="A483" s="21"/>
       <c r="B483" s="21"/>
       <c r="C483" s="28"/>
@@ -27334,7 +27323,7 @@
       <c r="AG483" s="28"/>
       <c r="AH483" s="28"/>
     </row>
-    <row r="484" spans="1:34" ht="14.5" hidden="1">
+    <row r="484" spans="1:34" hidden="1">
       <c r="A484" s="21"/>
       <c r="B484" s="21"/>
       <c r="C484" s="28"/>
@@ -27370,7 +27359,7 @@
       <c r="AG484" s="28"/>
       <c r="AH484" s="28"/>
     </row>
-    <row r="485" spans="1:34" ht="14.5" hidden="1">
+    <row r="485" spans="1:34" hidden="1">
       <c r="A485" s="21"/>
       <c r="B485" s="21"/>
       <c r="C485" s="28"/>
@@ -27406,7 +27395,7 @@
       <c r="AG485" s="28"/>
       <c r="AH485" s="28"/>
     </row>
-    <row r="486" spans="1:34" ht="14.5" hidden="1">
+    <row r="486" spans="1:34" hidden="1">
       <c r="A486" s="21"/>
       <c r="B486" s="21"/>
       <c r="C486" s="28"/>
@@ -27442,7 +27431,7 @@
       <c r="AG486" s="28"/>
       <c r="AH486" s="28"/>
     </row>
-    <row r="487" spans="1:34" ht="14.5" hidden="1">
+    <row r="487" spans="1:34" hidden="1">
       <c r="A487" s="21"/>
       <c r="B487" s="21"/>
       <c r="C487" s="28"/>
@@ -27478,7 +27467,7 @@
       <c r="AG487" s="28"/>
       <c r="AH487" s="28"/>
     </row>
-    <row r="488" spans="1:34" ht="14.5" hidden="1">
+    <row r="488" spans="1:34" hidden="1">
       <c r="A488" s="21"/>
       <c r="B488" s="21"/>
       <c r="C488" s="28"/>
@@ -27514,7 +27503,7 @@
       <c r="AG488" s="28"/>
       <c r="AH488" s="28"/>
     </row>
-    <row r="489" spans="1:34" ht="14.5" hidden="1">
+    <row r="489" spans="1:34" hidden="1">
       <c r="A489" s="21"/>
       <c r="B489" s="21"/>
       <c r="C489" s="28"/>
@@ -27550,7 +27539,7 @@
       <c r="AG489" s="28"/>
       <c r="AH489" s="28"/>
     </row>
-    <row r="490" spans="1:34" ht="14.5" hidden="1">
+    <row r="490" spans="1:34" hidden="1">
       <c r="A490" s="21"/>
       <c r="B490" s="21"/>
       <c r="C490" s="28"/>
@@ -27586,7 +27575,7 @@
       <c r="AG490" s="28"/>
       <c r="AH490" s="28"/>
     </row>
-    <row r="491" spans="1:34" ht="14.5" hidden="1">
+    <row r="491" spans="1:34" hidden="1">
       <c r="A491" s="21"/>
       <c r="B491" s="21"/>
       <c r="C491" s="28"/>
@@ -27622,7 +27611,7 @@
       <c r="AG491" s="28"/>
       <c r="AH491" s="28"/>
     </row>
-    <row r="492" spans="1:34" ht="14.5" hidden="1">
+    <row r="492" spans="1:34" hidden="1">
       <c r="A492" s="21"/>
       <c r="B492" s="21"/>
       <c r="C492" s="28"/>
@@ -27658,7 +27647,7 @@
       <c r="AG492" s="28"/>
       <c r="AH492" s="28"/>
     </row>
-    <row r="493" spans="1:34" ht="14.5" hidden="1">
+    <row r="493" spans="1:34" hidden="1">
       <c r="A493" s="21"/>
       <c r="B493" s="21"/>
       <c r="C493" s="28"/>
@@ -27694,7 +27683,7 @@
       <c r="AG493" s="28"/>
       <c r="AH493" s="28"/>
     </row>
-    <row r="494" spans="1:34" ht="14.5" hidden="1">
+    <row r="494" spans="1:34" hidden="1">
       <c r="A494" s="21"/>
       <c r="B494" s="21"/>
       <c r="C494" s="28"/>
@@ -27730,7 +27719,7 @@
       <c r="AG494" s="28"/>
       <c r="AH494" s="28"/>
     </row>
-    <row r="495" spans="1:34" ht="14.5" hidden="1">
+    <row r="495" spans="1:34" hidden="1">
       <c r="A495" s="21"/>
       <c r="B495" s="21"/>
       <c r="C495" s="28"/>
@@ -27766,7 +27755,7 @@
       <c r="AG495" s="28"/>
       <c r="AH495" s="28"/>
     </row>
-    <row r="496" spans="1:34" ht="14.5" hidden="1">
+    <row r="496" spans="1:34" hidden="1">
       <c r="A496" s="21"/>
       <c r="B496" s="21"/>
       <c r="C496" s="28"/>
@@ -27802,7 +27791,7 @@
       <c r="AG496" s="28"/>
       <c r="AH496" s="28"/>
     </row>
-    <row r="497" spans="1:34" ht="14.5" hidden="1">
+    <row r="497" spans="1:34" hidden="1">
       <c r="A497" s="21"/>
       <c r="B497" s="21"/>
       <c r="C497" s="28"/>
@@ -27838,7 +27827,7 @@
       <c r="AG497" s="28"/>
       <c r="AH497" s="28"/>
     </row>
-    <row r="498" spans="1:34" ht="14.5" hidden="1">
+    <row r="498" spans="1:34" hidden="1">
       <c r="A498" s="21"/>
       <c r="B498" s="21"/>
       <c r="C498" s="28"/>
@@ -27874,7 +27863,7 @@
       <c r="AG498" s="28"/>
       <c r="AH498" s="28"/>
     </row>
-    <row r="499" spans="1:34" ht="14.5" hidden="1">
+    <row r="499" spans="1:34" hidden="1">
       <c r="A499" s="21"/>
       <c r="B499" s="21"/>
       <c r="C499" s="28"/>
@@ -27910,7 +27899,7 @@
       <c r="AG499" s="28"/>
       <c r="AH499" s="28"/>
     </row>
-    <row r="500" spans="1:34" ht="14.5" hidden="1">
+    <row r="500" spans="1:34" hidden="1">
       <c r="A500" s="21"/>
       <c r="B500" s="21"/>
       <c r="C500" s="28"/>
@@ -27946,7 +27935,7 @@
       <c r="AG500" s="28"/>
       <c r="AH500" s="28"/>
     </row>
-    <row r="501" spans="1:34" ht="14.5" hidden="1">
+    <row r="501" spans="1:34" hidden="1">
       <c r="A501" s="21"/>
       <c r="B501" s="21"/>
       <c r="C501" s="28"/>
@@ -27982,7 +27971,7 @@
       <c r="AG501" s="28"/>
       <c r="AH501" s="28"/>
     </row>
-    <row r="502" spans="1:34" ht="14.5" hidden="1">
+    <row r="502" spans="1:34" hidden="1">
       <c r="A502" s="21"/>
       <c r="B502" s="21"/>
       <c r="C502" s="28"/>
@@ -28018,7 +28007,7 @@
       <c r="AG502" s="28"/>
       <c r="AH502" s="28"/>
     </row>
-    <row r="503" spans="1:34" ht="14.5" hidden="1">
+    <row r="503" spans="1:34" hidden="1">
       <c r="A503" s="21"/>
       <c r="B503" s="21"/>
       <c r="C503" s="28"/>
@@ -28054,7 +28043,7 @@
       <c r="AG503" s="28"/>
       <c r="AH503" s="28"/>
     </row>
-    <row r="504" spans="1:34" ht="14.5" hidden="1">
+    <row r="504" spans="1:34" hidden="1">
       <c r="A504" s="21"/>
       <c r="B504" s="21"/>
       <c r="C504" s="28"/>
@@ -28090,7 +28079,7 @@
       <c r="AG504" s="28"/>
       <c r="AH504" s="28"/>
     </row>
-    <row r="505" spans="1:34" ht="14.5" hidden="1">
+    <row r="505" spans="1:34" hidden="1">
       <c r="A505" s="21"/>
       <c r="B505" s="21"/>
       <c r="C505" s="28"/>
@@ -28126,7 +28115,7 @@
       <c r="AG505" s="28"/>
       <c r="AH505" s="28"/>
     </row>
-    <row r="506" spans="1:34" ht="14.5" hidden="1">
+    <row r="506" spans="1:34" hidden="1">
       <c r="A506" s="21"/>
       <c r="B506" s="21"/>
       <c r="C506" s="28"/>
@@ -28162,7 +28151,7 @@
       <c r="AG506" s="28"/>
       <c r="AH506" s="28"/>
     </row>
-    <row r="507" spans="1:34" ht="14.5" hidden="1">
+    <row r="507" spans="1:34" hidden="1">
       <c r="A507" s="21"/>
       <c r="B507" s="21"/>
       <c r="C507" s="28"/>
@@ -28198,7 +28187,7 @@
       <c r="AG507" s="28"/>
       <c r="AH507" s="28"/>
     </row>
-    <row r="508" spans="1:34" ht="14.5" hidden="1">
+    <row r="508" spans="1:34" hidden="1">
       <c r="A508" s="21"/>
       <c r="B508" s="21"/>
       <c r="C508" s="28"/>
@@ -28234,7 +28223,7 @@
       <c r="AG508" s="28"/>
       <c r="AH508" s="28"/>
     </row>
-    <row r="509" spans="1:34" ht="14.5" hidden="1">
+    <row r="509" spans="1:34" hidden="1">
       <c r="A509" s="21"/>
       <c r="B509" s="21"/>
       <c r="C509" s="28"/>
@@ -28270,7 +28259,7 @@
       <c r="AG509" s="28"/>
       <c r="AH509" s="28"/>
     </row>
-    <row r="510" spans="1:34" ht="14.5" hidden="1">
+    <row r="510" spans="1:34" hidden="1">
       <c r="A510" s="21"/>
       <c r="B510" s="21"/>
       <c r="C510" s="28"/>
@@ -28306,7 +28295,7 @@
       <c r="AG510" s="28"/>
       <c r="AH510" s="28"/>
     </row>
-    <row r="511" spans="1:34" ht="14.5" hidden="1">
+    <row r="511" spans="1:34" hidden="1">
       <c r="A511" s="21"/>
       <c r="B511" s="21"/>
       <c r="C511" s="28"/>
@@ -28342,7 +28331,7 @@
       <c r="AG511" s="28"/>
       <c r="AH511" s="28"/>
     </row>
-    <row r="512" spans="1:34" ht="14.5" hidden="1">
+    <row r="512" spans="1:34" hidden="1">
       <c r="A512" s="21"/>
       <c r="B512" s="21"/>
       <c r="C512" s="28"/>
@@ -28378,7 +28367,7 @@
       <c r="AG512" s="28"/>
       <c r="AH512" s="28"/>
     </row>
-    <row r="513" spans="1:34" ht="14.5" hidden="1">
+    <row r="513" spans="1:34" hidden="1">
       <c r="A513" s="21"/>
       <c r="B513" s="21"/>
       <c r="C513" s="28"/>
@@ -28414,7 +28403,7 @@
       <c r="AG513" s="28"/>
       <c r="AH513" s="28"/>
     </row>
-    <row r="514" spans="1:34" ht="14.5" hidden="1">
+    <row r="514" spans="1:34" hidden="1">
       <c r="A514" s="21"/>
       <c r="B514" s="21"/>
       <c r="C514" s="28"/>
@@ -28450,7 +28439,7 @@
       <c r="AG514" s="28"/>
       <c r="AH514" s="28"/>
     </row>
-    <row r="515" spans="1:34" ht="14.5" hidden="1">
+    <row r="515" spans="1:34" hidden="1">
       <c r="A515" s="21"/>
       <c r="B515" s="21"/>
       <c r="C515" s="28"/>
@@ -28486,7 +28475,7 @@
       <c r="AG515" s="28"/>
       <c r="AH515" s="28"/>
     </row>
-    <row r="516" spans="1:34" ht="14.5" hidden="1">
+    <row r="516" spans="1:34" hidden="1">
       <c r="A516" s="21"/>
       <c r="B516" s="21"/>
       <c r="C516" s="28"/>
@@ -28522,7 +28511,7 @@
       <c r="AG516" s="28"/>
       <c r="AH516" s="28"/>
     </row>
-    <row r="517" spans="1:34" ht="14.5" hidden="1">
+    <row r="517" spans="1:34" hidden="1">
       <c r="A517" s="21"/>
       <c r="B517" s="21"/>
       <c r="C517" s="28"/>
@@ -28558,7 +28547,7 @@
       <c r="AG517" s="28"/>
       <c r="AH517" s="28"/>
     </row>
-    <row r="518" spans="1:34" ht="14.5" hidden="1">
+    <row r="518" spans="1:34" hidden="1">
       <c r="A518" s="21"/>
       <c r="B518" s="21"/>
       <c r="C518" s="28"/>
@@ -28594,7 +28583,7 @@
       <c r="AG518" s="28"/>
       <c r="AH518" s="28"/>
     </row>
-    <row r="519" spans="1:34" ht="14.5" hidden="1">
+    <row r="519" spans="1:34" hidden="1">
       <c r="A519" s="21"/>
       <c r="B519" s="21"/>
       <c r="C519" s="28"/>
@@ -28630,7 +28619,7 @@
       <c r="AG519" s="28"/>
       <c r="AH519" s="28"/>
     </row>
-    <row r="520" spans="1:34" ht="14.5" hidden="1">
+    <row r="520" spans="1:34" hidden="1">
       <c r="A520" s="21"/>
       <c r="B520" s="21"/>
       <c r="C520" s="28"/>
@@ -28666,7 +28655,7 @@
       <c r="AG520" s="28"/>
       <c r="AH520" s="28"/>
     </row>
-    <row r="521" spans="1:34" ht="14.5" hidden="1">
+    <row r="521" spans="1:34" hidden="1">
       <c r="A521" s="21"/>
       <c r="B521" s="21"/>
       <c r="C521" s="28"/>
@@ -28702,7 +28691,7 @@
       <c r="AG521" s="28"/>
       <c r="AH521" s="28"/>
     </row>
-    <row r="522" spans="1:34" ht="14.5" hidden="1">
+    <row r="522" spans="1:34" hidden="1">
       <c r="A522" s="21"/>
       <c r="B522" s="21"/>
       <c r="C522" s="28"/>
@@ -28738,7 +28727,7 @@
       <c r="AG522" s="28"/>
       <c r="AH522" s="28"/>
     </row>
-    <row r="523" spans="1:34" ht="14.5" hidden="1">
+    <row r="523" spans="1:34" hidden="1">
       <c r="A523" s="21"/>
       <c r="B523" s="21"/>
       <c r="C523" s="28"/>
@@ -28774,7 +28763,7 @@
       <c r="AG523" s="28"/>
       <c r="AH523" s="28"/>
     </row>
-    <row r="524" spans="1:34" ht="14.5" hidden="1">
+    <row r="524" spans="1:34" hidden="1">
       <c r="A524" s="21"/>
       <c r="B524" s="21"/>
       <c r="C524" s="28"/>
@@ -28810,7 +28799,7 @@
       <c r="AG524" s="28"/>
       <c r="AH524" s="28"/>
     </row>
-    <row r="525" spans="1:34" ht="14.5" hidden="1">
+    <row r="525" spans="1:34" hidden="1">
       <c r="A525" s="21"/>
       <c r="B525" s="21"/>
       <c r="C525" s="28"/>
@@ -28846,7 +28835,7 @@
       <c r="AG525" s="28"/>
       <c r="AH525" s="28"/>
     </row>
-    <row r="526" spans="1:34" ht="14.5" hidden="1">
+    <row r="526" spans="1:34" hidden="1">
       <c r="A526" s="21"/>
       <c r="B526" s="21"/>
       <c r="C526" s="28"/>
@@ -28882,7 +28871,7 @@
       <c r="AG526" s="28"/>
       <c r="AH526" s="28"/>
     </row>
-    <row r="527" spans="1:34" ht="14.5" hidden="1">
+    <row r="527" spans="1:34" hidden="1">
       <c r="A527" s="21"/>
       <c r="B527" s="21"/>
       <c r="C527" s="28"/>
@@ -28918,7 +28907,7 @@
       <c r="AG527" s="28"/>
       <c r="AH527" s="28"/>
     </row>
-    <row r="528" spans="1:34" ht="14.5" hidden="1">
+    <row r="528" spans="1:34" hidden="1">
       <c r="A528" s="21"/>
       <c r="B528" s="21"/>
       <c r="C528" s="28"/>
@@ -28954,7 +28943,7 @@
       <c r="AG528" s="28"/>
       <c r="AH528" s="28"/>
     </row>
-    <row r="529" spans="1:34" ht="14.5" hidden="1">
+    <row r="529" spans="1:34" hidden="1">
       <c r="A529" s="21"/>
       <c r="B529" s="21"/>
       <c r="C529" s="28"/>
@@ -28990,7 +28979,7 @@
       <c r="AG529" s="28"/>
       <c r="AH529" s="28"/>
     </row>
-    <row r="530" spans="1:34" ht="14.5" hidden="1">
+    <row r="530" spans="1:34" hidden="1">
       <c r="A530" s="21"/>
       <c r="B530" s="21"/>
       <c r="C530" s="28"/>
@@ -29026,7 +29015,7 @@
       <c r="AG530" s="28"/>
       <c r="AH530" s="28"/>
     </row>
-    <row r="531" spans="1:34" ht="14.5" hidden="1">
+    <row r="531" spans="1:34" hidden="1">
       <c r="A531" s="21"/>
       <c r="B531" s="21"/>
       <c r="C531" s="28"/>
@@ -29062,7 +29051,7 @@
       <c r="AG531" s="28"/>
       <c r="AH531" s="28"/>
     </row>
-    <row r="532" spans="1:34" ht="14.5" hidden="1">
+    <row r="532" spans="1:34" hidden="1">
       <c r="A532" s="21"/>
       <c r="B532" s="21"/>
       <c r="C532" s="28"/>
@@ -29098,7 +29087,7 @@
       <c r="AG532" s="28"/>
       <c r="AH532" s="28"/>
     </row>
-    <row r="533" spans="1:34" ht="14.5" hidden="1">
+    <row r="533" spans="1:34" hidden="1">
       <c r="A533" s="21"/>
       <c r="B533" s="21"/>
       <c r="C533" s="28"/>
@@ -29134,7 +29123,7 @@
       <c r="AG533" s="28"/>
       <c r="AH533" s="28"/>
     </row>
-    <row r="534" spans="1:34" ht="14.5" hidden="1">
+    <row r="534" spans="1:34" hidden="1">
       <c r="A534" s="21"/>
       <c r="B534" s="21"/>
       <c r="C534" s="28"/>
@@ -29170,7 +29159,7 @@
       <c r="AG534" s="28"/>
       <c r="AH534" s="28"/>
     </row>
-    <row r="535" spans="1:34" ht="14.5" hidden="1">
+    <row r="535" spans="1:34" hidden="1">
       <c r="A535" s="21"/>
       <c r="B535" s="21"/>
       <c r="C535" s="28"/>
@@ -29206,7 +29195,7 @@
       <c r="AG535" s="28"/>
       <c r="AH535" s="28"/>
     </row>
-    <row r="536" spans="1:34" ht="14.5" hidden="1">
+    <row r="536" spans="1:34" hidden="1">
       <c r="A536" s="21"/>
       <c r="B536" s="21"/>
       <c r="C536" s="28"/>
@@ -29242,7 +29231,7 @@
       <c r="AG536" s="28"/>
       <c r="AH536" s="28"/>
     </row>
-    <row r="537" spans="1:34" ht="14.5" hidden="1">
+    <row r="537" spans="1:34" hidden="1">
       <c r="A537" s="21"/>
       <c r="B537" s="21"/>
       <c r="C537" s="28"/>
@@ -29278,7 +29267,7 @@
       <c r="AG537" s="28"/>
       <c r="AH537" s="28"/>
     </row>
-    <row r="538" spans="1:34" ht="14.5" hidden="1">
+    <row r="538" spans="1:34" hidden="1">
       <c r="A538" s="21"/>
       <c r="B538" s="21"/>
       <c r="C538" s="28"/>
@@ -29314,7 +29303,7 @@
       <c r="AG538" s="28"/>
       <c r="AH538" s="28"/>
     </row>
-    <row r="539" spans="1:34" ht="14.5" hidden="1">
+    <row r="539" spans="1:34" hidden="1">
       <c r="A539" s="21"/>
       <c r="B539" s="21"/>
       <c r="C539" s="28"/>
@@ -29350,7 +29339,7 @@
       <c r="AG539" s="28"/>
       <c r="AH539" s="28"/>
     </row>
-    <row r="540" spans="1:34" ht="14.5" hidden="1">
+    <row r="540" spans="1:34" hidden="1">
       <c r="A540" s="21"/>
       <c r="B540" s="21"/>
       <c r="C540" s="28"/>
@@ -29386,7 +29375,7 @@
       <c r="AG540" s="28"/>
       <c r="AH540" s="28"/>
     </row>
-    <row r="541" spans="1:34" ht="14.5" hidden="1">
+    <row r="541" spans="1:34" hidden="1">
       <c r="A541" s="21"/>
       <c r="B541" s="21"/>
       <c r="C541" s="28"/>
@@ -29422,7 +29411,7 @@
       <c r="AG541" s="28"/>
       <c r="AH541" s="28"/>
     </row>
-    <row r="542" spans="1:34" ht="14.5" hidden="1">
+    <row r="542" spans="1:34" hidden="1">
       <c r="A542" s="21"/>
       <c r="B542" s="21"/>
       <c r="C542" s="28"/>
@@ -29458,7 +29447,7 @@
       <c r="AG542" s="28"/>
       <c r="AH542" s="28"/>
     </row>
-    <row r="543" spans="1:34" ht="14.5" hidden="1">
+    <row r="543" spans="1:34" hidden="1">
       <c r="A543" s="21"/>
       <c r="B543" s="21"/>
       <c r="C543" s="28"/>
@@ -29494,7 +29483,7 @@
       <c r="AG543" s="28"/>
       <c r="AH543" s="28"/>
     </row>
-    <row r="544" spans="1:34" ht="14.5" hidden="1">
+    <row r="544" spans="1:34" hidden="1">
       <c r="A544" s="21"/>
       <c r="B544" s="21"/>
       <c r="C544" s="28"/>
@@ -29530,7 +29519,7 @@
       <c r="AG544" s="28"/>
       <c r="AH544" s="28"/>
     </row>
-    <row r="545" spans="1:34" ht="14.5" hidden="1">
+    <row r="545" spans="1:34" hidden="1">
       <c r="A545" s="21"/>
       <c r="B545" s="21"/>
       <c r="C545" s="28"/>
@@ -29566,7 +29555,7 @@
       <c r="AG545" s="28"/>
       <c r="AH545" s="28"/>
     </row>
-    <row r="546" spans="1:34" ht="14.5" hidden="1">
+    <row r="546" spans="1:34" hidden="1">
       <c r="A546" s="21"/>
       <c r="B546" s="21"/>
       <c r="C546" s="28"/>
@@ -29602,7 +29591,7 @@
       <c r="AG546" s="28"/>
       <c r="AH546" s="28"/>
     </row>
-    <row r="547" spans="1:34" ht="14.5" hidden="1">
+    <row r="547" spans="1:34" hidden="1">
       <c r="A547" s="21"/>
       <c r="B547" s="21"/>
       <c r="C547" s="28"/>
@@ -29638,7 +29627,7 @@
       <c r="AG547" s="28"/>
       <c r="AH547" s="28"/>
     </row>
-    <row r="548" spans="1:34" ht="14.5" hidden="1">
+    <row r="548" spans="1:34" hidden="1">
       <c r="A548" s="21"/>
       <c r="B548" s="21"/>
       <c r="C548" s="28"/>
@@ -29674,7 +29663,7 @@
       <c r="AG548" s="28"/>
       <c r="AH548" s="28"/>
     </row>
-    <row r="549" spans="1:34" ht="14.5" hidden="1">
+    <row r="549" spans="1:34" hidden="1">
       <c r="A549" s="21"/>
       <c r="B549" s="21"/>
       <c r="C549" s="28"/>
@@ -29710,7 +29699,7 @@
       <c r="AG549" s="28"/>
       <c r="AH549" s="28"/>
     </row>
-    <row r="550" spans="1:34" ht="14.5" hidden="1">
+    <row r="550" spans="1:34" hidden="1">
       <c r="A550" s="21"/>
       <c r="B550" s="21"/>
       <c r="C550" s="28"/>
@@ -29746,7 +29735,7 @@
       <c r="AG550" s="28"/>
       <c r="AH550" s="28"/>
     </row>
-    <row r="551" spans="1:34" ht="14.5" hidden="1">
+    <row r="551" spans="1:34" hidden="1">
       <c r="A551" s="21"/>
       <c r="B551" s="21"/>
       <c r="C551" s="28"/>
@@ -29782,7 +29771,7 @@
       <c r="AG551" s="28"/>
       <c r="AH551" s="28"/>
     </row>
-    <row r="552" spans="1:34" ht="14.5" hidden="1">
+    <row r="552" spans="1:34" hidden="1">
       <c r="A552" s="21"/>
       <c r="B552" s="21"/>
       <c r="C552" s="28"/>
@@ -29818,7 +29807,7 @@
       <c r="AG552" s="28"/>
       <c r="AH552" s="28"/>
     </row>
-    <row r="553" spans="1:34" ht="14.5" hidden="1">
+    <row r="553" spans="1:34" hidden="1">
       <c r="A553" s="21"/>
       <c r="B553" s="21"/>
       <c r="C553" s="28"/>
@@ -29854,7 +29843,7 @@
       <c r="AG553" s="28"/>
       <c r="AH553" s="28"/>
     </row>
-    <row r="554" spans="1:34" ht="14.5" hidden="1">
+    <row r="554" spans="1:34" hidden="1">
       <c r="A554" s="21"/>
       <c r="B554" s="21"/>
       <c r="C554" s="28"/>
@@ -29890,7 +29879,7 @@
       <c r="AG554" s="28"/>
       <c r="AH554" s="28"/>
     </row>
-    <row r="555" spans="1:34" ht="14.5" hidden="1">
+    <row r="555" spans="1:34" hidden="1">
       <c r="A555" s="21"/>
       <c r="B555" s="21"/>
       <c r="C555" s="28"/>
@@ -29926,7 +29915,7 @@
       <c r="AG555" s="28"/>
       <c r="AH555" s="28"/>
     </row>
-    <row r="556" spans="1:34" ht="14.5" hidden="1">
+    <row r="556" spans="1:34" hidden="1">
       <c r="A556" s="21"/>
       <c r="B556" s="21"/>
       <c r="C556" s="28"/>
@@ -29962,7 +29951,7 @@
       <c r="AG556" s="28"/>
       <c r="AH556" s="28"/>
     </row>
-    <row r="557" spans="1:34" ht="14.5" hidden="1">
+    <row r="557" spans="1:34" hidden="1">
       <c r="A557" s="21"/>
       <c r="B557" s="21"/>
       <c r="C557" s="28"/>
@@ -29998,7 +29987,7 @@
       <c r="AG557" s="28"/>
       <c r="AH557" s="28"/>
     </row>
-    <row r="558" spans="1:34" ht="14.5" hidden="1">
+    <row r="558" spans="1:34" hidden="1">
       <c r="A558" s="21"/>
       <c r="B558" s="21"/>
       <c r="C558" s="28"/>
@@ -30034,7 +30023,7 @@
       <c r="AG558" s="28"/>
       <c r="AH558" s="28"/>
     </row>
-    <row r="559" spans="1:34" ht="14.5" hidden="1">
+    <row r="559" spans="1:34" hidden="1">
       <c r="A559" s="21"/>
       <c r="B559" s="21"/>
       <c r="C559" s="28"/>
@@ -30070,7 +30059,7 @@
       <c r="AG559" s="28"/>
       <c r="AH559" s="28"/>
     </row>
-    <row r="560" spans="1:34" ht="14.5" hidden="1">
+    <row r="560" spans="1:34" hidden="1">
       <c r="A560" s="21"/>
       <c r="B560" s="21"/>
       <c r="C560" s="28"/>
@@ -30106,7 +30095,7 @@
       <c r="AG560" s="28"/>
       <c r="AH560" s="28"/>
     </row>
-    <row r="561" spans="1:34" ht="14.5" hidden="1">
+    <row r="561" spans="1:34" hidden="1">
       <c r="A561" s="21"/>
       <c r="B561" s="21"/>
       <c r="C561" s="28"/>
@@ -30142,7 +30131,7 @@
       <c r="AG561" s="28"/>
       <c r="AH561" s="28"/>
     </row>
-    <row r="562" spans="1:34" ht="14.5" hidden="1">
+    <row r="562" spans="1:34" hidden="1">
       <c r="A562" s="21"/>
       <c r="B562" s="21"/>
       <c r="C562" s="28"/>
@@ -30178,7 +30167,7 @@
       <c r="AG562" s="28"/>
       <c r="AH562" s="28"/>
     </row>
-    <row r="563" spans="1:34" ht="14.5" hidden="1">
+    <row r="563" spans="1:34" hidden="1">
       <c r="A563" s="21"/>
       <c r="B563" s="21"/>
       <c r="C563" s="28"/>
@@ -30214,7 +30203,7 @@
       <c r="AG563" s="28"/>
       <c r="AH563" s="28"/>
     </row>
-    <row r="564" spans="1:34" ht="14.5" hidden="1">
+    <row r="564" spans="1:34" hidden="1">
       <c r="A564" s="21"/>
       <c r="B564" s="21"/>
       <c r="C564" s="28"/>
@@ -30250,7 +30239,7 @@
       <c r="AG564" s="28"/>
       <c r="AH564" s="28"/>
     </row>
-    <row r="565" spans="1:34" ht="14.5" hidden="1">
+    <row r="565" spans="1:34" hidden="1">
       <c r="A565" s="21"/>
       <c r="B565" s="21"/>
       <c r="C565" s="28"/>
@@ -30286,7 +30275,7 @@
       <c r="AG565" s="28"/>
       <c r="AH565" s="28"/>
     </row>
-    <row r="566" spans="1:34" ht="14.5" hidden="1">
+    <row r="566" spans="1:34" hidden="1">
       <c r="A566" s="21"/>
       <c r="B566" s="21"/>
       <c r="C566" s="28"/>
@@ -30322,7 +30311,7 @@
       <c r="AG566" s="28"/>
       <c r="AH566" s="28"/>
     </row>
-    <row r="567" spans="1:34" ht="14.5" hidden="1">
+    <row r="567" spans="1:34" hidden="1">
       <c r="A567" s="21"/>
       <c r="B567" s="21"/>
       <c r="C567" s="28"/>
@@ -30358,7 +30347,7 @@
       <c r="AG567" s="28"/>
       <c r="AH567" s="28"/>
     </row>
-    <row r="568" spans="1:34" ht="14.5" hidden="1">
+    <row r="568" spans="1:34" hidden="1">
       <c r="A568" s="21"/>
       <c r="B568" s="21"/>
       <c r="C568" s="28"/>
@@ -30394,7 +30383,7 @@
       <c r="AG568" s="28"/>
       <c r="AH568" s="28"/>
     </row>
-    <row r="569" spans="1:34" ht="14.5" hidden="1">
+    <row r="569" spans="1:34" hidden="1">
       <c r="A569" s="21"/>
       <c r="B569" s="21"/>
       <c r="C569" s="28"/>
@@ -30430,7 +30419,7 @@
       <c r="AG569" s="28"/>
       <c r="AH569" s="28"/>
     </row>
-    <row r="570" spans="1:34" ht="14.5" hidden="1">
+    <row r="570" spans="1:34" hidden="1">
       <c r="A570" s="21"/>
       <c r="B570" s="21"/>
       <c r="C570" s="28"/>
@@ -30466,7 +30455,7 @@
       <c r="AG570" s="28"/>
       <c r="AH570" s="28"/>
     </row>
-    <row r="571" spans="1:34" ht="14.5" hidden="1">
+    <row r="571" spans="1:34" hidden="1">
       <c r="A571" s="21"/>
       <c r="B571" s="21"/>
       <c r="C571" s="28"/>
@@ -30502,7 +30491,7 @@
       <c r="AG571" s="28"/>
       <c r="AH571" s="28"/>
     </row>
-    <row r="572" spans="1:34" ht="14.5" hidden="1">
+    <row r="572" spans="1:34" hidden="1">
       <c r="A572" s="21"/>
       <c r="B572" s="21"/>
       <c r="C572" s="28"/>
@@ -30538,7 +30527,7 @@
       <c r="AG572" s="28"/>
       <c r="AH572" s="28"/>
     </row>
-    <row r="573" spans="1:34" ht="14.5" hidden="1">
+    <row r="573" spans="1:34" hidden="1">
       <c r="A573" s="21"/>
       <c r="B573" s="21"/>
       <c r="C573" s="28"/>
@@ -30574,7 +30563,7 @@
       <c r="AG573" s="28"/>
       <c r="AH573" s="28"/>
     </row>
-    <row r="574" spans="1:34" ht="14.5" hidden="1">
+    <row r="574" spans="1:34" hidden="1">
       <c r="A574" s="21"/>
       <c r="B574" s="21"/>
       <c r="C574" s="28"/>
@@ -30610,7 +30599,7 @@
       <c r="AG574" s="28"/>
       <c r="AH574" s="28"/>
     </row>
-    <row r="575" spans="1:34" ht="14.5" hidden="1">
+    <row r="575" spans="1:34" hidden="1">
       <c r="A575" s="21"/>
       <c r="B575" s="21"/>
       <c r="C575" s="28"/>
@@ -30646,7 +30635,7 @@
       <c r="AG575" s="28"/>
       <c r="AH575" s="28"/>
     </row>
-    <row r="576" spans="1:34" ht="14.5" hidden="1">
+    <row r="576" spans="1:34" hidden="1">
       <c r="A576" s="21"/>
       <c r="B576" s="21"/>
       <c r="C576" s="28"/>
@@ -30682,7 +30671,7 @@
       <c r="AG576" s="28"/>
       <c r="AH576" s="28"/>
     </row>
-    <row r="577" spans="1:34" ht="14.5" hidden="1">
+    <row r="577" spans="1:34" hidden="1">
       <c r="A577" s="21"/>
       <c r="B577" s="21"/>
       <c r="C577" s="28"/>
@@ -30718,7 +30707,7 @@
       <c r="AG577" s="28"/>
       <c r="AH577" s="28"/>
     </row>
-    <row r="578" spans="1:34" ht="14.5" hidden="1">
+    <row r="578" spans="1:34" hidden="1">
       <c r="A578" s="21"/>
       <c r="B578" s="21"/>
       <c r="C578" s="28"/>
@@ -30754,7 +30743,7 @@
       <c r="AG578" s="28"/>
       <c r="AH578" s="28"/>
     </row>
-    <row r="579" spans="1:34" ht="14.5" hidden="1">
+    <row r="579" spans="1:34" hidden="1">
       <c r="A579" s="21"/>
       <c r="B579" s="21"/>
       <c r="C579" s="28"/>
@@ -30790,7 +30779,7 @@
       <c r="AG579" s="28"/>
       <c r="AH579" s="28"/>
     </row>
-    <row r="580" spans="1:34" ht="14.5" hidden="1">
+    <row r="580" spans="1:34" hidden="1">
       <c r="A580" s="21"/>
       <c r="B580" s="21"/>
       <c r="C580" s="28"/>
@@ -30826,7 +30815,7 @@
       <c r="AG580" s="28"/>
       <c r="AH580" s="28"/>
     </row>
-    <row r="581" spans="1:34" ht="14.5" hidden="1">
+    <row r="581" spans="1:34" hidden="1">
       <c r="A581" s="21"/>
       <c r="B581" s="21"/>
       <c r="C581" s="28"/>
@@ -30862,7 +30851,7 @@
       <c r="AG581" s="28"/>
       <c r="AH581" s="28"/>
     </row>
-    <row r="582" spans="1:34" ht="14.5" hidden="1">
+    <row r="582" spans="1:34" hidden="1">
       <c r="A582" s="21"/>
       <c r="B582" s="21"/>
       <c r="C582" s="28"/>
@@ -30898,7 +30887,7 @@
       <c r="AG582" s="28"/>
       <c r="AH582" s="28"/>
     </row>
-    <row r="583" spans="1:34" ht="14.5" hidden="1">
+    <row r="583" spans="1:34" hidden="1">
       <c r="A583" s="21"/>
       <c r="B583" s="21"/>
       <c r="C583" s="28"/>
@@ -30934,7 +30923,7 @@
       <c r="AG583" s="28"/>
       <c r="AH583" s="28"/>
     </row>
-    <row r="584" spans="1:34" ht="14.5" hidden="1">
+    <row r="584" spans="1:34" hidden="1">
       <c r="A584" s="21"/>
       <c r="B584" s="21"/>
       <c r="C584" s="28"/>
@@ -30970,7 +30959,7 @@
       <c r="AG584" s="28"/>
       <c r="AH584" s="28"/>
     </row>
-    <row r="585" spans="1:34" ht="14.5" hidden="1">
+    <row r="585" spans="1:34" hidden="1">
       <c r="A585" s="21"/>
       <c r="B585" s="21"/>
       <c r="C585" s="28"/>
@@ -31006,7 +30995,7 @@
       <c r="AG585" s="28"/>
       <c r="AH585" s="28"/>
     </row>
-    <row r="586" spans="1:34" ht="14.5" hidden="1">
+    <row r="586" spans="1:34" hidden="1">
       <c r="A586" s="21"/>
       <c r="B586" s="21"/>
       <c r="C586" s="28"/>
@@ -31042,7 +31031,7 @@
       <c r="AG586" s="28"/>
       <c r="AH586" s="28"/>
     </row>
-    <row r="587" spans="1:34" ht="14.5" hidden="1">
+    <row r="587" spans="1:34" hidden="1">
       <c r="A587" s="21"/>
       <c r="B587" s="21"/>
       <c r="C587" s="28"/>
@@ -31078,7 +31067,7 @@
       <c r="AG587" s="28"/>
       <c r="AH587" s="28"/>
     </row>
-    <row r="588" spans="1:34" ht="14.5" hidden="1">
+    <row r="588" spans="1:34" hidden="1">
       <c r="A588" s="21"/>
       <c r="B588" s="21"/>
       <c r="C588" s="28"/>
@@ -31114,7 +31103,7 @@
       <c r="AG588" s="28"/>
       <c r="AH588" s="28"/>
     </row>
-    <row r="589" spans="1:34" ht="14.5" hidden="1">
+    <row r="589" spans="1:34" hidden="1">
       <c r="A589" s="21"/>
       <c r="B589" s="21"/>
       <c r="C589" s="28"/>
@@ -31150,7 +31139,7 @@
       <c r="AG589" s="28"/>
       <c r="AH589" s="28"/>
     </row>
-    <row r="590" spans="1:34" ht="14.5" hidden="1">
+    <row r="590" spans="1:34" hidden="1">
       <c r="A590" s="21"/>
       <c r="B590" s="21"/>
       <c r="C590" s="28"/>
@@ -31186,7 +31175,7 @@
       <c r="AG590" s="28"/>
       <c r="AH590" s="28"/>
     </row>
-    <row r="591" spans="1:34" ht="14.5" hidden="1">
+    <row r="591" spans="1:34" hidden="1">
       <c r="A591" s="21"/>
       <c r="B591" s="21"/>
       <c r="C591" s="28"/>
@@ -31222,7 +31211,7 @@
       <c r="AG591" s="28"/>
       <c r="AH591" s="28"/>
     </row>
-    <row r="592" spans="1:34" ht="14.5" hidden="1">
+    <row r="592" spans="1:34" hidden="1">
       <c r="A592" s="21"/>
       <c r="B592" s="21"/>
       <c r="C592" s="28"/>
@@ -31258,7 +31247,7 @@
       <c r="AG592" s="28"/>
       <c r="AH592" s="28"/>
     </row>
-    <row r="593" spans="1:34" ht="14.5" hidden="1">
+    <row r="593" spans="1:34" hidden="1">
       <c r="A593" s="21"/>
       <c r="B593" s="21"/>
       <c r="C593" s="28"/>
@@ -31294,7 +31283,7 @@
       <c r="AG593" s="28"/>
       <c r="AH593" s="28"/>
     </row>
-    <row r="594" spans="1:34" ht="14.5" hidden="1">
+    <row r="594" spans="1:34" hidden="1">
       <c r="A594" s="21"/>
       <c r="B594" s="21"/>
       <c r="C594" s="28"/>
@@ -31330,7 +31319,7 @@
       <c r="AG594" s="28"/>
       <c r="AH594" s="28"/>
     </row>
-    <row r="595" spans="1:34" ht="14.5" hidden="1">
+    <row r="595" spans="1:34" hidden="1">
       <c r="A595" s="21"/>
       <c r="B595" s="21"/>
       <c r="C595" s="28"/>
@@ -31366,7 +31355,7 @@
       <c r="AG595" s="28"/>
       <c r="AH595" s="28"/>
     </row>
-    <row r="596" spans="1:34" ht="14.5" hidden="1">
+    <row r="596" spans="1:34" hidden="1">
       <c r="A596" s="21"/>
       <c r="B596" s="21"/>
       <c r="C596" s="28"/>
@@ -31402,7 +31391,7 @@
       <c r="AG596" s="28"/>
       <c r="AH596" s="28"/>
     </row>
-    <row r="597" spans="1:34" ht="14.5" hidden="1">
+    <row r="597" spans="1:34" hidden="1">
       <c r="A597" s="21"/>
       <c r="B597" s="21"/>
       <c r="C597" s="28"/>
@@ -31438,7 +31427,7 @@
       <c r="AG597" s="28"/>
       <c r="AH597" s="28"/>
     </row>
-    <row r="598" spans="1:34" ht="14.5" hidden="1">
+    <row r="598" spans="1:34" hidden="1">
       <c r="A598" s="21"/>
       <c r="B598" s="21"/>
       <c r="C598" s="28"/>
@@ -31474,7 +31463,7 @@
       <c r="AG598" s="28"/>
       <c r="AH598" s="28"/>
     </row>
-    <row r="599" spans="1:34" ht="14.5" hidden="1">
+    <row r="599" spans="1:34" hidden="1">
       <c r="A599" s="21"/>
       <c r="B599" s="21"/>
       <c r="C599" s="28"/>
@@ -31510,7 +31499,7 @@
       <c r="AG599" s="28"/>
       <c r="AH599" s="28"/>
     </row>
-    <row r="600" spans="1:34" ht="14.5" hidden="1">
+    <row r="600" spans="1:34" hidden="1">
       <c r="A600" s="21"/>
       <c r="B600" s="21"/>
       <c r="C600" s="28"/>
@@ -31546,7 +31535,7 @@
       <c r="AG600" s="28"/>
       <c r="AH600" s="28"/>
     </row>
-    <row r="601" spans="1:34" ht="14.5" hidden="1">
+    <row r="601" spans="1:34" hidden="1">
       <c r="A601" s="21"/>
       <c r="B601" s="21"/>
       <c r="C601" s="28"/>
@@ -31582,7 +31571,7 @@
       <c r="AG601" s="28"/>
       <c r="AH601" s="28"/>
     </row>
-    <row r="602" spans="1:34" ht="14.5" hidden="1">
+    <row r="602" spans="1:34" hidden="1">
       <c r="A602" s="21"/>
       <c r="B602" s="21"/>
       <c r="C602" s="28"/>
@@ -31618,7 +31607,7 @@
       <c r="AG602" s="28"/>
       <c r="AH602" s="28"/>
     </row>
-    <row r="603" spans="1:34" ht="14.5" hidden="1">
+    <row r="603" spans="1:34" hidden="1">
       <c r="A603" s="21"/>
       <c r="B603" s="21"/>
       <c r="C603" s="28"/>
@@ -31654,7 +31643,7 @@
       <c r="AG603" s="28"/>
       <c r="AH603" s="28"/>
     </row>
-    <row r="604" spans="1:34" ht="14.5" hidden="1">
+    <row r="604" spans="1:34" hidden="1">
       <c r="A604" s="21"/>
       <c r="B604" s="21"/>
       <c r="C604" s="28"/>
@@ -31690,7 +31679,7 @@
       <c r="AG604" s="28"/>
       <c r="AH604" s="28"/>
     </row>
-    <row r="605" spans="1:34" ht="14.5" hidden="1">
+    <row r="605" spans="1:34" hidden="1">
       <c r="A605" s="21"/>
       <c r="B605" s="21"/>
       <c r="C605" s="28"/>
@@ -31726,7 +31715,7 @@
       <c r="AG605" s="28"/>
       <c r="AH605" s="28"/>
     </row>
-    <row r="606" spans="1:34" ht="14.5" hidden="1">
+    <row r="606" spans="1:34" hidden="1">
       <c r="A606" s="21"/>
       <c r="B606" s="21"/>
       <c r="C606" s="28"/>
@@ -31762,7 +31751,7 @@
       <c r="AG606" s="28"/>
       <c r="AH606" s="28"/>
     </row>
-    <row r="607" spans="1:34" ht="14.5" hidden="1">
+    <row r="607" spans="1:34" hidden="1">
       <c r="A607" s="21"/>
       <c r="B607" s="21"/>
       <c r="C607" s="28"/>
@@ -31798,7 +31787,7 @@
       <c r="AG607" s="28"/>
       <c r="AH607" s="28"/>
     </row>
-    <row r="608" spans="1:34" ht="14.5" hidden="1">
+    <row r="608" spans="1:34" hidden="1">
       <c r="A608" s="21"/>
       <c r="B608" s="21"/>
       <c r="C608" s="28"/>
@@ -31834,7 +31823,7 @@
       <c r="AG608" s="28"/>
       <c r="AH608" s="28"/>
     </row>
-    <row r="609" spans="1:34" ht="14.5" hidden="1">
+    <row r="609" spans="1:34" hidden="1">
       <c r="A609" s="21"/>
       <c r="B609" s="21"/>
       <c r="C609" s="28"/>
@@ -31870,7 +31859,7 @@
       <c r="AG609" s="28"/>
       <c r="AH609" s="28"/>
     </row>
-    <row r="610" spans="1:34" ht="14.5" hidden="1">
+    <row r="610" spans="1:34" hidden="1">
       <c r="A610" s="21"/>
       <c r="B610" s="21"/>
       <c r="C610" s="28"/>
@@ -31906,7 +31895,7 @@
       <c r="AG610" s="28"/>
       <c r="AH610" s="28"/>
     </row>
-    <row r="611" spans="1:34" ht="14.5" hidden="1">
+    <row r="611" spans="1:34" hidden="1">
       <c r="A611" s="21"/>
       <c r="B611" s="21"/>
       <c r="C611" s="28"/>
@@ -31942,7 +31931,7 @@
       <c r="AG611" s="28"/>
       <c r="AH611" s="28"/>
     </row>
-    <row r="612" spans="1:34" ht="14.5" hidden="1">
+    <row r="612" spans="1:34" hidden="1">
       <c r="A612" s="21"/>
       <c r="B612" s="21"/>
       <c r="C612" s="28"/>
@@ -31978,7 +31967,7 @@
       <c r="AG612" s="28"/>
       <c r="AH612" s="28"/>
     </row>
-    <row r="613" spans="1:34" ht="14.5" hidden="1">
+    <row r="613" spans="1:34" hidden="1">
       <c r="A613" s="21"/>
       <c r="B613" s="21"/>
       <c r="C613" s="28"/>
@@ -32014,7 +32003,7 @@
       <c r="AG613" s="28"/>
       <c r="AH613" s="28"/>
     </row>
-    <row r="614" spans="1:34" ht="14.5" hidden="1">
+    <row r="614" spans="1:34" hidden="1">
       <c r="A614" s="21"/>
       <c r="B614" s="21"/>
       <c r="C614" s="28"/>
@@ -32050,7 +32039,7 @@
       <c r="AG614" s="28"/>
       <c r="AH614" s="28"/>
     </row>
-    <row r="615" spans="1:34" ht="14.5" hidden="1">
+    <row r="615" spans="1:34" hidden="1">
       <c r="A615" s="21"/>
       <c r="B615" s="21"/>
       <c r="C615" s="28"/>
@@ -32086,7 +32075,7 @@
       <c r="AG615" s="28"/>
       <c r="AH615" s="28"/>
     </row>
-    <row r="616" spans="1:34" ht="14.5" hidden="1">
+    <row r="616" spans="1:34" hidden="1">
       <c r="A616" s="21"/>
       <c r="B616" s="21"/>
       <c r="C616" s="28"/>
@@ -32122,7 +32111,7 @@
       <c r="AG616" s="28"/>
       <c r="AH616" s="28"/>
     </row>
-    <row r="617" spans="1:34" ht="14.5" hidden="1">
+    <row r="617" spans="1:34" hidden="1">
       <c r="A617" s="21"/>
       <c r="B617" s="21"/>
       <c r="C617" s="28"/>
@@ -32158,7 +32147,7 @@
       <c r="AG617" s="28"/>
       <c r="AH617" s="28"/>
     </row>
-    <row r="618" spans="1:34" ht="14.5" hidden="1">
+    <row r="618" spans="1:34" hidden="1">
       <c r="A618" s="21"/>
       <c r="B618" s="21"/>
       <c r="C618" s="28"/>
@@ -32194,7 +32183,7 @@
       <c r="AG618" s="28"/>
       <c r="AH618" s="28"/>
     </row>
-    <row r="619" spans="1:34" ht="14.5" hidden="1">
+    <row r="619" spans="1:34" hidden="1">
       <c r="A619" s="21"/>
       <c r="B619" s="21"/>
       <c r="C619" s="28"/>
@@ -32230,7 +32219,7 @@
       <c r="AG619" s="28"/>
       <c r="AH619" s="28"/>
     </row>
-    <row r="620" spans="1:34" ht="14.5" hidden="1">
+    <row r="620" spans="1:34" hidden="1">
       <c r="A620" s="21"/>
       <c r="B620" s="21"/>
       <c r="C620" s="28"/>
@@ -32266,7 +32255,7 @@
       <c r="AG620" s="28"/>
       <c r="AH620" s="28"/>
     </row>
-    <row r="621" spans="1:34" ht="14.5" hidden="1">
+    <row r="621" spans="1:34" hidden="1">
       <c r="A621" s="21"/>
       <c r="B621" s="21"/>
       <c r="C621" s="28"/>
@@ -32302,7 +32291,7 @@
       <c r="AG621" s="28"/>
       <c r="AH621" s="28"/>
     </row>
-    <row r="622" spans="1:34" ht="14.5" hidden="1">
+    <row r="622" spans="1:34" hidden="1">
       <c r="A622" s="21"/>
       <c r="B622" s="21"/>
       <c r="C622" s="28"/>
@@ -32338,7 +32327,7 @@
       <c r="AG622" s="28"/>
       <c r="AH622" s="28"/>
     </row>
-    <row r="623" spans="1:34" ht="14.5" hidden="1">
+    <row r="623" spans="1:34" hidden="1">
       <c r="A623" s="21"/>
       <c r="B623" s="21"/>
       <c r="C623" s="28"/>
@@ -32374,7 +32363,7 @@
       <c r="AG623" s="28"/>
       <c r="AH623" s="28"/>
     </row>
-    <row r="624" spans="1:34" ht="14.5" hidden="1">
+    <row r="624" spans="1:34" hidden="1">
       <c r="A624" s="21"/>
       <c r="B624" s="21"/>
       <c r="C624" s="28"/>
@@ -32410,7 +32399,7 @@
       <c r="AG624" s="28"/>
       <c r="AH624" s="28"/>
     </row>
-    <row r="625" spans="1:34" ht="14.5" hidden="1">
+    <row r="625" spans="1:34" hidden="1">
       <c r="A625" s="21"/>
       <c r="B625" s="21"/>
       <c r="C625" s="28"/>
@@ -32446,7 +32435,7 @@
       <c r="AG625" s="28"/>
       <c r="AH625" s="28"/>
     </row>
-    <row r="626" spans="1:34" ht="14.5" hidden="1">
+    <row r="626" spans="1:34" hidden="1">
       <c r="A626" s="21"/>
       <c r="B626" s="21"/>
       <c r="C626" s="28"/>
@@ -32482,7 +32471,7 @@
       <c r="AG626" s="28"/>
       <c r="AH626" s="28"/>
     </row>
-    <row r="627" spans="1:34" ht="14.5" hidden="1">
+    <row r="627" spans="1:34" hidden="1">
       <c r="A627" s="21"/>
       <c r="B627" s="21"/>
       <c r="C627" s="28"/>
@@ -32518,7 +32507,7 @@
       <c r="AG627" s="28"/>
       <c r="AH627" s="28"/>
     </row>
-    <row r="628" spans="1:34" ht="14.5" hidden="1">
+    <row r="628" spans="1:34" hidden="1">
       <c r="A628" s="21"/>
       <c r="B628" s="21"/>
       <c r="C628" s="28"/>
@@ -32554,7 +32543,7 @@
       <c r="AG628" s="28"/>
       <c r="AH628" s="28"/>
     </row>
-    <row r="629" spans="1:34" ht="14.5" hidden="1">
+    <row r="629" spans="1:34" hidden="1">
       <c r="A629" s="21"/>
       <c r="B629" s="21"/>
       <c r="C629" s="28"/>
@@ -32590,7 +32579,7 @@
       <c r="AG629" s="28"/>
       <c r="AH629" s="28"/>
     </row>
-    <row r="630" spans="1:34" ht="14.5" hidden="1">
+    <row r="630" spans="1:34" hidden="1">
       <c r="A630" s="21"/>
       <c r="B630" s="21"/>
       <c r="C630" s="28"/>
@@ -32626,7 +32615,7 @@
       <c r="AG630" s="28"/>
       <c r="AH630" s="28"/>
     </row>
-    <row r="631" spans="1:34" ht="14.5" hidden="1">
+    <row r="631" spans="1:34" hidden="1">
       <c r="A631" s="21"/>
       <c r="B631" s="21"/>
       <c r="C631" s="28"/>
@@ -32662,7 +32651,7 @@
       <c r="AG631" s="28"/>
       <c r="AH631" s="28"/>
     </row>
-    <row r="632" spans="1:34" ht="14.5" hidden="1">
+    <row r="632" spans="1:34" hidden="1">
       <c r="A632" s="21"/>
       <c r="B632" s="21"/>
       <c r="C632" s="28"/>
@@ -32698,7 +32687,7 @@
       <c r="AG632" s="28"/>
       <c r="AH632" s="28"/>
     </row>
-    <row r="633" spans="1:34" ht="14.5" hidden="1">
+    <row r="633" spans="1:34" hidden="1">
       <c r="A633" s="21"/>
       <c r="B633" s="21"/>
       <c r="C633" s="28"/>
@@ -32734,7 +32723,7 @@
       <c r="AG633" s="28"/>
       <c r="AH633" s="28"/>
     </row>
-    <row r="634" spans="1:34" ht="14.5" hidden="1">
+    <row r="634" spans="1:34" hidden="1">
       <c r="A634" s="21"/>
       <c r="B634" s="21"/>
       <c r="C634" s="28"/>
@@ -32770,7 +32759,7 @@
       <c r="AG634" s="28"/>
       <c r="AH634" s="28"/>
     </row>
-    <row r="635" spans="1:34" ht="14.5" hidden="1">
+    <row r="635" spans="1:34" hidden="1">
       <c r="A635" s="21"/>
       <c r="B635" s="21"/>
       <c r="C635" s="28"/>
@@ -32806,7 +32795,7 @@
       <c r="AG635" s="28"/>
       <c r="AH635" s="28"/>
     </row>
-    <row r="636" spans="1:34" ht="14.5" hidden="1">
+    <row r="636" spans="1:34" hidden="1">
       <c r="A636" s="21"/>
       <c r="B636" s="21"/>
       <c r="C636" s="28"/>
@@ -32842,7 +32831,7 @@
       <c r="AG636" s="28"/>
       <c r="AH636" s="28"/>
     </row>
-    <row r="637" spans="1:34" ht="14.5" hidden="1">
+    <row r="637" spans="1:34" hidden="1">
       <c r="A637" s="21"/>
       <c r="B637" s="21"/>
       <c r="C637" s="28"/>
@@ -32878,7 +32867,7 @@
       <c r="AG637" s="28"/>
       <c r="AH637" s="28"/>
     </row>
-    <row r="638" spans="1:34" ht="14.5" hidden="1">
+    <row r="638" spans="1:34" hidden="1">
       <c r="A638" s="21"/>
       <c r="B638" s="21"/>
       <c r="C638" s="28"/>
@@ -32914,7 +32903,7 @@
       <c r="AG638" s="28"/>
       <c r="AH638" s="28"/>
     </row>
-    <row r="639" spans="1:34" ht="14.5" hidden="1">
+    <row r="639" spans="1:34" hidden="1">
       <c r="A639" s="21"/>
       <c r="B639" s="21"/>
       <c r="C639" s="28"/>
@@ -32950,7 +32939,7 @@
       <c r="AG639" s="28"/>
       <c r="AH639" s="28"/>
     </row>
-    <row r="640" spans="1:34" ht="14.5" hidden="1">
+    <row r="640" spans="1:34" hidden="1">
       <c r="A640" s="21"/>
       <c r="B640" s="21"/>
       <c r="C640" s="28"/>
@@ -32986,7 +32975,7 @@
       <c r="AG640" s="28"/>
       <c r="AH640" s="28"/>
     </row>
-    <row r="641" spans="1:34" ht="14.5" hidden="1">
+    <row r="641" spans="1:34" hidden="1">
       <c r="A641" s="21"/>
       <c r="B641" s="21"/>
       <c r="C641" s="28"/>
@@ -33022,7 +33011,7 @@
       <c r="AG641" s="28"/>
       <c r="AH641" s="28"/>
     </row>
-    <row r="642" spans="1:34" ht="14.5" hidden="1">
+    <row r="642" spans="1:34" hidden="1">
       <c r="A642" s="21"/>
       <c r="B642" s="21"/>
       <c r="C642" s="28"/>
@@ -33058,7 +33047,7 @@
       <c r="AG642" s="28"/>
       <c r="AH642" s="28"/>
     </row>
-    <row r="643" spans="1:34" ht="14.5" hidden="1">
+    <row r="643" spans="1:34" hidden="1">
       <c r="A643" s="21"/>
       <c r="B643" s="21"/>
       <c r="C643" s="28"/>
@@ -33094,7 +33083,7 @@
       <c r="AG643" s="28"/>
       <c r="AH643" s="28"/>
     </row>
-    <row r="644" spans="1:34" ht="14.5" hidden="1">
+    <row r="644" spans="1:34" hidden="1">
       <c r="A644" s="21"/>
       <c r="B644" s="21"/>
       <c r="C644" s="28"/>
@@ -33130,7 +33119,7 @@
       <c r="AG644" s="28"/>
       <c r="AH644" s="28"/>
     </row>
-    <row r="645" spans="1:34" ht="14.5" hidden="1">
+    <row r="645" spans="1:34" hidden="1">
       <c r="A645" s="21"/>
       <c r="B645" s="21"/>
       <c r="C645" s="28"/>
@@ -33166,7 +33155,7 @@
       <c r="AG645" s="28"/>
       <c r="AH645" s="28"/>
     </row>
-    <row r="646" spans="1:34" ht="14.5" hidden="1">
+    <row r="646" spans="1:34" hidden="1">
       <c r="A646" s="21"/>
       <c r="B646" s="21"/>
       <c r="C646" s="28"/>
@@ -33202,7 +33191,7 @@
       <c r="AG646" s="28"/>
       <c r="AH646" s="28"/>
     </row>
-    <row r="647" spans="1:34" ht="14.5" hidden="1">
+    <row r="647" spans="1:34" hidden="1">
       <c r="A647" s="21"/>
       <c r="B647" s="21"/>
       <c r="C647" s="28"/>
@@ -33238,7 +33227,7 @@
       <c r="AG647" s="28"/>
       <c r="AH647" s="28"/>
     </row>
-    <row r="648" spans="1:34" ht="14.5" hidden="1">
+    <row r="648" spans="1:34" hidden="1">
       <c r="A648" s="21"/>
       <c r="B648" s="21"/>
       <c r="C648" s="28"/>
@@ -33274,7 +33263,7 @@
       <c r="AG648" s="28"/>
       <c r="AH648" s="28"/>
     </row>
-    <row r="649" spans="1:34" ht="14.5" hidden="1">
+    <row r="649" spans="1:34" hidden="1">
       <c r="A649" s="21"/>
       <c r="B649" s="21"/>
       <c r="C649" s="28"/>
@@ -33310,7 +33299,7 @@
       <c r="AG649" s="28"/>
       <c r="AH649" s="28"/>
     </row>
-    <row r="650" spans="1:34" ht="14.5" hidden="1">
+    <row r="650" spans="1:34" hidden="1">
       <c r="A650" s="21"/>
       <c r="B650" s="21"/>
       <c r="C650" s="28"/>
@@ -33346,7 +33335,7 @@
       <c r="AG650" s="28"/>
       <c r="AH650" s="28"/>
     </row>
-    <row r="651" spans="1:34" ht="14.5" hidden="1">
+    <row r="651" spans="1:34" hidden="1">
       <c r="A651" s="21"/>
       <c r="B651" s="21"/>
       <c r="C651" s="28"/>
@@ -33382,7 +33371,7 @@
       <c r="AG651" s="28"/>
       <c r="AH651" s="28"/>
     </row>
-    <row r="652" spans="1:34" ht="14.5" hidden="1">
+    <row r="652" spans="1:34" hidden="1">
       <c r="A652" s="21"/>
       <c r="B652" s="21"/>
       <c r="C652" s="28"/>
@@ -33418,7 +33407,7 @@
       <c r="AG652" s="28"/>
       <c r="AH652" s="28"/>
     </row>
-    <row r="653" spans="1:34" ht="14.5" hidden="1">
+    <row r="653" spans="1:34" hidden="1">
       <c r="A653" s="21"/>
       <c r="B653" s="21"/>
       <c r="C653" s="28"/>
@@ -33454,7 +33443,7 @@
       <c r="AG653" s="28"/>
       <c r="AH653" s="28"/>
     </row>
-    <row r="654" spans="1:34" ht="14.5" hidden="1">
+    <row r="654" spans="1:34" hidden="1">
       <c r="A654" s="21"/>
       <c r="B654" s="21"/>
       <c r="C654" s="28"/>
@@ -33490,7 +33479,7 @@
       <c r="AG654" s="28"/>
       <c r="AH654" s="28"/>
     </row>
-    <row r="655" spans="1:34" ht="14.5" hidden="1">
+    <row r="655" spans="1:34" hidden="1">
       <c r="A655" s="21"/>
       <c r="B655" s="21"/>
       <c r="C655" s="28"/>
@@ -33526,7 +33515,7 @@
       <c r="AG655" s="28"/>
       <c r="AH655" s="28"/>
     </row>
-    <row r="656" spans="1:34" ht="14.5" hidden="1">
+    <row r="656" spans="1:34" hidden="1">
       <c r="A656" s="21"/>
       <c r="B656" s="21"/>
       <c r="C656" s="28"/>
@@ -33562,7 +33551,7 @@
       <c r="AG656" s="28"/>
       <c r="AH656" s="28"/>
     </row>
-    <row r="657" spans="1:34" ht="14.5" hidden="1">
+    <row r="657" spans="1:34" hidden="1">
       <c r="A657" s="21"/>
       <c r="B657" s="21"/>
       <c r="C657" s="28"/>
@@ -33598,7 +33587,7 @@
       <c r="AG657" s="28"/>
       <c r="AH657" s="28"/>
     </row>
-    <row r="658" spans="1:34" ht="14.5" hidden="1">
+    <row r="658" spans="1:34" hidden="1">
       <c r="A658" s="21"/>
       <c r="B658" s="21"/>
       <c r="C658" s="28"/>
@@ -33634,7 +33623,7 @@
       <c r="AG658" s="28"/>
       <c r="AH658" s="28"/>
     </row>
-    <row r="659" spans="1:34" ht="14.5" hidden="1">
+    <row r="659" spans="1:34" hidden="1">
       <c r="A659" s="21"/>
       <c r="B659" s="21"/>
       <c r="C659" s="28"/>
@@ -33670,7 +33659,7 @@
       <c r="AG659" s="28"/>
       <c r="AH659" s="28"/>
     </row>
-    <row r="660" spans="1:34" ht="14.5" hidden="1">
+    <row r="660" spans="1:34" hidden="1">
       <c r="A660" s="21"/>
       <c r="B660" s="21"/>
       <c r="C660" s="28"/>
@@ -33706,7 +33695,7 @@
       <c r="AG660" s="28"/>
       <c r="AH660" s="28"/>
     </row>
-    <row r="661" spans="1:34" ht="14.5" hidden="1">
+    <row r="661" spans="1:34" hidden="1">
       <c r="A661" s="21"/>
       <c r="B661" s="21"/>
       <c r="C661" s="28"/>
@@ -33742,7 +33731,7 @@
       <c r="AG661" s="28"/>
       <c r="AH661" s="28"/>
     </row>
-    <row r="662" spans="1:34" ht="14.5" hidden="1">
+    <row r="662" spans="1:34" hidden="1">
       <c r="A662" s="21"/>
       <c r="B662" s="21"/>
       <c r="C662" s="28"/>
@@ -33778,7 +33767,7 @@
       <c r="AG662" s="28"/>
       <c r="AH662" s="28"/>
     </row>
-    <row r="663" spans="1:34" ht="14.5" hidden="1">
+    <row r="663" spans="1:34" hidden="1">
       <c r="A663" s="21"/>
       <c r="B663" s="21"/>
       <c r="C663" s="28"/>
@@ -33814,7 +33803,7 @@
       <c r="AG663" s="28"/>
       <c r="AH663" s="28"/>
     </row>
-    <row r="664" spans="1:34" ht="14.5" hidden="1">
+    <row r="664" spans="1:34" hidden="1">
       <c r="A664" s="21"/>
       <c r="B664" s="21"/>
       <c r="C664" s="28"/>
@@ -33850,7 +33839,7 @@
       <c r="AG664" s="28"/>
       <c r="AH664" s="28"/>
     </row>
-    <row r="665" spans="1:34" ht="14.5" hidden="1">
+    <row r="665" spans="1:34" hidden="1">
       <c r="A665" s="21"/>
       <c r="B665" s="21"/>
       <c r="C665" s="28"/>
@@ -33886,7 +33875,7 @@
       <c r="AG665" s="28"/>
       <c r="AH665" s="28"/>
     </row>
-    <row r="666" spans="1:34" ht="14.5" hidden="1">
+    <row r="666" spans="1:34" hidden="1">
       <c r="A666" s="21"/>
       <c r="B666" s="21"/>
       <c r="C666" s="28"/>
@@ -33922,7 +33911,7 @@
       <c r="AG666" s="28"/>
       <c r="AH666" s="28"/>
     </row>
-    <row r="667" spans="1:34" ht="14.5" hidden="1">
+    <row r="667" spans="1:34" hidden="1">
       <c r="A667" s="21"/>
       <c r="B667" s="21"/>
       <c r="C667" s="28"/>
@@ -33958,7 +33947,7 @@
       <c r="AG667" s="28"/>
       <c r="AH667" s="28"/>
     </row>
-    <row r="668" spans="1:34" ht="14.5" hidden="1">
+    <row r="668" spans="1:34" hidden="1">
       <c r="A668" s="21"/>
       <c r="B668" s="21"/>
       <c r="C668" s="28"/>
@@ -33994,7 +33983,7 @@
       <c r="AG668" s="28"/>
       <c r="AH668" s="28"/>
     </row>
-    <row r="669" spans="1:34" ht="14.5" hidden="1">
+    <row r="669" spans="1:34" hidden="1">
       <c r="A669" s="21"/>
       <c r="B669" s="21"/>
       <c r="C669" s="28"/>
@@ -34030,7 +34019,7 @@
       <c r="AG669" s="28"/>
       <c r="AH669" s="28"/>
     </row>
-    <row r="670" spans="1:34" ht="14.5" hidden="1">
+    <row r="670" spans="1:34" hidden="1">
       <c r="A670" s="21"/>
       <c r="B670" s="21"/>
       <c r="C670" s="28"/>
@@ -34066,7 +34055,7 @@
       <c r="AG670" s="28"/>
       <c r="AH670" s="28"/>
     </row>
-    <row r="671" spans="1:34" ht="14.5" hidden="1">
+    <row r="671" spans="1:34" hidden="1">
       <c r="A671" s="21"/>
       <c r="B671" s="21"/>
       <c r="C671" s="28"/>
@@ -34102,7 +34091,7 @@
       <c r="AG671" s="28"/>
       <c r="AH671" s="28"/>
     </row>
-    <row r="672" spans="1:34" ht="14.5" hidden="1">
+    <row r="672" spans="1:34" hidden="1">
       <c r="A672" s="21"/>
       <c r="B672" s="21"/>
       <c r="C672" s="28"/>
@@ -34138,7 +34127,7 @@
       <c r="AG672" s="28"/>
       <c r="AH672" s="28"/>
     </row>
-    <row r="673" spans="1:34" ht="14.5" hidden="1">
+    <row r="673" spans="1:34" hidden="1">
       <c r="A673" s="21"/>
       <c r="B673" s="21"/>
       <c r="C673" s="28"/>
@@ -34174,7 +34163,7 @@
       <c r="AG673" s="28"/>
       <c r="AH673" s="28"/>
     </row>
-    <row r="674" spans="1:34" ht="14.5" hidden="1">
+    <row r="674" spans="1:34" hidden="1">
       <c r="A674" s="21"/>
       <c r="B674" s="21"/>
       <c r="C674" s="28"/>
@@ -34210,7 +34199,7 @@
       <c r="AG674" s="28"/>
       <c r="AH674" s="28"/>
     </row>
-    <row r="675" spans="1:34" ht="14.5" hidden="1">
+    <row r="675" spans="1:34" hidden="1">
       <c r="A675" s="21"/>
       <c r="B675" s="21"/>
       <c r="C675" s="28"/>
@@ -34246,7 +34235,7 @@
       <c r="AG675" s="28"/>
       <c r="AH675" s="28"/>
     </row>
-    <row r="676" spans="1:34" ht="14.5" hidden="1">
+    <row r="676" spans="1:34" hidden="1">
       <c r="A676" s="21"/>
       <c r="B676" s="21"/>
       <c r="C676" s="28"/>
@@ -34282,7 +34271,7 @@
       <c r="AG676" s="28"/>
       <c r="AH676" s="28"/>
     </row>
-    <row r="677" spans="1:34" ht="14.5" hidden="1">
+    <row r="677" spans="1:34" hidden="1">
       <c r="A677" s="21"/>
       <c r="B677" s="21"/>
       <c r="C677" s="28"/>
@@ -34318,7 +34307,7 @@
       <c r="AG677" s="28"/>
       <c r="AH677" s="28"/>
     </row>
-    <row r="678" spans="1:34" ht="14.5" hidden="1">
+    <row r="678" spans="1:34" hidden="1">
       <c r="A678" s="21"/>
       <c r="B678" s="21"/>
       <c r="C678" s="28"/>
@@ -34354,7 +34343,7 @@
       <c r="AG678" s="28"/>
       <c r="AH678" s="28"/>
     </row>
-    <row r="679" spans="1:34" ht="14.5" hidden="1">
+    <row r="679" spans="1:34" hidden="1">
       <c r="A679" s="21"/>
       <c r="B679" s="21"/>
       <c r="C679" s="28"/>
@@ -34390,7 +34379,7 @@
       <c r="AG679" s="28"/>
       <c r="AH679" s="28"/>
     </row>
-    <row r="680" spans="1:34" ht="14.5" hidden="1">
+    <row r="680" spans="1:34" hidden="1">
       <c r="A680" s="21"/>
       <c r="B680" s="21"/>
       <c r="C680" s="28"/>
@@ -34426,7 +34415,7 @@
       <c r="AG680" s="28"/>
       <c r="AH680" s="28"/>
     </row>
-    <row r="681" spans="1:34" ht="14.5" hidden="1">
+    <row r="681" spans="1:34" hidden="1">
       <c r="A681" s="21"/>
       <c r="B681" s="21"/>
       <c r="C681" s="28"/>
@@ -34462,7 +34451,7 @@
       <c r="AG681" s="28"/>
       <c r="AH681" s="28"/>
     </row>
-    <row r="682" spans="1:34" ht="14.5" hidden="1">
+    <row r="682" spans="1:34" hidden="1">
       <c r="A682" s="21"/>
       <c r="B682" s="21"/>
       <c r="C682" s="28"/>
@@ -34498,7 +34487,7 @@
       <c r="AG682" s="28"/>
       <c r="AH682" s="28"/>
     </row>
-    <row r="683" spans="1:34" ht="14.5" hidden="1">
+    <row r="683" spans="1:34" hidden="1">
       <c r="A683" s="21"/>
       <c r="B683" s="21"/>
       <c r="C683" s="28"/>
@@ -34534,7 +34523,7 @@
       <c r="AG683" s="28"/>
       <c r="AH683" s="28"/>
     </row>
-    <row r="684" spans="1:34" ht="14.5" hidden="1">
+    <row r="684" spans="1:34" hidden="1">
       <c r="A684" s="21"/>
       <c r="B684" s="21"/>
       <c r="C684" s="28"/>
@@ -34570,7 +34559,7 @@
       <c r="AG684" s="28"/>
       <c r="AH684" s="28"/>
     </row>
-    <row r="685" spans="1:34" ht="14.5" hidden="1">
+    <row r="685" spans="1:34" hidden="1">
       <c r="A685" s="21"/>
       <c r="B685" s="21"/>
       <c r="C685" s="28"/>
@@ -34606,7 +34595,7 @@
       <c r="AG685" s="28"/>
       <c r="AH685" s="28"/>
     </row>
-    <row r="686" spans="1:34" ht="14.5" hidden="1">
+    <row r="686" spans="1:34" hidden="1">
       <c r="A686" s="21"/>
       <c r="B686" s="21"/>
       <c r="C686" s="28"/>
@@ -34642,7 +34631,7 @@
       <c r="AG686" s="28"/>
       <c r="AH686" s="28"/>
     </row>
-    <row r="687" spans="1:34" ht="14.5" hidden="1">
+    <row r="687" spans="1:34" hidden="1">
       <c r="A687" s="21"/>
       <c r="B687" s="21"/>
       <c r="C687" s="28"/>
@@ -34678,7 +34667,7 @@
       <c r="AG687" s="28"/>
       <c r="AH687" s="28"/>
     </row>
-    <row r="688" spans="1:34" ht="14.5" hidden="1">
+    <row r="688" spans="1:34" hidden="1">
       <c r="A688" s="21"/>
       <c r="B688" s="21"/>
       <c r="C688" s="28"/>
@@ -34714,7 +34703,7 @@
       <c r="AG688" s="28"/>
       <c r="AH688" s="28"/>
     </row>
-    <row r="689" spans="1:34" ht="14.5" hidden="1">
+    <row r="689" spans="1:34" hidden="1">
       <c r="A689" s="21"/>
       <c r="B689" s="21"/>
       <c r="C689" s="28"/>
@@ -34750,7 +34739,7 @@
       <c r="AG689" s="28"/>
       <c r="AH689" s="28"/>
     </row>
-    <row r="690" spans="1:34" ht="14.5" hidden="1">
+    <row r="690" spans="1:34" hidden="1">
       <c r="A690" s="21"/>
       <c r="B690" s="21"/>
       <c r="C690" s="28"/>
@@ -34786,7 +34775,7 @@
       <c r="AG690" s="28"/>
       <c r="AH690" s="28"/>
     </row>
-    <row r="691" spans="1:34" ht="14.5" hidden="1">
+    <row r="691" spans="1:34" hidden="1">
       <c r="A691" s="21"/>
       <c r="B691" s="21"/>
       <c r="C691" s="28"/>
@@ -34822,7 +34811,7 @@
       <c r="AG691" s="28"/>
       <c r="AH691" s="28"/>
     </row>
-    <row r="692" spans="1:34" ht="14.5" hidden="1">
+    <row r="692" spans="1:34" hidden="1">
       <c r="A692" s="21"/>
       <c r="B692" s="21"/>
       <c r="C692" s="28"/>
@@ -34858,7 +34847,7 @@
       <c r="AG692" s="28"/>
       <c r="AH692" s="28"/>
     </row>
-    <row r="693" spans="1:34" ht="14.5" hidden="1">
+    <row r="693" spans="1:34" hidden="1">
       <c r="A693" s="21"/>
       <c r="B693" s="21"/>
       <c r="C693" s="28"/>
@@ -34894,7 +34883,7 @@
       <c r="AG693" s="28"/>
       <c r="AH693" s="28"/>
     </row>
-    <row r="694" spans="1:34" ht="14.5" hidden="1">
+    <row r="694" spans="1:34" hidden="1">
       <c r="A694" s="21"/>
       <c r="B694" s="21"/>
       <c r="C694" s="28"/>
@@ -34930,7 +34919,7 @@
       <c r="AG694" s="28"/>
       <c r="AH694" s="28"/>
     </row>
-    <row r="695" spans="1:34" ht="14.5" hidden="1">
+    <row r="695" spans="1:34" hidden="1">
       <c r="A695" s="21"/>
       <c r="B695" s="21"/>
       <c r="C695" s="28"/>
@@ -34966,7 +34955,7 @@
       <c r="AG695" s="28"/>
       <c r="AH695" s="28"/>
     </row>
-    <row r="696" spans="1:34" ht="14.5" hidden="1">
+    <row r="696" spans="1:34" hidden="1">
       <c r="A696" s="21"/>
       <c r="B696" s="21"/>
       <c r="C696" s="28"/>
@@ -35002,7 +34991,7 @@
       <c r="AG696" s="28"/>
       <c r="AH696" s="28"/>
     </row>
-    <row r="697" spans="1:34" ht="14.5" hidden="1">
+    <row r="697" spans="1:34" hidden="1">
       <c r="A697" s="21"/>
       <c r="B697" s="21"/>
       <c r="C697" s="28"/>
@@ -35038,7 +35027,7 @@
       <c r="AG697" s="28"/>
       <c r="AH697" s="28"/>
     </row>
-    <row r="698" spans="1:34" ht="14.5" hidden="1">
+    <row r="698" spans="1:34" hidden="1">
       <c r="A698" s="21"/>
       <c r="B698" s="21"/>
       <c r="C698" s="28"/>
@@ -35074,7 +35063,7 @@
       <c r="AG698" s="28"/>
       <c r="AH698" s="28"/>
     </row>
-    <row r="699" spans="1:34" ht="14.5" hidden="1">
+    <row r="699" spans="1:34" hidden="1">
       <c r="A699" s="21"/>
       <c r="B699" s="21"/>
       <c r="C699" s="28"/>
@@ -35110,7 +35099,7 @@
       <c r="AG699" s="28"/>
       <c r="AH699" s="28"/>
     </row>
-    <row r="700" spans="1:34" ht="14.5" hidden="1">
+    <row r="700" spans="1:34" hidden="1">
       <c r="A700" s="21"/>
       <c r="B700" s="21"/>
       <c r="C700" s="28"/>
@@ -35146,7 +35135,7 @@
       <c r="AG700" s="28"/>
       <c r="AH700" s="28"/>
     </row>
-    <row r="701" spans="1:34" ht="14.5" hidden="1">
+    <row r="701" spans="1:34" hidden="1">
       <c r="A701" s="21"/>
       <c r="B701" s="21"/>
       <c r="C701" s="28"/>
@@ -35182,7 +35171,7 @@
       <c r="AG701" s="28"/>
       <c r="AH701" s="28"/>
     </row>
-    <row r="702" spans="1:34" ht="14.5" hidden="1">
+    <row r="702" spans="1:34" hidden="1">
       <c r="A702" s="21"/>
       <c r="B702" s="21"/>
       <c r="C702" s="28"/>
@@ -35218,7 +35207,7 @@
       <c r="AG702" s="28"/>
       <c r="AH702" s="28"/>
     </row>
-    <row r="703" spans="1:34" ht="14.5" hidden="1">
+    <row r="703" spans="1:34" hidden="1">
       <c r="A703" s="21"/>
       <c r="B703" s="21"/>
       <c r="C703" s="28"/>
@@ -35254,7 +35243,7 @@
       <c r="AG703" s="28"/>
       <c r="AH703" s="28"/>
     </row>
-    <row r="704" spans="1:34" ht="14.5" hidden="1">
+    <row r="704" spans="1:34" hidden="1">
       <c r="A704" s="21"/>
       <c r="B704" s="21"/>
       <c r="C704" s="28"/>
@@ -35290,7 +35279,7 @@
       <c r="AG704" s="28"/>
       <c r="AH704" s="28"/>
     </row>
-    <row r="705" spans="1:34" ht="14.5" hidden="1">
+    <row r="705" spans="1:34" hidden="1">
       <c r="A705" s="21"/>
       <c r="B705" s="21"/>
       <c r="C705" s="28"/>
@@ -35326,7 +35315,7 @@
       <c r="AG705" s="28"/>
       <c r="AH705" s="28"/>
     </row>
-    <row r="706" spans="1:34" ht="14.5" hidden="1">
+    <row r="706" spans="1:34" hidden="1">
       <c r="A706" s="21"/>
       <c r="B706" s="21"/>
       <c r="C706" s="28"/>
@@ -35362,7 +35351,7 @@
       <c r="AG706" s="28"/>
       <c r="AH706" s="28"/>
     </row>
-    <row r="707" spans="1:34" ht="14.5" hidden="1">
+    <row r="707" spans="1:34" hidden="1">
       <c r="A707" s="21"/>
       <c r="B707" s="21"/>
       <c r="C707" s="28"/>
@@ -35398,7 +35387,7 @@
       <c r="AG707" s="28"/>
       <c r="AH707" s="28"/>
     </row>
-    <row r="708" spans="1:34" ht="14.5" hidden="1">
+    <row r="708" spans="1:34" hidden="1">
       <c r="A708" s="21"/>
       <c r="B708" s="21"/>
       <c r="C708" s="28"/>
@@ -35434,7 +35423,7 @@
       <c r="AG708" s="28"/>
       <c r="AH708" s="28"/>
     </row>
-    <row r="709" spans="1:34" ht="14.5" hidden="1">
+    <row r="709" spans="1:34" hidden="1">
       <c r="A709" s="21"/>
       <c r="B709" s="21"/>
       <c r="C709" s="28"/>
@@ -35470,7 +35459,7 @@
       <c r="AG709" s="28"/>
       <c r="AH709" s="28"/>
     </row>
-    <row r="710" spans="1:34" ht="14.5" hidden="1">
+    <row r="710" spans="1:34" hidden="1">
       <c r="A710" s="21"/>
       <c r="B710" s="21"/>
       <c r="C710" s="28"/>
@@ -35506,7 +35495,7 @@
       <c r="AG710" s="28"/>
       <c r="AH710" s="28"/>
     </row>
-    <row r="711" spans="1:34" ht="14.5" hidden="1">
+    <row r="711" spans="1:34" hidden="1">
       <c r="A711" s="21"/>
       <c r="B711" s="21"/>
       <c r="C711" s="28"/>
@@ -35542,7 +35531,7 @@
       <c r="AG711" s="28"/>
       <c r="AH711" s="28"/>
     </row>
-    <row r="712" spans="1:34" ht="14.5" hidden="1">
+    <row r="712" spans="1:34" hidden="1">
       <c r="A712" s="21"/>
       <c r="B712" s="21"/>
       <c r="C712" s="28"/>
@@ -35578,7 +35567,7 @@
       <c r="AG712" s="28"/>
       <c r="AH712" s="28"/>
     </row>
-    <row r="713" spans="1:34" ht="14.5" hidden="1">
+    <row r="713" spans="1:34" hidden="1">
       <c r="A713" s="21"/>
       <c r="B713" s="21"/>
       <c r="C713" s="28"/>
@@ -35614,7 +35603,7 @@
       <c r="AG713" s="28"/>
       <c r="AH713" s="28"/>
     </row>
-    <row r="714" spans="1:34" ht="14.5" hidden="1">
+    <row r="714" spans="1:34" hidden="1">
       <c r="A714" s="21"/>
       <c r="B714" s="21"/>
       <c r="C714" s="28"/>
@@ -35650,7 +35639,7 @@
       <c r="AG714" s="28"/>
       <c r="AH714" s="28"/>
     </row>
-    <row r="715" spans="1:34" ht="14.5" hidden="1">
+    <row r="715" spans="1:34" hidden="1">
       <c r="A715" s="21"/>
       <c r="B715" s="21"/>
       <c r="C715" s="28"/>
@@ -35686,7 +35675,7 @@
       <c r="AG715" s="28"/>
       <c r="AH715" s="28"/>
     </row>
-    <row r="716" spans="1:34" ht="14.5" hidden="1">
+    <row r="716" spans="1:34" hidden="1">
       <c r="A716" s="21"/>
       <c r="B716" s="21"/>
       <c r="C716" s="28"/>
@@ -35722,7 +35711,7 @@
       <c r="AG716" s="28"/>
       <c r="AH716" s="28"/>
     </row>
-    <row r="717" spans="1:34" ht="14.5" hidden="1">
+    <row r="717" spans="1:34" hidden="1">
       <c r="A717" s="21"/>
       <c r="B717" s="21"/>
       <c r="C717" s="28"/>
@@ -35758,7 +35747,7 @@
       <c r="AG717" s="28"/>
       <c r="AH717" s="28"/>
     </row>
-    <row r="718" spans="1:34" ht="14.5" hidden="1">
+    <row r="718" spans="1:34" hidden="1">
       <c r="A718" s="21"/>
       <c r="B718" s="21"/>
       <c r="C718" s="28"/>
@@ -35794,7 +35783,7 @@
       <c r="AG718" s="28"/>
       <c r="AH718" s="28"/>
     </row>
-    <row r="719" spans="1:34" ht="14.5" hidden="1">
+    <row r="719" spans="1:34" hidden="1">
       <c r="A719" s="21"/>
       <c r="B719" s="21"/>
       <c r="C719" s="28"/>
@@ -35830,7 +35819,7 @@
       <c r="AG719" s="28"/>
       <c r="AH719" s="28"/>
     </row>
-    <row r="720" spans="1:34" ht="14.5" hidden="1">
+    <row r="720" spans="1:34" hidden="1">
       <c r="A720" s="21"/>
       <c r="B720" s="21"/>
       <c r="C720" s="28"/>
@@ -35866,7 +35855,7 @@
       <c r="AG720" s="28"/>
       <c r="AH720" s="28"/>
     </row>
-    <row r="721" spans="1:34" ht="14.5" hidden="1">
+    <row r="721" spans="1:34" hidden="1">
       <c r="A721" s="21"/>
       <c r="B721" s="21"/>
       <c r="C721" s="28"/>
@@ -35902,7 +35891,7 @@
       <c r="AG721" s="28"/>
       <c r="AH721" s="28"/>
     </row>
-    <row r="722" spans="1:34" ht="14.5" hidden="1">
+    <row r="722" spans="1:34" hidden="1">
       <c r="A722" s="21"/>
       <c r="B722" s="21"/>
       <c r="C722" s="28"/>
@@ -35938,7 +35927,7 @@
       <c r="AG722" s="28"/>
       <c r="AH722" s="28"/>
     </row>
-    <row r="723" spans="1:34" ht="14.5" hidden="1">
+    <row r="723" spans="1:34" hidden="1">
       <c r="A723" s="21"/>
       <c r="B723" s="21"/>
       <c r="C723" s="28"/>
@@ -35974,7 +35963,7 @@
       <c r="AG723" s="28"/>
       <c r="AH723" s="28"/>
     </row>
-    <row r="724" spans="1:34" ht="14.5" hidden="1">
+    <row r="724" spans="1:34" hidden="1">
       <c r="A724" s="21"/>
       <c r="B724" s="21"/>
       <c r="C724" s="28"/>
@@ -36010,7 +35999,7 @@
       <c r="AG724" s="28"/>
       <c r="AH724" s="28"/>
     </row>
-    <row r="725" spans="1:34" ht="14.5" hidden="1">
+    <row r="725" spans="1:34" hidden="1">
       <c r="A725" s="21"/>
       <c r="B725" s="21"/>
       <c r="C725" s="28"/>
@@ -36046,7 +36035,7 @@
       <c r="AG725" s="28"/>
       <c r="AH725" s="28"/>
     </row>
-    <row r="726" spans="1:34" ht="14.5" hidden="1">
+    <row r="726" spans="1:34" hidden="1">
       <c r="A726" s="21"/>
       <c r="B726" s="21"/>
       <c r="C726" s="28"/>
@@ -36082,7 +36071,7 @@
       <c r="AG726" s="28"/>
       <c r="AH726" s="28"/>
     </row>
-    <row r="727" spans="1:34" ht="14.5" hidden="1">
+    <row r="727" spans="1:34" hidden="1">
       <c r="A727" s="21"/>
       <c r="B727" s="21"/>
       <c r="C727" s="28"/>
@@ -36118,7 +36107,7 @@
       <c r="AG727" s="28"/>
       <c r="AH727" s="28"/>
     </row>
-    <row r="728" spans="1:34" ht="14.5" hidden="1">
+    <row r="728" spans="1:34" hidden="1">
       <c r="A728" s="21"/>
       <c r="B728" s="21"/>
       <c r="C728" s="28"/>
@@ -36154,7 +36143,7 @@
       <c r="AG728" s="28"/>
       <c r="AH728" s="28"/>
     </row>
-    <row r="729" spans="1:34" ht="14.5" hidden="1">
+    <row r="729" spans="1:34" hidden="1">
       <c r="A729" s="21"/>
       <c r="B729" s="21"/>
       <c r="C729" s="28"/>
@@ -36190,7 +36179,7 @@
       <c r="AG729" s="28"/>
       <c r="AH729" s="28"/>
     </row>
-    <row r="730" spans="1:34" ht="14.5" hidden="1">
+    <row r="730" spans="1:34" hidden="1">
       <c r="A730" s="21"/>
       <c r="B730" s="21"/>
       <c r="C730" s="28"/>
@@ -36226,7 +36215,7 @@
       <c r="AG730" s="28"/>
       <c r="AH730" s="28"/>
     </row>
-    <row r="731" spans="1:34" ht="14.5" hidden="1">
+    <row r="731" spans="1:34" hidden="1">
       <c r="A731" s="21"/>
       <c r="B731" s="21"/>
       <c r="C731" s="28"/>
@@ -36262,7 +36251,7 @@
       <c r="AG731" s="28"/>
       <c r="AH731" s="28"/>
     </row>
-    <row r="732" spans="1:34" ht="14.5" hidden="1">
+    <row r="732" spans="1:34" hidden="1">
       <c r="A732" s="21"/>
       <c r="B732" s="21"/>
       <c r="C732" s="28"/>
@@ -36298,7 +36287,7 @@
       <c r="AG732" s="28"/>
       <c r="AH732" s="28"/>
     </row>
-    <row r="733" spans="1:34" ht="14.5" hidden="1">
+    <row r="733" spans="1:34" hidden="1">
       <c r="A733" s="21"/>
       <c r="B733" s="21"/>
       <c r="C733" s="28"/>
@@ -36334,7 +36323,7 @@
       <c r="AG733" s="28"/>
       <c r="AH733" s="28"/>
     </row>
-    <row r="734" spans="1:34" ht="14.5" hidden="1">
+    <row r="734" spans="1:34" hidden="1">
       <c r="A734" s="21"/>
       <c r="B734" s="21"/>
       <c r="C734" s="28"/>
@@ -36370,7 +36359,7 @@
       <c r="AG734" s="28"/>
       <c r="AH734" s="28"/>
     </row>
-    <row r="735" spans="1:34" ht="14.5" hidden="1">
+    <row r="735" spans="1:34" hidden="1">
       <c r="A735" s="21"/>
       <c r="B735" s="21"/>
       <c r="C735" s="28"/>
@@ -36406,7 +36395,7 @@
       <c r="AG735" s="28"/>
       <c r="AH735" s="28"/>
     </row>
-    <row r="736" spans="1:34" ht="14.5" hidden="1">
+    <row r="736" spans="1:34" hidden="1">
       <c r="A736" s="21"/>
       <c r="B736" s="21"/>
       <c r="C736" s="28"/>
@@ -36442,7 +36431,7 @@
       <c r="AG736" s="28"/>
       <c r="AH736" s="28"/>
     </row>
-    <row r="737" spans="1:34" ht="14.5" hidden="1">
+    <row r="737" spans="1:34" hidden="1">
       <c r="A737" s="21"/>
       <c r="B737" s="21"/>
       <c r="C737" s="28"/>
@@ -36478,7 +36467,7 @@
       <c r="AG737" s="28"/>
       <c r="AH737" s="28"/>
     </row>
-    <row r="738" spans="1:34" ht="14.5" hidden="1">
+    <row r="738" spans="1:34" hidden="1">
       <c r="A738" s="21"/>
       <c r="B738" s="21"/>
       <c r="C738" s="28"/>
@@ -36514,7 +36503,7 @@
       <c r="AG738" s="28"/>
       <c r="AH738" s="28"/>
     </row>
-    <row r="739" spans="1:34" ht="14.5" hidden="1">
+    <row r="739" spans="1:34" hidden="1">
       <c r="A739" s="21"/>
       <c r="B739" s="21"/>
       <c r="C739" s="28"/>
@@ -36550,7 +36539,7 @@
       <c r="AG739" s="28"/>
       <c r="AH739" s="28"/>
     </row>
-    <row r="740" spans="1:34" ht="14.5" hidden="1">
+    <row r="740" spans="1:34" hidden="1">
       <c r="A740" s="21"/>
       <c r="B740" s="21"/>
       <c r="C740" s="28"/>
@@ -36586,7 +36575,7 @@
       <c r="AG740" s="28"/>
       <c r="AH740" s="28"/>
     </row>
-    <row r="741" spans="1:34" ht="14.5" hidden="1">
+    <row r="741" spans="1:34" hidden="1">
       <c r="A741" s="21"/>
       <c r="B741" s="21"/>
       <c r="C741" s="28"/>
@@ -36622,7 +36611,7 @@
       <c r="AG741" s="28"/>
       <c r="AH741" s="28"/>
     </row>
-    <row r="742" spans="1:34" ht="14.5" hidden="1">
+    <row r="742" spans="1:34" hidden="1">
       <c r="A742" s="21"/>
       <c r="B742" s="21"/>
       <c r="C742" s="28"/>
@@ -36658,7 +36647,7 @@
       <c r="AG742" s="28"/>
       <c r="AH742" s="28"/>
     </row>
-    <row r="743" spans="1:34" ht="14.5" hidden="1">
+    <row r="743" spans="1:34" hidden="1">
       <c r="A743" s="21"/>
       <c r="B743" s="21"/>
       <c r="C743" s="28"/>
@@ -36694,7 +36683,7 @@
       <c r="AG743" s="28"/>
       <c r="AH743" s="28"/>
     </row>
-    <row r="744" spans="1:34" ht="14.5" hidden="1">
+    <row r="744" spans="1:34" hidden="1">
       <c r="A744" s="21"/>
       <c r="B744" s="21"/>
       <c r="C744" s="28"/>
@@ -36730,7 +36719,7 @@
       <c r="AG744" s="28"/>
       <c r="AH744" s="28"/>
     </row>
-    <row r="745" spans="1:34" ht="14.5" hidden="1">
+    <row r="745" spans="1:34" hidden="1">
       <c r="A745" s="21"/>
       <c r="B745" s="21"/>
       <c r="C745" s="28"/>
@@ -36766,7 +36755,7 @@
       <c r="AG745" s="28"/>
       <c r="AH745" s="28"/>
     </row>
-    <row r="746" spans="1:34" ht="14.5" hidden="1">
+    <row r="746" spans="1:34" hidden="1">
       <c r="A746" s="21"/>
       <c r="B746" s="21"/>
       <c r="C746" s="28"/>
@@ -36802,7 +36791,7 @@
       <c r="AG746" s="28"/>
       <c r="AH746" s="28"/>
     </row>
-    <row r="747" spans="1:34" ht="14.5" hidden="1">
+    <row r="747" spans="1:34" hidden="1">
       <c r="A747" s="21"/>
       <c r="B747" s="21"/>
       <c r="C747" s="28"/>
@@ -36838,7 +36827,7 @@
       <c r="AG747" s="28"/>
       <c r="AH747" s="28"/>
     </row>
-    <row r="748" spans="1:34" ht="14.5" hidden="1">
+    <row r="748" spans="1:34" hidden="1">
       <c r="A748" s="21"/>
       <c r="B748" s="21"/>
       <c r="C748" s="28"/>
@@ -36874,7 +36863,7 @@
       <c r="AG748" s="28"/>
       <c r="AH748" s="28"/>
     </row>
-    <row r="749" spans="1:34" ht="14.5" hidden="1">
+    <row r="749" spans="1:34" hidden="1">
       <c r="A749" s="21"/>
       <c r="B749" s="21"/>
       <c r="C749" s="28"/>
@@ -36910,7 +36899,7 @@
       <c r="AG749" s="28"/>
       <c r="AH749" s="28"/>
     </row>
-    <row r="750" spans="1:34" ht="14.5" hidden="1">
+    <row r="750" spans="1:34" hidden="1">
       <c r="A750" s="21"/>
       <c r="B750" s="21"/>
       <c r="C750" s="28"/>
@@ -36946,7 +36935,7 @@
       <c r="AG750" s="28"/>
       <c r="AH750" s="28"/>
     </row>
-    <row r="751" spans="1:34" ht="14.5" hidden="1">
+    <row r="751" spans="1:34" hidden="1">
       <c r="A751" s="21"/>
       <c r="B751" s="21"/>
       <c r="C751" s="28"/>
@@ -36982,7 +36971,7 @@
       <c r="AG751" s="28"/>
       <c r="AH751" s="28"/>
     </row>
-    <row r="752" spans="1:34" ht="14.5" hidden="1">
+    <row r="752" spans="1:34" hidden="1">
       <c r="A752" s="21"/>
       <c r="B752" s="21"/>
       <c r="C752" s="28"/>
@@ -37018,7 +37007,7 @@
       <c r="AG752" s="28"/>
       <c r="AH752" s="28"/>
     </row>
-    <row r="753" spans="1:34" ht="14.5" hidden="1">
+    <row r="753" spans="1:34" hidden="1">
       <c r="A753" s="21"/>
       <c r="B753" s="21"/>
       <c r="C753" s="28"/>
@@ -37054,7 +37043,7 @@
       <c r="AG753" s="28"/>
       <c r="AH753" s="28"/>
     </row>
-    <row r="754" spans="1:34" ht="14.5" hidden="1">
+    <row r="754" spans="1:34" hidden="1">
       <c r="A754" s="21"/>
       <c r="B754" s="21"/>
       <c r="C754" s="28"/>
@@ -37090,7 +37079,7 @@
       <c r="AG754" s="28"/>
       <c r="AH754" s="28"/>
     </row>
-    <row r="755" spans="1:34" ht="14.5" hidden="1">
+    <row r="755" spans="1:34" hidden="1">
       <c r="A755" s="21"/>
       <c r="B755" s="21"/>
       <c r="C755" s="28"/>
@@ -37126,7 +37115,7 @@
       <c r="AG755" s="28"/>
       <c r="AH755" s="28"/>
     </row>
-    <row r="756" spans="1:34" ht="14.5" hidden="1">
+    <row r="756" spans="1:34" hidden="1">
       <c r="A756" s="21"/>
       <c r="B756" s="21"/>
       <c r="C756" s="28"/>
@@ -37162,7 +37151,7 @@
       <c r="AG756" s="28"/>
       <c r="AH756" s="28"/>
     </row>
-    <row r="757" spans="1:34" ht="14.5" hidden="1">
+    <row r="757" spans="1:34" hidden="1">
       <c r="A757" s="21"/>
       <c r="B757" s="21"/>
       <c r="C757" s="28"/>
@@ -37198,7 +37187,7 @@
       <c r="AG757" s="28"/>
       <c r="AH757" s="28"/>
     </row>
-    <row r="758" spans="1:34" ht="14.5" hidden="1">
+    <row r="758" spans="1:34" hidden="1">
       <c r="A758" s="21"/>
       <c r="B758" s="21"/>
       <c r="C758" s="28"/>
@@ -37234,7 +37223,7 @@
       <c r="AG758" s="28"/>
       <c r="AH758" s="28"/>
     </row>
-    <row r="759" spans="1:34" ht="14.5" hidden="1">
+    <row r="759" spans="1:34" hidden="1">
       <c r="A759" s="21"/>
       <c r="B759" s="21"/>
       <c r="C759" s="28"/>
@@ -37270,7 +37259,7 @@
       <c r="AG759" s="28"/>
       <c r="AH759" s="28"/>
     </row>
-    <row r="760" spans="1:34" ht="14.5" hidden="1">
+    <row r="760" spans="1:34" hidden="1">
       <c r="A760" s="21"/>
       <c r="B760" s="21"/>
       <c r="C760" s="28"/>
@@ -37306,7 +37295,7 @@
       <c r="AG760" s="28"/>
       <c r="AH760" s="28"/>
     </row>
-    <row r="761" spans="1:34" ht="14.5" hidden="1">
+    <row r="761" spans="1:34" hidden="1">
       <c r="A761" s="21"/>
       <c r="B761" s="21"/>
       <c r="C761" s="28"/>
@@ -37342,7 +37331,7 @@
       <c r="AG761" s="28"/>
       <c r="AH761" s="28"/>
     </row>
-    <row r="762" spans="1:34" ht="14.5" hidden="1">
+    <row r="762" spans="1:34" hidden="1">
       <c r="A762" s="21"/>
       <c r="B762" s="21"/>
       <c r="C762" s="28"/>
@@ -37378,7 +37367,7 @@
       <c r="AG762" s="28"/>
       <c r="AH762" s="28"/>
     </row>
-    <row r="763" spans="1:34" ht="14.5" hidden="1">
+    <row r="763" spans="1:34" hidden="1">
       <c r="A763" s="21"/>
       <c r="B763" s="21"/>
       <c r="C763" s="28"/>
@@ -37414,7 +37403,7 @@
       <c r="AG763" s="28"/>
       <c r="AH763" s="28"/>
     </row>
-    <row r="764" spans="1:34" ht="14.5" hidden="1">
+    <row r="764" spans="1:34" hidden="1">
       <c r="A764" s="21"/>
       <c r="B764" s="21"/>
       <c r="C764" s="28"/>
@@ -37450,7 +37439,7 @@
       <c r="AG764" s="28"/>
       <c r="AH764" s="28"/>
     </row>
-    <row r="765" spans="1:34" ht="14.5" hidden="1">
+    <row r="765" spans="1:34" hidden="1">
       <c r="A765" s="21"/>
       <c r="B765" s="21"/>
       <c r="C765" s="28"/>
@@ -37486,7 +37475,7 @@
       <c r="AG765" s="28"/>
       <c r="AH765" s="28"/>
     </row>
-    <row r="766" spans="1:34" ht="14.5" hidden="1">
+    <row r="766" spans="1:34" hidden="1">
       <c r="A766" s="21"/>
       <c r="B766" s="21"/>
       <c r="C766" s="28"/>
@@ -37522,7 +37511,7 @@
       <c r="AG766" s="28"/>
       <c r="AH766" s="28"/>
     </row>
-    <row r="767" spans="1:34" ht="14.5" hidden="1">
+    <row r="767" spans="1:34" hidden="1">
       <c r="A767" s="21"/>
       <c r="B767" s="21"/>
       <c r="C767" s="28"/>
@@ -37558,7 +37547,7 @@
       <c r="AG767" s="28"/>
       <c r="AH767" s="28"/>
     </row>
-    <row r="768" spans="1:34" ht="14.5" hidden="1">
+    <row r="768" spans="1:34" hidden="1">
       <c r="A768" s="21"/>
       <c r="B768" s="21"/>
       <c r="C768" s="28"/>
@@ -37594,7 +37583,7 @@
       <c r="AG768" s="28"/>
       <c r="AH768" s="28"/>
     </row>
-    <row r="769" spans="1:34" ht="14.5" hidden="1">
+    <row r="769" spans="1:34" hidden="1">
       <c r="A769" s="21"/>
       <c r="B769" s="21"/>
       <c r="C769" s="28"/>
@@ -37630,7 +37619,7 @@
       <c r="AG769" s="28"/>
       <c r="AH769" s="28"/>
     </row>
-    <row r="770" spans="1:34" ht="14.5" hidden="1">
+    <row r="770" spans="1:34" hidden="1">
       <c r="A770" s="21"/>
       <c r="B770" s="21"/>
       <c r="C770" s="28"/>
@@ -37666,7 +37655,7 @@
       <c r="AG770" s="28"/>
       <c r="AH770" s="28"/>
     </row>
-    <row r="771" spans="1:34" ht="14.5" hidden="1">
+    <row r="771" spans="1:34" hidden="1">
       <c r="A771" s="21"/>
       <c r="B771" s="21"/>
       <c r="C771" s="28"/>
@@ -37702,7 +37691,7 @@
       <c r="AG771" s="28"/>
       <c r="AH771" s="28"/>
     </row>
-    <row r="772" spans="1:34" ht="14.5" hidden="1">
+    <row r="772" spans="1:34" hidden="1">
       <c r="A772" s="21"/>
       <c r="B772" s="21"/>
       <c r="C772" s="28"/>
@@ -37738,7 +37727,7 @@
       <c r="AG772" s="28"/>
       <c r="AH772" s="28"/>
     </row>
-    <row r="773" spans="1:34" ht="14.5" hidden="1">
+    <row r="773" spans="1:34" hidden="1">
       <c r="A773" s="21"/>
       <c r="B773" s="21"/>
       <c r="C773" s="28"/>
@@ -37774,7 +37763,7 @@
       <c r="AG773" s="28"/>
       <c r="AH773" s="28"/>
     </row>
-    <row r="774" spans="1:34" ht="14.5" hidden="1">
+    <row r="774" spans="1:34" hidden="1">
       <c r="A774" s="21"/>
       <c r="B774" s="21"/>
       <c r="C774" s="28"/>
@@ -37810,7 +37799,7 @@
       <c r="AG774" s="28"/>
       <c r="AH774" s="28"/>
     </row>
-    <row r="775" spans="1:34" ht="14.5" hidden="1">
+    <row r="775" spans="1:34" hidden="1">
       <c r="A775" s="21"/>
       <c r="B775" s="21"/>
       <c r="C775" s="28"/>
@@ -37846,7 +37835,7 @@
       <c r="AG775" s="28"/>
       <c r="AH775" s="28"/>
     </row>
-    <row r="776" spans="1:34" ht="14.5" hidden="1">
+    <row r="776" spans="1:34" hidden="1">
       <c r="A776" s="21"/>
       <c r="B776" s="21"/>
       <c r="C776" s="28"/>
@@ -37882,7 +37871,7 @@
       <c r="AG776" s="28"/>
       <c r="AH776" s="28"/>
     </row>
-    <row r="777" spans="1:34" ht="14.5" hidden="1">
+    <row r="777" spans="1:34" hidden="1">
       <c r="A777" s="21"/>
       <c r="B777" s="21"/>
       <c r="C777" s="28"/>
@@ -37918,7 +37907,7 @@
       <c r="AG777" s="28"/>
       <c r="AH777" s="28"/>
     </row>
-    <row r="778" spans="1:34" ht="14.5" hidden="1">
+    <row r="778" spans="1:34" hidden="1">
       <c r="A778" s="21"/>
       <c r="B778" s="21"/>
       <c r="C778" s="28"/>
@@ -37954,7 +37943,7 @@
       <c r="AG778" s="28"/>
       <c r="AH778" s="28"/>
     </row>
-    <row r="779" spans="1:34" ht="14.5" hidden="1">
+    <row r="779" spans="1:34" hidden="1">
       <c r="A779" s="21"/>
       <c r="B779" s="21"/>
       <c r="C779" s="28"/>
@@ -37990,7 +37979,7 @@
       <c r="AG779" s="28"/>
       <c r="AH779" s="28"/>
     </row>
-    <row r="780" spans="1:34" ht="14.5" hidden="1">
+    <row r="780" spans="1:34" hidden="1">
       <c r="A780" s="21"/>
       <c r="B780" s="21"/>
       <c r="C780" s="28"/>
@@ -38026,7 +38015,7 @@
       <c r="AG780" s="28"/>
       <c r="AH780" s="28"/>
     </row>
-    <row r="781" spans="1:34" ht="14.5" hidden="1">
+    <row r="781" spans="1:34" hidden="1">
       <c r="A781" s="21"/>
       <c r="B781" s="21"/>
       <c r="C781" s="28"/>
@@ -38062,7 +38051,7 @@
       <c r="AG781" s="28"/>
       <c r="AH781" s="28"/>
     </row>
-    <row r="782" spans="1:34" ht="14.5" hidden="1">
+    <row r="782" spans="1:34" hidden="1">
       <c r="A782" s="21"/>
       <c r="B782" s="21"/>
       <c r="C782" s="28"/>
@@ -38098,7 +38087,7 @@
       <c r="AG782" s="28"/>
       <c r="AH782" s="28"/>
     </row>
-    <row r="783" spans="1:34" ht="14.5" hidden="1">
+    <row r="783" spans="1:34" hidden="1">
       <c r="A783" s="21"/>
       <c r="B783" s="21"/>
       <c r="C783" s="28"/>
@@ -38134,7 +38123,7 @@
       <c r="AG783" s="28"/>
       <c r="AH783" s="28"/>
     </row>
-    <row r="784" spans="1:34" ht="14.5" hidden="1">
+    <row r="784" spans="1:34" hidden="1">
       <c r="A784" s="21"/>
       <c r="B784" s="21"/>
       <c r="C784" s="28"/>
@@ -38170,7 +38159,7 @@
       <c r="AG784" s="28"/>
       <c r="AH784" s="28"/>
     </row>
-    <row r="785" spans="1:34" ht="14.5" hidden="1">
+    <row r="785" spans="1:34" hidden="1">
       <c r="A785" s="21"/>
       <c r="B785" s="21"/>
       <c r="C785" s="28"/>
@@ -38206,7 +38195,7 @@
       <c r="AG785" s="28"/>
       <c r="AH785" s="28"/>
     </row>
-    <row r="786" spans="1:34" ht="14.5" hidden="1">
+    <row r="786" spans="1:34" hidden="1">
       <c r="A786" s="21"/>
       <c r="B786" s="21"/>
       <c r="C786" s="28"/>
@@ -38242,7 +38231,7 @@
       <c r="AG786" s="28"/>
       <c r="AH786" s="28"/>
     </row>
-    <row r="787" spans="1:34" ht="14.5" hidden="1">
+    <row r="787" spans="1:34" hidden="1">
       <c r="A787" s="21"/>
       <c r="B787" s="21"/>
       <c r="C787" s="28"/>
@@ -38278,7 +38267,7 @@
       <c r="AG787" s="28"/>
       <c r="AH787" s="28"/>
     </row>
-    <row r="788" spans="1:34" ht="14.5" hidden="1">
+    <row r="788" spans="1:34" hidden="1">
       <c r="A788" s="21"/>
       <c r="B788" s="21"/>
       <c r="C788" s="28"/>
@@ -38314,7 +38303,7 @@
       <c r="AG788" s="28"/>
       <c r="AH788" s="28"/>
     </row>
-    <row r="789" spans="1:34" ht="14.5" hidden="1">
+    <row r="789" spans="1:34" hidden="1">
       <c r="A789" s="21"/>
       <c r="B789" s="21"/>
       <c r="C789" s="28"/>
@@ -38350,7 +38339,7 @@
       <c r="AG789" s="28"/>
       <c r="AH789" s="28"/>
     </row>
-    <row r="790" spans="1:34" ht="14.5" hidden="1">
+    <row r="790" spans="1:34" hidden="1">
       <c r="A790" s="21"/>
       <c r="B790" s="21"/>
       <c r="C790" s="28"/>
@@ -38386,7 +38375,7 @@
       <c r="AG790" s="28"/>
       <c r="AH790" s="28"/>
     </row>
-    <row r="791" spans="1:34" ht="14.5" hidden="1">
+    <row r="791" spans="1:34" hidden="1">
       <c r="A791" s="21"/>
       <c r="B791" s="21"/>
       <c r="C791" s="28"/>
@@ -38422,7 +38411,7 @@
       <c r="AG791" s="28"/>
       <c r="AH791" s="28"/>
     </row>
-    <row r="792" spans="1:34" ht="14.5" hidden="1">
+    <row r="792" spans="1:34" hidden="1">
       <c r="A792" s="21"/>
       <c r="B792" s="21"/>
       <c r="C792" s="28"/>
@@ -38458,7 +38447,7 @@
       <c r="AG792" s="28"/>
       <c r="AH792" s="28"/>
     </row>
-    <row r="793" spans="1:34" ht="14.5" hidden="1">
+    <row r="793" spans="1:34" hidden="1">
       <c r="A793" s="21"/>
       <c r="B793" s="21"/>
       <c r="C793" s="28"/>
@@ -38494,7 +38483,7 @@
       <c r="AG793" s="28"/>
       <c r="AH793" s="28"/>
     </row>
-    <row r="794" spans="1:34" ht="14.5" hidden="1">
+    <row r="794" spans="1:34" hidden="1">
       <c r="A794" s="21"/>
       <c r="B794" s="21"/>
       <c r="C794" s="28"/>
@@ -38530,7 +38519,7 @@
       <c r="AG794" s="28"/>
       <c r="AH794" s="28"/>
     </row>
-    <row r="795" spans="1:34" ht="14.5" hidden="1">
+    <row r="795" spans="1:34" hidden="1">
       <c r="A795" s="21"/>
       <c r="B795" s="21"/>
       <c r="C795" s="28"/>
@@ -38566,7 +38555,7 @@
       <c r="AG795" s="28"/>
       <c r="AH795" s="28"/>
     </row>
-    <row r="796" spans="1:34" ht="14.5" hidden="1">
+    <row r="796" spans="1:34" hidden="1">
       <c r="A796" s="21"/>
       <c r="B796" s="21"/>
       <c r="C796" s="28"/>
@@ -38602,7 +38591,7 @@
       <c r="AG796" s="28"/>
       <c r="AH796" s="28"/>
     </row>
-    <row r="797" spans="1:34" ht="14.5" hidden="1">
+    <row r="797" spans="1:34" hidden="1">
       <c r="A797" s="21"/>
       <c r="B797" s="21"/>
       <c r="C797" s="28"/>
@@ -38638,7 +38627,7 @@
       <c r="AG797" s="28"/>
       <c r="AH797" s="28"/>
     </row>
-    <row r="798" spans="1:34" ht="14.5" hidden="1">
+    <row r="798" spans="1:34" hidden="1">
       <c r="A798" s="21"/>
       <c r="B798" s="21"/>
       <c r="C798" s="28"/>
@@ -38674,7 +38663,7 @@
       <c r="AG798" s="28"/>
       <c r="AH798" s="28"/>
     </row>
-    <row r="799" spans="1:34" ht="14.5" hidden="1">
+    <row r="799" spans="1:34" hidden="1">
       <c r="A799" s="21"/>
       <c r="B799" s="21"/>
       <c r="C799" s="28"/>
@@ -38710,7 +38699,7 @@
       <c r="AG799" s="28"/>
       <c r="AH799" s="28"/>
     </row>
-    <row r="800" spans="1:34" ht="14.5" hidden="1">
+    <row r="800" spans="1:34" hidden="1">
       <c r="A800" s="21"/>
       <c r="B800" s="21"/>
       <c r="C800" s="28"/>
@@ -38746,7 +38735,7 @@
       <c r="AG800" s="28"/>
       <c r="AH800" s="28"/>
     </row>
-    <row r="801" spans="1:34" ht="14.5" hidden="1">
+    <row r="801" spans="1:34" hidden="1">
       <c r="A801" s="21"/>
       <c r="B801" s="21"/>
       <c r="C801" s="28"/>
@@ -38782,7 +38771,7 @@
       <c r="AG801" s="28"/>
       <c r="AH801" s="28"/>
     </row>
-    <row r="802" spans="1:34" ht="14.5" hidden="1">
+    <row r="802" spans="1:34" hidden="1">
       <c r="A802" s="21"/>
       <c r="B802" s="21"/>
       <c r="C802" s="28"/>
@@ -38818,7 +38807,7 @@
       <c r="AG802" s="28"/>
       <c r="AH802" s="28"/>
     </row>
-    <row r="803" spans="1:34" ht="14.5" hidden="1">
+    <row r="803" spans="1:34" hidden="1">
       <c r="A803" s="21"/>
       <c r="B803" s="21"/>
       <c r="C803" s="28"/>
@@ -38854,7 +38843,7 @@
       <c r="AG803" s="28"/>
       <c r="AH803" s="28"/>
     </row>
-    <row r="804" spans="1:34" ht="14.5" hidden="1">
+    <row r="804" spans="1:34" hidden="1">
       <c r="A804" s="21"/>
       <c r="B804" s="21"/>
       <c r="C804" s="28"/>
@@ -38890,7 +38879,7 @@
       <c r="AG804" s="28"/>
       <c r="AH804" s="28"/>
     </row>
-    <row r="805" spans="1:34" ht="14.5" hidden="1">
+    <row r="805" spans="1:34" hidden="1">
       <c r="A805" s="21"/>
       <c r="B805" s="21"/>
       <c r="C805" s="28"/>
@@ -38926,7 +38915,7 @@
       <c r="AG805" s="28"/>
       <c r="AH805" s="28"/>
     </row>
-    <row r="806" spans="1:34" ht="14.5" hidden="1">
+    <row r="806" spans="1:34" hidden="1">
       <c r="A806" s="21"/>
       <c r="B806" s="21"/>
       <c r="C806" s="28"/>
@@ -38962,7 +38951,7 @@
       <c r="AG806" s="28"/>
       <c r="AH806" s="28"/>
     </row>
-    <row r="807" spans="1:34" ht="14.5" hidden="1">
+    <row r="807" spans="1:34" hidden="1">
       <c r="A807" s="21"/>
       <c r="B807" s="21"/>
       <c r="C807" s="28"/>
@@ -38998,7 +38987,7 @@
       <c r="AG807" s="28"/>
       <c r="AH807" s="28"/>
     </row>
-    <row r="808" spans="1:34" ht="14.5" hidden="1">
+    <row r="808" spans="1:34" hidden="1">
       <c r="A808" s="21"/>
       <c r="B808" s="21"/>
       <c r="C808" s="28"/>
@@ -39034,7 +39023,7 @@
       <c r="AG808" s="28"/>
       <c r="AH808" s="28"/>
     </row>
-    <row r="809" spans="1:34" ht="14.5" hidden="1">
+    <row r="809" spans="1:34" hidden="1">
       <c r="A809" s="21"/>
       <c r="B809" s="21"/>
       <c r="C809" s="28"/>
@@ -39070,7 +39059,7 @@
       <c r="AG809" s="28"/>
       <c r="AH809" s="28"/>
     </row>
-    <row r="810" spans="1:34" ht="14.5" hidden="1">
+    <row r="810" spans="1:34" hidden="1">
       <c r="A810" s="21"/>
       <c r="B810" s="21"/>
       <c r="C810" s="28"/>
@@ -39106,7 +39095,7 @@
       <c r="AG810" s="28"/>
       <c r="AH810" s="28"/>
     </row>
-    <row r="811" spans="1:34" ht="14.5" hidden="1">
+    <row r="811" spans="1:34" hidden="1">
       <c r="A811" s="21"/>
       <c r="B811" s="21"/>
       <c r="C811" s="28"/>
@@ -39142,7 +39131,7 @@
       <c r="AG811" s="28"/>
       <c r="AH811" s="28"/>
     </row>
-    <row r="812" spans="1:34" ht="14.5" hidden="1">
+    <row r="812" spans="1:34" hidden="1">
       <c r="A812" s="21"/>
       <c r="B812" s="21"/>
       <c r="C812" s="28"/>
@@ -39178,7 +39167,7 @@
       <c r="AG812" s="28"/>
       <c r="AH812" s="28"/>
     </row>
-    <row r="813" spans="1:34" ht="14.5" hidden="1">
+    <row r="813" spans="1:34" hidden="1">
       <c r="A813" s="21"/>
       <c r="B813" s="21"/>
       <c r="C813" s="28"/>
@@ -39214,7 +39203,7 @@
       <c r="AG813" s="28"/>
       <c r="AH813" s="28"/>
     </row>
-    <row r="814" spans="1:34" ht="14.5" hidden="1">
+    <row r="814" spans="1:34" hidden="1">
       <c r="A814" s="21"/>
       <c r="B814" s="21"/>
       <c r="C814" s="28"/>
@@ -39250,7 +39239,7 @@
       <c r="AG814" s="28"/>
       <c r="AH814" s="28"/>
     </row>
-    <row r="815" spans="1:34" ht="14.5" hidden="1">
+    <row r="815" spans="1:34" hidden="1">
       <c r="A815" s="21"/>
       <c r="B815" s="21"/>
       <c r="C815" s="28"/>
@@ -39286,7 +39275,7 @@
       <c r="AG815" s="28"/>
       <c r="AH815" s="28"/>
     </row>
-    <row r="816" spans="1:34" ht="14.5" hidden="1">
+    <row r="816" spans="1:34" hidden="1">
       <c r="A816" s="21"/>
       <c r="B816" s="21"/>
       <c r="C816" s="28"/>
@@ -39322,7 +39311,7 @@
       <c r="AG816" s="28"/>
       <c r="AH816" s="28"/>
     </row>
-    <row r="817" spans="1:34" ht="14.5" hidden="1">
+    <row r="817" spans="1:34" hidden="1">
       <c r="A817" s="21"/>
       <c r="B817" s="21"/>
       <c r="C817" s="28"/>
@@ -39358,7 +39347,7 @@
       <c r="AG817" s="28"/>
       <c r="AH817" s="28"/>
     </row>
-    <row r="818" spans="1:34" ht="14.5" hidden="1">
+    <row r="818" spans="1:34" hidden="1">
       <c r="A818" s="21"/>
       <c r="B818" s="21"/>
       <c r="C818" s="28"/>
@@ -39394,7 +39383,7 @@
       <c r="AG818" s="28"/>
       <c r="AH818" s="28"/>
     </row>
-    <row r="819" spans="1:34" ht="14.5" hidden="1">
+    <row r="819" spans="1:34" hidden="1">
       <c r="A819" s="21"/>
       <c r="B819" s="21"/>
       <c r="C819" s="28"/>
@@ -39430,7 +39419,7 @@
       <c r="AG819" s="28"/>
       <c r="AH819" s="28"/>
     </row>
-    <row r="820" spans="1:34" ht="14.5" hidden="1">
+    <row r="820" spans="1:34" hidden="1">
       <c r="A820" s="21"/>
       <c r="B820" s="21"/>
       <c r="C820" s="28"/>
@@ -39466,7 +39455,7 @@
       <c r="AG820" s="28"/>
       <c r="AH820" s="28"/>
     </row>
-    <row r="821" spans="1:34" ht="14.5" hidden="1">
+    <row r="821" spans="1:34" hidden="1">
       <c r="A821" s="21"/>
       <c r="B821" s="21"/>
       <c r="C821" s="28"/>
@@ -39502,7 +39491,7 @@
       <c r="AG821" s="28"/>
       <c r="AH821" s="28"/>
     </row>
-    <row r="822" spans="1:34" ht="14.5" hidden="1">
+    <row r="822" spans="1:34" hidden="1">
       <c r="A822" s="21"/>
       <c r="B822" s="21"/>
       <c r="C822" s="28"/>
@@ -39538,7 +39527,7 @@
       <c r="AG822" s="28"/>
       <c r="AH822" s="28"/>
     </row>
-    <row r="823" spans="1:34" ht="14.5" hidden="1">
+    <row r="823" spans="1:34" hidden="1">
       <c r="A823" s="21"/>
       <c r="B823" s="21"/>
       <c r="C823" s="28"/>
@@ -39574,7 +39563,7 @@
       <c r="AG823" s="28"/>
       <c r="AH823" s="28"/>
     </row>
-    <row r="824" spans="1:34" ht="14.5" hidden="1">
+    <row r="824" spans="1:34" hidden="1">
       <c r="A824" s="21"/>
       <c r="B824" s="21"/>
       <c r="C824" s="28"/>
@@ -39610,7 +39599,7 @@
       <c r="AG824" s="28"/>
       <c r="AH824" s="28"/>
     </row>
-    <row r="825" spans="1:34" ht="14.5" hidden="1">
+    <row r="825" spans="1:34" hidden="1">
       <c r="A825" s="21"/>
       <c r="B825" s="21"/>
       <c r="C825" s="28"/>
@@ -39646,7 +39635,7 @@
       <c r="AG825" s="28"/>
       <c r="AH825" s="28"/>
     </row>
-    <row r="826" spans="1:34" ht="14.5" hidden="1">
+    <row r="826" spans="1:34" hidden="1">
       <c r="A826" s="21"/>
       <c r="B826" s="21"/>
       <c r="C826" s="28"/>
@@ -39682,7 +39671,7 @@
       <c r="AG826" s="28"/>
       <c r="AH826" s="28"/>
     </row>
-    <row r="827" spans="1:34" ht="14.5" hidden="1">
+    <row r="827" spans="1:34" hidden="1">
       <c r="A827" s="21"/>
       <c r="B827" s="21"/>
       <c r="C827" s="28"/>
@@ -39718,7 +39707,7 @@
       <c r="AG827" s="28"/>
       <c r="AH827" s="28"/>
     </row>
-    <row r="828" spans="1:34" ht="14.5" hidden="1">
+    <row r="828" spans="1:34" hidden="1">
       <c r="A828" s="21"/>
       <c r="B828" s="21"/>
       <c r="C828" s="28"/>
@@ -39754,7 +39743,7 @@
       <c r="AG828" s="28"/>
       <c r="AH828" s="28"/>
     </row>
-    <row r="829" spans="1:34" ht="14.5" hidden="1">
+    <row r="829" spans="1:34" hidden="1">
       <c r="A829" s="21"/>
       <c r="B829" s="21"/>
       <c r="C829" s="28"/>
@@ -39790,7 +39779,7 @@
       <c r="AG829" s="28"/>
       <c r="AH829" s="28"/>
     </row>
-    <row r="830" spans="1:34" ht="14.5" hidden="1">
+    <row r="830" spans="1:34" hidden="1">
       <c r="A830" s="21"/>
       <c r="B830" s="21"/>
       <c r="C830" s="28"/>
@@ -39826,7 +39815,7 @@
       <c r="AG830" s="28"/>
       <c r="AH830" s="28"/>
     </row>
-    <row r="831" spans="1:34" ht="14.5" hidden="1">
+    <row r="831" spans="1:34" hidden="1">
       <c r="A831" s="21"/>
       <c r="B831" s="21"/>
       <c r="C831" s="28"/>
@@ -39862,7 +39851,7 @@
       <c r="AG831" s="28"/>
       <c r="AH831" s="28"/>
     </row>
-    <row r="832" spans="1:34" ht="14.5" hidden="1">
+    <row r="832" spans="1:34" hidden="1">
       <c r="A832" s="21"/>
       <c r="B832" s="21"/>
       <c r="C832" s="28"/>
@@ -39898,7 +39887,7 @@
       <c r="AG832" s="28"/>
       <c r="AH832" s="28"/>
     </row>
-    <row r="833" spans="1:34" ht="14.5" hidden="1">
+    <row r="833" spans="1:34" hidden="1">
       <c r="A833" s="21"/>
       <c r="B833" s="21"/>
       <c r="C833" s="28"/>
@@ -39934,7 +39923,7 @@
       <c r="AG833" s="28"/>
       <c r="AH833" s="28"/>
     </row>
-    <row r="834" spans="1:34" ht="14.5" hidden="1">
+    <row r="834" spans="1:34" hidden="1">
       <c r="A834" s="21"/>
       <c r="B834" s="21"/>
       <c r="C834" s="28"/>
@@ -39970,7 +39959,7 @@
       <c r="AG834" s="28"/>
       <c r="AH834" s="28"/>
     </row>
-    <row r="835" spans="1:34" ht="14.5" hidden="1">
+    <row r="835" spans="1:34" hidden="1">
       <c r="A835" s="21"/>
       <c r="B835" s="21"/>
       <c r="C835" s="28"/>
@@ -40006,7 +39995,7 @@
       <c r="AG835" s="28"/>
       <c r="AH835" s="28"/>
     </row>
-    <row r="836" spans="1:34" ht="14.5" hidden="1">
+    <row r="836" spans="1:34" hidden="1">
       <c r="A836" s="21"/>
       <c r="B836" s="21"/>
       <c r="C836" s="28"/>
@@ -40042,7 +40031,7 @@
       <c r="AG836" s="28"/>
       <c r="AH836" s="28"/>
     </row>
-    <row r="837" spans="1:34" ht="14.5" hidden="1">
+    <row r="837" spans="1:34" hidden="1">
       <c r="A837" s="21"/>
       <c r="B837" s="21"/>
       <c r="C837" s="28"/>
@@ -40078,7 +40067,7 @@
       <c r="AG837" s="28"/>
       <c r="AH837" s="28"/>
     </row>
-    <row r="838" spans="1:34" ht="14.5" hidden="1">
+    <row r="838" spans="1:34" hidden="1">
       <c r="A838" s="21"/>
       <c r="B838" s="21"/>
       <c r="C838" s="28"/>
@@ -40114,7 +40103,7 @@
       <c r="AG838" s="28"/>
       <c r="AH838" s="28"/>
     </row>
-    <row r="839" spans="1:34" ht="14.5" hidden="1">
+    <row r="839" spans="1:34" hidden="1">
       <c r="A839" s="21"/>
       <c r="B839" s="21"/>
       <c r="C839" s="28"/>
@@ -40150,7 +40139,7 @@
       <c r="AG839" s="28"/>
       <c r="AH839" s="28"/>
     </row>
-    <row r="840" spans="1:34" ht="14.5" hidden="1">
+    <row r="840" spans="1:34" hidden="1">
       <c r="A840" s="21"/>
       <c r="B840" s="21"/>
       <c r="C840" s="28"/>
@@ -40186,7 +40175,7 @@
       <c r="AG840" s="28"/>
       <c r="AH840" s="28"/>
     </row>
-    <row r="841" spans="1:34" ht="14.5" hidden="1">
+    <row r="841" spans="1:34" hidden="1">
       <c r="A841" s="21"/>
       <c r="B841" s="21"/>
       <c r="C841" s="28"/>
@@ -40222,7 +40211,7 @@
       <c r="AG841" s="28"/>
       <c r="AH841" s="28"/>
     </row>
-    <row r="842" spans="1:34" ht="14.5" hidden="1">
+    <row r="842" spans="1:34" hidden="1">
       <c r="A842" s="21"/>
       <c r="B842" s="21"/>
       <c r="C842" s="28"/>
@@ -40258,7 +40247,7 @@
       <c r="AG842" s="28"/>
       <c r="AH842" s="28"/>
     </row>
-    <row r="843" spans="1:34" ht="14.5" hidden="1">
+    <row r="843" spans="1:34" hidden="1">
       <c r="A843" s="21"/>
       <c r="B843" s="21"/>
       <c r="C843" s="28"/>
@@ -40294,7 +40283,7 @@
       <c r="AG843" s="28"/>
       <c r="AH843" s="28"/>
     </row>
-    <row r="844" spans="1:34" ht="14.5" hidden="1">
+    <row r="844" spans="1:34" hidden="1">
       <c r="A844" s="21"/>
       <c r="B844" s="21"/>
       <c r="C844" s="28"/>
@@ -40330,7 +40319,7 @@
       <c r="AG844" s="28"/>
       <c r="AH844" s="28"/>
     </row>
-    <row r="845" spans="1:34" ht="14.5" hidden="1">
+    <row r="845" spans="1:34" hidden="1">
       <c r="A845" s="21"/>
       <c r="B845" s="21"/>
       <c r="C845" s="28"/>
@@ -40366,7 +40355,7 @@
       <c r="AG845" s="28"/>
       <c r="AH845" s="28"/>
     </row>
-    <row r="846" spans="1:34" ht="14.5" hidden="1">
+    <row r="846" spans="1:34" hidden="1">
       <c r="A846" s="21"/>
       <c r="B846" s="21"/>
       <c r="C846" s="28"/>
@@ -40402,7 +40391,7 @@
       <c r="AG846" s="28"/>
       <c r="AH846" s="28"/>
     </row>
-    <row r="847" spans="1:34" ht="14.5" hidden="1">
+    <row r="847" spans="1:34" hidden="1">
       <c r="A847" s="21"/>
       <c r="B847" s="21"/>
       <c r="C847" s="28"/>
@@ -40438,7 +40427,7 @@
       <c r="AG847" s="28"/>
       <c r="AH847" s="28"/>
     </row>
-    <row r="848" spans="1:34" ht="14.5" hidden="1">
+    <row r="848" spans="1:34" hidden="1">
       <c r="A848" s="21"/>
       <c r="B848" s="21"/>
       <c r="C848" s="28"/>
@@ -40474,7 +40463,7 @@
       <c r="AG848" s="28"/>
       <c r="AH848" s="28"/>
     </row>
-    <row r="849" spans="1:34" ht="14.5" hidden="1">
+    <row r="849" spans="1:34" hidden="1">
       <c r="A849" s="21"/>
       <c r="B849" s="21"/>
       <c r="C849" s="28"/>
@@ -40510,7 +40499,7 @@
       <c r="AG849" s="28"/>
       <c r="AH849" s="28"/>
     </row>
-    <row r="850" spans="1:34" ht="14.5" hidden="1">
+    <row r="850" spans="1:34" hidden="1">
       <c r="A850" s="21"/>
       <c r="B850" s="21"/>
       <c r="C850" s="28"/>
@@ -40546,7 +40535,7 @@
       <c r="AG850" s="28"/>
       <c r="AH850" s="28"/>
     </row>
-    <row r="851" spans="1:34" ht="14.5" hidden="1">
+    <row r="851" spans="1:34" hidden="1">
       <c r="A851" s="21"/>
       <c r="B851" s="21"/>
       <c r="C851" s="28"/>
@@ -40582,7 +40571,7 @@
       <c r="AG851" s="28"/>
       <c r="AH851" s="28"/>
     </row>
-    <row r="852" spans="1:34" ht="14.5" hidden="1">
+    <row r="852" spans="1:34" hidden="1">
       <c r="A852" s="21"/>
       <c r="B852" s="21"/>
       <c r="C852" s="28"/>
@@ -40618,7 +40607,7 @@
       <c r="AG852" s="28"/>
       <c r="AH852" s="28"/>
     </row>
-    <row r="853" spans="1:34" ht="14.5" hidden="1">
+    <row r="853" spans="1:34" hidden="1">
       <c r="A853" s="21"/>
       <c r="B853" s="21"/>
       <c r="C853" s="28"/>
@@ -40654,7 +40643,7 @@
       <c r="AG853" s="28"/>
       <c r="AH853" s="28"/>
     </row>
-    <row r="854" spans="1:34" ht="14.5" hidden="1">
+    <row r="854" spans="1:34" hidden="1">
       <c r="A854" s="21"/>
       <c r="B854" s="21"/>
       <c r="C854" s="28"/>
@@ -40690,7 +40679,7 @@
       <c r="AG854" s="28"/>
       <c r="AH854" s="28"/>
     </row>
-    <row r="855" spans="1:34" ht="14.5" hidden="1">
+    <row r="855" spans="1:34" hidden="1">
       <c r="A855" s="21"/>
       <c r="B855" s="21"/>
       <c r="C855" s="28"/>
@@ -40726,7 +40715,7 @@
       <c r="AG855" s="28"/>
       <c r="AH855" s="28"/>
     </row>
-    <row r="856" spans="1:34" ht="14.5" hidden="1">
+    <row r="856" spans="1:34" hidden="1">
       <c r="A856" s="21"/>
       <c r="B856" s="21"/>
       <c r="C856" s="28"/>
@@ -40762,7 +40751,7 @@
       <c r="AG856" s="28"/>
       <c r="AH856" s="28"/>
     </row>
-    <row r="857" spans="1:34" ht="14.5" hidden="1">
+    <row r="857" spans="1:34" hidden="1">
       <c r="A857" s="21"/>
       <c r="B857" s="21"/>
       <c r="C857" s="28"/>
@@ -40798,7 +40787,7 @@
       <c r="AG857" s="28"/>
       <c r="AH857" s="28"/>
     </row>
-    <row r="858" spans="1:34" ht="14.5" hidden="1">
+    <row r="858" spans="1:34" hidden="1">
       <c r="A858" s="21"/>
       <c r="B858" s="21"/>
       <c r="C858" s="28"/>
@@ -40834,7 +40823,7 @@
       <c r="AG858" s="28"/>
       <c r="AH858" s="28"/>
     </row>
-    <row r="859" spans="1:34" ht="14.5" hidden="1">
+    <row r="859" spans="1:34" hidden="1">
       <c r="A859" s="21"/>
       <c r="B859" s="21"/>
       <c r="C859" s="28"/>
@@ -40870,7 +40859,7 @@
       <c r="AG859" s="28"/>
       <c r="AH859" s="28"/>
     </row>
-    <row r="860" spans="1:34" ht="14.5" hidden="1">
+    <row r="860" spans="1:34" hidden="1">
       <c r="A860" s="21"/>
       <c r="B860" s="21"/>
       <c r="C860" s="28"/>
@@ -40906,7 +40895,7 @@
       <c r="AG860" s="28"/>
       <c r="AH860" s="28"/>
     </row>
-    <row r="861" spans="1:34" ht="14.5" hidden="1">
+    <row r="861" spans="1:34" hidden="1">
       <c r="A861" s="21"/>
       <c r="B861" s="21"/>
       <c r="C861" s="28"/>
@@ -40942,7 +40931,7 @@
       <c r="AG861" s="28"/>
       <c r="AH861" s="28"/>
     </row>
-    <row r="862" spans="1:34" ht="14.5" hidden="1">
+    <row r="862" spans="1:34" hidden="1">
       <c r="A862" s="21"/>
       <c r="B862" s="21"/>
       <c r="C862" s="28"/>
@@ -40978,7 +40967,7 @@
       <c r="AG862" s="28"/>
       <c r="AH862" s="28"/>
     </row>
-    <row r="863" spans="1:34" ht="14.5" hidden="1">
+    <row r="863" spans="1:34" hidden="1">
       <c r="A863" s="21"/>
       <c r="B863" s="21"/>
       <c r="C863" s="28"/>
@@ -41014,7 +41003,7 @@
       <c r="AG863" s="28"/>
       <c r="AH863" s="28"/>
     </row>
-    <row r="864" spans="1:34" ht="14.5" hidden="1">
+    <row r="864" spans="1:34" hidden="1">
       <c r="A864" s="21"/>
       <c r="B864" s="21"/>
       <c r="C864" s="28"/>
@@ -41050,7 +41039,7 @@
       <c r="AG864" s="28"/>
       <c r="AH864" s="28"/>
     </row>
-    <row r="865" spans="1:34" ht="14.5" hidden="1">
+    <row r="865" spans="1:34" hidden="1">
       <c r="A865" s="21"/>
       <c r="B865" s="21"/>
       <c r="C865" s="28"/>
@@ -41086,7 +41075,7 @@
       <c r="AG865" s="28"/>
       <c r="AH865" s="28"/>
     </row>
-    <row r="866" spans="1:34" ht="14.5" hidden="1">
+    <row r="866" spans="1:34" hidden="1">
       <c r="A866" s="21"/>
       <c r="B866" s="21"/>
       <c r="C866" s="28"/>
@@ -41122,7 +41111,7 @@
       <c r="AG866" s="28"/>
       <c r="AH866" s="28"/>
     </row>
-    <row r="867" spans="1:34" ht="14.5" hidden="1">
+    <row r="867" spans="1:34" hidden="1">
       <c r="A867" s="21"/>
       <c r="B867" s="21"/>
       <c r="C867" s="28"/>
@@ -41158,7 +41147,7 @@
       <c r="AG867" s="28"/>
       <c r="AH867" s="28"/>
     </row>
-    <row r="868" spans="1:34" ht="14.5" hidden="1">
+    <row r="868" spans="1:34" hidden="1">
       <c r="A868" s="21"/>
       <c r="B868" s="21"/>
       <c r="C868" s="28"/>
@@ -41194,7 +41183,7 @@
       <c r="AG868" s="28"/>
       <c r="AH868" s="28"/>
     </row>
-    <row r="869" spans="1:34" ht="14.5" hidden="1">
+    <row r="869" spans="1:34" hidden="1">
       <c r="A869" s="21"/>
       <c r="B869" s="21"/>
       <c r="C869" s="28"/>
@@ -41230,7 +41219,7 @@
       <c r="AG869" s="28"/>
       <c r="AH869" s="28"/>
     </row>
-    <row r="870" spans="1:34" ht="14.5" hidden="1">
+    <row r="870" spans="1:34" hidden="1">
       <c r="A870" s="21"/>
       <c r="B870" s="21"/>
       <c r="C870" s="28"/>
@@ -41266,7 +41255,7 @@
       <c r="AG870" s="28"/>
       <c r="AH870" s="28"/>
     </row>
-    <row r="871" spans="1:34" ht="14.5" hidden="1">
+    <row r="871" spans="1:34" hidden="1">
       <c r="A871" s="21"/>
       <c r="B871" s="21"/>
       <c r="C871" s="28"/>
@@ -41302,7 +41291,7 @@
       <c r="AG871" s="28"/>
       <c r="AH871" s="28"/>
     </row>
-    <row r="872" spans="1:34" ht="14.5" hidden="1">
+    <row r="872" spans="1:34" hidden="1">
       <c r="A872" s="21"/>
       <c r="B872" s="21"/>
       <c r="C872" s="28"/>
@@ -41338,7 +41327,7 @@
       <c r="AG872" s="28"/>
       <c r="AH872" s="28"/>
     </row>
-    <row r="873" spans="1:34" ht="14.5" hidden="1">
+    <row r="873" spans="1:34" hidden="1">
       <c r="A873" s="21"/>
       <c r="B873" s="21"/>
       <c r="C873" s="28"/>
@@ -41374,7 +41363,7 @@
       <c r="AG873" s="28"/>
       <c r="AH873" s="28"/>
     </row>
-    <row r="874" spans="1:34" ht="14.5" hidden="1">
+    <row r="874" spans="1:34" hidden="1">
       <c r="A874" s="21"/>
       <c r="B874" s="21"/>
       <c r="C874" s="28"/>
@@ -41410,7 +41399,7 @@
       <c r="AG874" s="28"/>
       <c r="AH874" s="28"/>
     </row>
-    <row r="875" spans="1:34" ht="14.5" hidden="1">
+    <row r="875" spans="1:34" hidden="1">
       <c r="A875" s="21"/>
       <c r="B875" s="21"/>
       <c r="C875" s="28"/>
@@ -41446,7 +41435,7 @@
       <c r="AG875" s="28"/>
       <c r="AH875" s="28"/>
     </row>
-    <row r="876" spans="1:34" ht="14.5" hidden="1">
+    <row r="876" spans="1:34" hidden="1">
       <c r="A876" s="21"/>
       <c r="B876" s="21"/>
       <c r="C876" s="28"/>
@@ -41482,7 +41471,7 @@
       <c r="AG876" s="28"/>
       <c r="AH876" s="28"/>
     </row>
-    <row r="877" spans="1:34" ht="14.5" hidden="1">
+    <row r="877" spans="1:34" hidden="1">
       <c r="A877" s="21"/>
       <c r="B877" s="21"/>
       <c r="C877" s="28"/>
@@ -41518,7 +41507,7 @@
       <c r="AG877" s="28"/>
       <c r="AH877" s="28"/>
     </row>
-    <row r="878" spans="1:34" ht="14.5" hidden="1">
+    <row r="878" spans="1:34" hidden="1">
       <c r="A878" s="21"/>
       <c r="B878" s="21"/>
       <c r="C878" s="28"/>
@@ -41554,7 +41543,7 @@
       <c r="AG878" s="28"/>
       <c r="AH878" s="28"/>
     </row>
-    <row r="879" spans="1:34" ht="14.5" hidden="1">
+    <row r="879" spans="1:34" hidden="1">
       <c r="A879" s="21"/>
       <c r="B879" s="21"/>
       <c r="C879" s="28"/>
@@ -41590,7 +41579,7 @@
       <c r="AG879" s="28"/>
       <c r="AH879" s="28"/>
     </row>
-    <row r="880" spans="1:34" ht="14.5" hidden="1">
+    <row r="880" spans="1:34" hidden="1">
       <c r="A880" s="21"/>
       <c r="B880" s="21"/>
       <c r="C880" s="28"/>
@@ -41626,7 +41615,7 @@
       <c r="AG880" s="28"/>
       <c r="AH880" s="28"/>
     </row>
-    <row r="881" spans="1:34" ht="14.5" hidden="1">
+    <row r="881" spans="1:34" hidden="1">
       <c r="A881" s="21"/>
       <c r="B881" s="21"/>
       <c r="C881" s="28"/>
@@ -41662,7 +41651,7 @@
       <c r="AG881" s="28"/>
       <c r="AH881" s="28"/>
     </row>
-    <row r="882" spans="1:34" ht="14.5" hidden="1">
+    <row r="882" spans="1:34" hidden="1">
       <c r="A882" s="21"/>
       <c r="B882" s="21"/>
       <c r="C882" s="28"/>
@@ -41698,7 +41687,7 @@
       <c r="AG882" s="28"/>
       <c r="AH882" s="28"/>
     </row>
-    <row r="883" spans="1:34" ht="14.5" hidden="1">
+    <row r="883" spans="1:34" hidden="1">
       <c r="A883" s="21"/>
       <c r="B883" s="21"/>
       <c r="C883" s="28"/>
@@ -41734,7 +41723,7 @@
       <c r="AG883" s="28"/>
       <c r="AH883" s="28"/>
     </row>
-    <row r="884" spans="1:34" ht="14.5" hidden="1">
+    <row r="884" spans="1:34" hidden="1">
       <c r="A884" s="21"/>
       <c r="B884" s="21"/>
       <c r="C884" s="28"/>
@@ -41770,7 +41759,7 @@
       <c r="AG884" s="28"/>
       <c r="AH884" s="28"/>
     </row>
-    <row r="885" spans="1:34" ht="14.5" hidden="1">
+    <row r="885" spans="1:34" hidden="1">
       <c r="A885" s="21"/>
       <c r="B885" s="21"/>
       <c r="C885" s="28"/>
@@ -41806,7 +41795,7 @@
       <c r="AG885" s="28"/>
       <c r="AH885" s="28"/>
     </row>
-    <row r="886" spans="1:34" ht="14.5" hidden="1">
+    <row r="886" spans="1:34" hidden="1">
       <c r="A886" s="21"/>
       <c r="B886" s="21"/>
       <c r="C886" s="28"/>
@@ -41842,7 +41831,7 @@
       <c r="AG886" s="28"/>
       <c r="AH886" s="28"/>
     </row>
-    <row r="887" spans="1:34" ht="14.5" hidden="1">
+    <row r="887" spans="1:34" hidden="1">
       <c r="A887" s="21"/>
       <c r="B887" s="21"/>
       <c r="C887" s="28"/>
@@ -41878,7 +41867,7 @@
       <c r="AG887" s="28"/>
       <c r="AH887" s="28"/>
     </row>
-    <row r="888" spans="1:34" ht="14.5" hidden="1">
+    <row r="888" spans="1:34" hidden="1">
       <c r="A888" s="21"/>
       <c r="B888" s="21"/>
       <c r="C888" s="28"/>
@@ -41914,7 +41903,7 @@
       <c r="AG888" s="28"/>
       <c r="AH888" s="28"/>
     </row>
-    <row r="889" spans="1:34" ht="14.5" hidden="1">
+    <row r="889" spans="1:34" hidden="1">
       <c r="A889" s="21"/>
       <c r="B889" s="21"/>
       <c r="C889" s="28"/>
@@ -41950,7 +41939,7 @@
       <c r="AG889" s="28"/>
       <c r="AH889" s="28"/>
     </row>
-    <row r="890" spans="1:34" ht="14.5" hidden="1">
+    <row r="890" spans="1:34" hidden="1">
       <c r="A890" s="21"/>
       <c r="B890" s="21"/>
       <c r="C890" s="28"/>
@@ -41986,7 +41975,7 @@
       <c r="AG890" s="28"/>
       <c r="AH890" s="28"/>
     </row>
-    <row r="891" spans="1:34" ht="14.5" hidden="1">
+    <row r="891" spans="1:34" hidden="1">
       <c r="A891" s="21"/>
       <c r="B891" s="21"/>
       <c r="C891" s="28"/>
@@ -42022,7 +42011,7 @@
       <c r="AG891" s="28"/>
       <c r="AH891" s="28"/>
     </row>
-    <row r="892" spans="1:34" ht="14.5" hidden="1">
+    <row r="892" spans="1:34" hidden="1">
       <c r="A892" s="21"/>
       <c r="B892" s="21"/>
       <c r="C892" s="28"/>
@@ -42058,7 +42047,7 @@
       <c r="AG892" s="28"/>
       <c r="AH892" s="28"/>
     </row>
-    <row r="893" spans="1:34" ht="14.5" hidden="1">
+    <row r="893" spans="1:34" hidden="1">
       <c r="A893" s="21"/>
       <c r="B893" s="21"/>
       <c r="C893" s="28"/>
@@ -42094,7 +42083,7 @@
       <c r="AG893" s="28"/>
       <c r="AH893" s="28"/>
     </row>
-    <row r="894" spans="1:34" ht="14.5" hidden="1">
+    <row r="894" spans="1:34" hidden="1">
       <c r="A894" s="21"/>
       <c r="B894" s="21"/>
       <c r="C894" s="28"/>
@@ -42130,7 +42119,7 @@
       <c r="AG894" s="28"/>
       <c r="AH894" s="28"/>
     </row>
-    <row r="895" spans="1:34" ht="14.5" hidden="1">
+    <row r="895" spans="1:34" hidden="1">
       <c r="A895" s="21"/>
       <c r="B895" s="21"/>
       <c r="C895" s="28"/>
@@ -42166,7 +42155,7 @@
       <c r="AG895" s="28"/>
       <c r="AH895" s="28"/>
     </row>
-    <row r="896" spans="1:34" ht="14.5" hidden="1">
+    <row r="896" spans="1:34" hidden="1">
       <c r="A896" s="21"/>
       <c r="B896" s="21"/>
       <c r="C896" s="28"/>
@@ -42202,7 +42191,7 @@
       <c r="AG896" s="28"/>
       <c r="AH896" s="28"/>
     </row>
-    <row r="897" spans="1:34" ht="14.5" hidden="1">
+    <row r="897" spans="1:34" hidden="1">
       <c r="A897" s="21"/>
       <c r="B897" s="21"/>
       <c r="C897" s="28"/>
@@ -42238,7 +42227,7 @@
       <c r="AG897" s="28"/>
       <c r="AH897" s="28"/>
     </row>
-    <row r="898" spans="1:34" ht="14.5" hidden="1">
+    <row r="898" spans="1:34" hidden="1">
       <c r="A898" s="21"/>
       <c r="B898" s="21"/>
       <c r="C898" s="28"/>
@@ -42274,7 +42263,7 @@
       <c r="AG898" s="28"/>
       <c r="AH898" s="28"/>
     </row>
-    <row r="899" spans="1:34" ht="14.5" hidden="1">
+    <row r="899" spans="1:34" hidden="1">
       <c r="A899" s="21"/>
       <c r="B899" s="21"/>
       <c r="C899" s="28"/>
@@ -42310,7 +42299,7 @@
       <c r="AG899" s="28"/>
       <c r="AH899" s="28"/>
     </row>
-    <row r="900" spans="1:34" ht="14.5" hidden="1">
+    <row r="900" spans="1:34" hidden="1">
       <c r="A900" s="21"/>
       <c r="B900" s="21"/>
       <c r="C900" s="28"/>
@@ -42346,7 +42335,7 @@
       <c r="AG900" s="28"/>
       <c r="AH900" s="28"/>
     </row>
-    <row r="901" spans="1:34" ht="14.5" hidden="1">
+    <row r="901" spans="1:34" hidden="1">
       <c r="A901" s="21"/>
       <c r="B901" s="21"/>
       <c r="C901" s="28"/>
@@ -42382,7 +42371,7 @@
       <c r="AG901" s="28"/>
       <c r="AH901" s="28"/>
     </row>
-    <row r="902" spans="1:34" ht="14.5" hidden="1">
+    <row r="902" spans="1:34" hidden="1">
       <c r="A902" s="21"/>
       <c r="B902" s="21"/>
       <c r="C902" s="28"/>
@@ -42418,7 +42407,7 @@
       <c r="AG902" s="28"/>
       <c r="AH902" s="28"/>
     </row>
-    <row r="903" spans="1:34" ht="14.5" hidden="1">
+    <row r="903" spans="1:34" hidden="1">
       <c r="A903" s="21"/>
       <c r="B903" s="21"/>
       <c r="C903" s="28"/>
@@ -42454,7 +42443,7 @@
       <c r="AG903" s="28"/>
       <c r="AH903" s="28"/>
     </row>
-    <row r="904" spans="1:34" ht="14.5" hidden="1">
+    <row r="904" spans="1:34" hidden="1">
       <c r="A904" s="21"/>
       <c r="B904" s="21"/>
       <c r="C904" s="28"/>
@@ -42490,7 +42479,7 @@
       <c r="AG904" s="28"/>
       <c r="AH904" s="28"/>
     </row>
-    <row r="905" spans="1:34" ht="14.5" hidden="1">
+    <row r="905" spans="1:34" hidden="1">
       <c r="A905" s="21"/>
       <c r="B905" s="21"/>
       <c r="C905" s="28"/>
@@ -42526,7 +42515,7 @@
       <c r="AG905" s="28"/>
       <c r="AH905" s="28"/>
     </row>
-    <row r="906" spans="1:34" ht="14.5" hidden="1">
+    <row r="906" spans="1:34" hidden="1">
       <c r="A906" s="21"/>
       <c r="B906" s="21"/>
       <c r="C906" s="28"/>
@@ -42562,7 +42551,7 @@
       <c r="AG906" s="28"/>
       <c r="AH906" s="28"/>
     </row>
-    <row r="907" spans="1:34" ht="14.5" hidden="1">
+    <row r="907" spans="1:34" hidden="1">
       <c r="A907" s="21"/>
       <c r="B907" s="21"/>
       <c r="C907" s="28"/>
@@ -42598,7 +42587,7 @@
       <c r="AG907" s="28"/>
       <c r="AH907" s="28"/>
     </row>
-    <row r="908" spans="1:34" ht="14.5" hidden="1">
+    <row r="908" spans="1:34" hidden="1">
       <c r="A908" s="21"/>
       <c r="B908" s="21"/>
       <c r="C908" s="28"/>
@@ -42634,7 +42623,7 @@
       <c r="AG908" s="28"/>
       <c r="AH908" s="28"/>
     </row>
-    <row r="909" spans="1:34" ht="14.5" hidden="1">
+    <row r="909" spans="1:34" hidden="1">
       <c r="A909" s="21"/>
       <c r="B909" s="21"/>
       <c r="C909" s="28"/>
@@ -42670,7 +42659,7 @@
       <c r="AG909" s="28"/>
       <c r="AH909" s="28"/>
     </row>
-    <row r="910" spans="1:34" ht="14.5" hidden="1">
+    <row r="910" spans="1:34" hidden="1">
       <c r="A910" s="21"/>
       <c r="B910" s="21"/>
       <c r="C910" s="28"/>
@@ -42706,7 +42695,7 @@
       <c r="AG910" s="28"/>
       <c r="AH910" s="28"/>
     </row>
-    <row r="911" spans="1:34" ht="14.5" hidden="1">
+    <row r="911" spans="1:34" hidden="1">
       <c r="A911" s="21"/>
       <c r="B911" s="21"/>
       <c r="C911" s="28"/>
@@ -42742,7 +42731,7 @@
       <c r="AG911" s="28"/>
       <c r="AH911" s="28"/>
     </row>
-    <row r="912" spans="1:34" ht="14.5" hidden="1">
+    <row r="912" spans="1:34" hidden="1">
       <c r="A912" s="21"/>
       <c r="B912" s="21"/>
       <c r="C912" s="28"/>
@@ -42778,7 +42767,7 @@
       <c r="AG912" s="28"/>
       <c r="AH912" s="28"/>
     </row>
-    <row r="913" spans="1:34" ht="14.5" hidden="1">
+    <row r="913" spans="1:34" hidden="1">
       <c r="A913" s="21"/>
       <c r="B913" s="21"/>
       <c r="C913" s="28"/>
@@ -42814,7 +42803,7 @@
       <c r="AG913" s="28"/>
       <c r="AH913" s="28"/>
     </row>
-    <row r="914" spans="1:34" ht="14.5" hidden="1">
+    <row r="914" spans="1:34" hidden="1">
       <c r="A914" s="21"/>
       <c r="B914" s="21"/>
       <c r="C914" s="28"/>
@@ -42850,7 +42839,7 @@
       <c r="AG914" s="28"/>
       <c r="AH914" s="28"/>
     </row>
-    <row r="915" spans="1:34" ht="14.5" hidden="1">
+    <row r="915" spans="1:34" hidden="1">
       <c r="A915" s="21"/>
       <c r="B915" s="21"/>
       <c r="C915" s="28"/>
@@ -42886,7 +42875,7 @@
       <c r="AG915" s="28"/>
       <c r="AH915" s="28"/>
     </row>
-    <row r="916" spans="1:34" ht="14.5" hidden="1">
+    <row r="916" spans="1:34" hidden="1">
       <c r="A916" s="21"/>
       <c r="B916" s="21"/>
       <c r="C916" s="28"/>
@@ -42922,7 +42911,7 @@
       <c r="AG916" s="28"/>
       <c r="AH916" s="28"/>
     </row>
-    <row r="917" spans="1:34" ht="14.5" hidden="1">
+    <row r="917" spans="1:34" hidden="1">
       <c r="A917" s="21"/>
       <c r="B917" s="21"/>
       <c r="C917" s="28"/>
@@ -42958,7 +42947,7 @@
       <c r="AG917" s="28"/>
       <c r="AH917" s="28"/>
     </row>
-    <row r="918" spans="1:34" ht="14.5" hidden="1">
+    <row r="918" spans="1:34" hidden="1">
       <c r="A918" s="21"/>
       <c r="B918" s="21"/>
       <c r="C918" s="28"/>
@@ -42994,7 +42983,7 @@
       <c r="AG918" s="28"/>
       <c r="AH918" s="28"/>
     </row>
-    <row r="919" spans="1:34" ht="14.5" hidden="1">
+    <row r="919" spans="1:34" hidden="1">
       <c r="A919" s="21"/>
       <c r="B919" s="21"/>
       <c r="C919" s="28"/>
@@ -43030,7 +43019,7 @@
       <c r="AG919" s="28"/>
       <c r="AH919" s="28"/>
     </row>
-    <row r="920" spans="1:34" ht="14.5" hidden="1">
+    <row r="920" spans="1:34" hidden="1">
       <c r="A920" s="21"/>
       <c r="B920" s="21"/>
       <c r="C920" s="28"/>
@@ -43066,7 +43055,7 @@
       <c r="AG920" s="28"/>
       <c r="AH920" s="28"/>
     </row>
-    <row r="921" spans="1:34" ht="14.5" hidden="1">
+    <row r="921" spans="1:34" hidden="1">
       <c r="A921" s="21"/>
       <c r="B921" s="21"/>
       <c r="C921" s="28"/>
@@ -43102,7 +43091,7 @@
       <c r="AG921" s="28"/>
       <c r="AH921" s="28"/>
     </row>
-    <row r="922" spans="1:34" ht="14.5" hidden="1">
+    <row r="922" spans="1:34" hidden="1">
       <c r="A922" s="21"/>
       <c r="B922" s="21"/>
       <c r="C922" s="28"/>
@@ -43138,7 +43127,7 @@
       <c r="AG922" s="28"/>
       <c r="AH922" s="28"/>
     </row>
-    <row r="923" spans="1:34" ht="14.5" hidden="1">
+    <row r="923" spans="1:34" hidden="1">
       <c r="A923" s="21"/>
       <c r="B923" s="21"/>
       <c r="C923" s="28"/>
@@ -43174,7 +43163,7 @@
       <c r="AG923" s="28"/>
       <c r="AH923" s="28"/>
     </row>
-    <row r="924" spans="1:34" ht="14.5" hidden="1">
+    <row r="924" spans="1:34" hidden="1">
       <c r="A924" s="21"/>
       <c r="B924" s="21"/>
       <c r="C924" s="28"/>
@@ -43210,7 +43199,7 @@
       <c r="AG924" s="28"/>
       <c r="AH924" s="28"/>
     </row>
-    <row r="925" spans="1:34" ht="14.5" hidden="1">
+    <row r="925" spans="1:34" hidden="1">
       <c r="A925" s="21"/>
       <c r="B925" s="21"/>
       <c r="C925" s="28"/>
@@ -43246,7 +43235,7 @@
       <c r="AG925" s="28"/>
       <c r="AH925" s="28"/>
     </row>
-    <row r="926" spans="1:34" ht="14.5" hidden="1">
+    <row r="926" spans="1:34" hidden="1">
       <c r="A926" s="21"/>
       <c r="B926" s="21"/>
       <c r="C926" s="28"/>
@@ -43282,7 +43271,7 @@
       <c r="AG926" s="28"/>
       <c r="AH926" s="28"/>
     </row>
-    <row r="927" spans="1:34" ht="14.5" hidden="1">
+    <row r="927" spans="1:34" hidden="1">
       <c r="A927" s="21"/>
       <c r="B927" s="21"/>
       <c r="C927" s="28"/>
@@ -43318,7 +43307,7 @@
       <c r="AG927" s="28"/>
       <c r="AH927" s="28"/>
     </row>
-    <row r="928" spans="1:34" ht="14.5" hidden="1">
+    <row r="928" spans="1:34" hidden="1">
       <c r="A928" s="21"/>
       <c r="B928" s="21"/>
       <c r="C928" s="28"/>
@@ -43354,7 +43343,7 @@
       <c r="AG928" s="28"/>
       <c r="AH928" s="28"/>
     </row>
-    <row r="929" spans="1:34" ht="14.5" hidden="1">
+    <row r="929" spans="1:34" hidden="1">
       <c r="A929" s="21"/>
       <c r="B929" s="21"/>
       <c r="C929" s="28"/>
@@ -43390,7 +43379,7 @@
       <c r="AG929" s="28"/>
       <c r="AH929" s="28"/>
     </row>
-    <row r="930" spans="1:34" ht="14.5" hidden="1">
+    <row r="930" spans="1:34" hidden="1">
       <c r="A930" s="21"/>
       <c r="B930" s="21"/>
       <c r="C930" s="28"/>
@@ -43426,7 +43415,7 @@
       <c r="AG930" s="28"/>
       <c r="AH930" s="28"/>
     </row>
-    <row r="931" spans="1:34" ht="14.5" hidden="1">
+    <row r="931" spans="1:34" hidden="1">
       <c r="A931" s="21"/>
       <c r="B931" s="21"/>
       <c r="C931" s="28"/>
@@ -43462,7 +43451,7 @@
       <c r="AG931" s="28"/>
       <c r="AH931" s="28"/>
     </row>
-    <row r="932" spans="1:34" ht="14.5" hidden="1">
+    <row r="932" spans="1:34" hidden="1">
       <c r="A932" s="21"/>
       <c r="B932" s="21"/>
       <c r="C932" s="28"/>
@@ -43498,7 +43487,7 @@
       <c r="AG932" s="28"/>
       <c r="AH932" s="28"/>
     </row>
-    <row r="933" spans="1:34" ht="14.5" hidden="1">
+    <row r="933" spans="1:34" hidden="1">
       <c r="A933" s="21"/>
       <c r="B933" s="21"/>
       <c r="C933" s="28"/>
@@ -43534,7 +43523,7 @@
       <c r="AG933" s="28"/>
       <c r="AH933" s="28"/>
     </row>
-    <row r="934" spans="1:34" ht="14.5" hidden="1">
+    <row r="934" spans="1:34" hidden="1">
       <c r="A934" s="21"/>
       <c r="B934" s="21"/>
       <c r="C934" s="28"/>
@@ -43570,7 +43559,7 @@
       <c r="AG934" s="28"/>
       <c r="AH934" s="28"/>
     </row>
-    <row r="935" spans="1:34" ht="14.5" hidden="1">
+    <row r="935" spans="1:34" hidden="1">
       <c r="A935" s="21"/>
       <c r="B935" s="21"/>
       <c r="C935" s="28"/>
@@ -43606,7 +43595,7 @@
       <c r="AG935" s="28"/>
       <c r="AH935" s="28"/>
     </row>
-    <row r="936" spans="1:34" ht="14.5" hidden="1">
+    <row r="936" spans="1:34" hidden="1">
       <c r="A936" s="21"/>
       <c r="B936" s="21"/>
       <c r="C936" s="28"/>
@@ -43642,7 +43631,7 @@
       <c r="AG936" s="28"/>
       <c r="AH936" s="28"/>
     </row>
-    <row r="937" spans="1:34" ht="14.5" hidden="1">
+    <row r="937" spans="1:34" hidden="1">
       <c r="A937" s="21"/>
       <c r="B937" s="21"/>
       <c r="C937" s="28"/>
@@ -43678,7 +43667,7 @@
       <c r="AG937" s="28"/>
       <c r="AH937" s="28"/>
     </row>
-    <row r="938" spans="1:34" ht="14.5" hidden="1">
+    <row r="938" spans="1:34" hidden="1">
       <c r="A938" s="21"/>
       <c r="B938" s="21"/>
       <c r="C938" s="28"/>
@@ -43714,7 +43703,7 @@
       <c r="AG938" s="28"/>
       <c r="AH938" s="28"/>
     </row>
-    <row r="939" spans="1:34" ht="14.5" hidden="1">
+    <row r="939" spans="1:34" hidden="1">
       <c r="A939" s="21"/>
       <c r="B939" s="21"/>
       <c r="C939" s="28"/>
@@ -43750,7 +43739,7 @@
       <c r="AG939" s="28"/>
       <c r="AH939" s="28"/>
     </row>
-    <row r="940" spans="1:34" ht="14.5" hidden="1">
+    <row r="940" spans="1:34" hidden="1">
       <c r="A940" s="21"/>
       <c r="B940" s="21"/>
       <c r="C940" s="28"/>
@@ -43786,7 +43775,7 @@
       <c r="AG940" s="28"/>
       <c r="AH940" s="28"/>
     </row>
-    <row r="941" spans="1:34" ht="14.5" hidden="1">
+    <row r="941" spans="1:34" hidden="1">
       <c r="A941" s="21"/>
       <c r="B941" s="21"/>
       <c r="C941" s="28"/>
@@ -43822,7 +43811,7 @@
       <c r="AG941" s="28"/>
       <c r="AH941" s="28"/>
     </row>
-    <row r="942" spans="1:34" ht="14.5" hidden="1">
+    <row r="942" spans="1:34" hidden="1">
       <c r="A942" s="21"/>
       <c r="B942" s="21"/>
       <c r="C942" s="28"/>
@@ -43858,7 +43847,7 @@
       <c r="AG942" s="28"/>
       <c r="AH942" s="28"/>
     </row>
-    <row r="943" spans="1:34" ht="14.5" hidden="1">
+    <row r="943" spans="1:34" hidden="1">
       <c r="A943" s="21"/>
       <c r="B943" s="21"/>
       <c r="C943" s="28"/>
@@ -43894,7 +43883,7 @@
       <c r="AG943" s="28"/>
       <c r="AH943" s="28"/>
     </row>
-    <row r="944" spans="1:34" ht="14.5" hidden="1">
+    <row r="944" spans="1:34" hidden="1">
       <c r="A944" s="21"/>
       <c r="B944" s="21"/>
       <c r="C944" s="28"/>
@@ -43930,7 +43919,7 @@
       <c r="AG944" s="28"/>
       <c r="AH944" s="28"/>
     </row>
-    <row r="945" spans="1:34" ht="14.5" hidden="1">
+    <row r="945" spans="1:34" hidden="1">
       <c r="A945" s="21"/>
       <c r="B945" s="21"/>
       <c r="C945" s="28"/>
@@ -43966,7 +43955,7 @@
       <c r="AG945" s="28"/>
       <c r="AH945" s="28"/>
     </row>
-    <row r="946" spans="1:34" ht="14.5" hidden="1">
+    <row r="946" spans="1:34" hidden="1">
       <c r="A946" s="21"/>
       <c r="B946" s="21"/>
       <c r="C946" s="28"/>
@@ -44002,7 +43991,7 @@
       <c r="AG946" s="28"/>
       <c r="AH946" s="28"/>
     </row>
-    <row r="947" spans="1:34" ht="14.5" hidden="1">
+    <row r="947" spans="1:34" hidden="1">
       <c r="A947" s="21"/>
       <c r="B947" s="21"/>
       <c r="C947" s="28"/>
@@ -44038,7 +44027,7 @@
       <c r="AG947" s="28"/>
       <c r="AH947" s="28"/>
     </row>
-    <row r="948" spans="1:34" ht="14.5" hidden="1">
+    <row r="948" spans="1:34" hidden="1">
       <c r="A948" s="21"/>
       <c r="B948" s="21"/>
       <c r="C948" s="28"/>
@@ -44074,7 +44063,7 @@
       <c r="AG948" s="28"/>
       <c r="AH948" s="28"/>
     </row>
-    <row r="949" spans="1:34" ht="14.5" hidden="1">
+    <row r="949" spans="1:34" hidden="1">
       <c r="A949" s="21"/>
       <c r="B949" s="21"/>
       <c r="C949" s="28"/>
@@ -44110,7 +44099,7 @@
       <c r="AG949" s="28"/>
       <c r="AH949" s="28"/>
     </row>
-    <row r="950" spans="1:34" ht="14.5" hidden="1">
+    <row r="950" spans="1:34" hidden="1">
       <c r="A950" s="21"/>
       <c r="B950" s="21"/>
       <c r="C950" s="28"/>
@@ -44146,7 +44135,7 @@
       <c r="AG950" s="28"/>
       <c r="AH950" s="28"/>
     </row>
-    <row r="951" spans="1:34" ht="14.5" hidden="1">
+    <row r="951" spans="1:34" hidden="1">
       <c r="A951" s="21"/>
       <c r="B951" s="21"/>
       <c r="C951" s="28"/>
@@ -44182,7 +44171,7 @@
       <c r="AG951" s="28"/>
       <c r="AH951" s="28"/>
     </row>
-    <row r="952" spans="1:34" ht="14.5" hidden="1">
+    <row r="952" spans="1:34" hidden="1">
       <c r="A952" s="21"/>
       <c r="B952" s="21"/>
       <c r="C952" s="28"/>
@@ -44218,7 +44207,7 @@
       <c r="AG952" s="28"/>
       <c r="AH952" s="28"/>
     </row>
-    <row r="953" spans="1:34" ht="14.5" hidden="1">
+    <row r="953" spans="1:34" hidden="1">
       <c r="A953" s="21"/>
       <c r="B953" s="21"/>
       <c r="C953" s="28"/>
@@ -44254,7 +44243,7 @@
       <c r="AG953" s="28"/>
       <c r="AH953" s="28"/>
     </row>
-    <row r="954" spans="1:34" ht="14.5" hidden="1">
+    <row r="954" spans="1:34" hidden="1">
       <c r="A954" s="21"/>
       <c r="B954" s="21"/>
       <c r="C954" s="28"/>
@@ -44290,7 +44279,7 @@
       <c r="AG954" s="28"/>
       <c r="AH954" s="28"/>
     </row>
-    <row r="955" spans="1:34" ht="14.5" hidden="1">
+    <row r="955" spans="1:34" hidden="1">
       <c r="A955" s="21"/>
       <c r="B955" s="21"/>
       <c r="C955" s="28"/>
@@ -44326,7 +44315,7 @@
       <c r="AG955" s="28"/>
       <c r="AH955" s="28"/>
     </row>
-    <row r="956" spans="1:34" ht="14.5" hidden="1">
+    <row r="956" spans="1:34" hidden="1">
       <c r="A956" s="21"/>
       <c r="B956" s="21"/>
       <c r="C956" s="28"/>
@@ -44362,7 +44351,7 @@
       <c r="AG956" s="28"/>
       <c r="AH956" s="28"/>
     </row>
-    <row r="957" spans="1:34" ht="14.5" hidden="1">
+    <row r="957" spans="1:34" hidden="1">
       <c r="A957" s="21"/>
       <c r="B957" s="21"/>
       <c r="C957" s="28"/>
@@ -44398,7 +44387,7 @@
       <c r="AG957" s="28"/>
       <c r="AH957" s="28"/>
     </row>
-    <row r="958" spans="1:34" ht="14.5" hidden="1">
+    <row r="958" spans="1:34" hidden="1">
       <c r="A958" s="21"/>
       <c r="B958" s="21"/>
       <c r="C958" s="28"/>
@@ -44434,7 +44423,7 @@
       <c r="AG958" s="28"/>
       <c r="AH958" s="28"/>
     </row>
-    <row r="959" spans="1:34" ht="14.5" hidden="1">
+    <row r="959" spans="1:34" hidden="1">
       <c r="A959" s="21"/>
       <c r="B959" s="21"/>
       <c r="C959" s="28"/>
@@ -44470,7 +44459,7 @@
       <c r="AG959" s="28"/>
       <c r="AH959" s="28"/>
     </row>
-    <row r="960" spans="1:34" ht="14.5" hidden="1">
+    <row r="960" spans="1:34" hidden="1">
       <c r="A960" s="21"/>
       <c r="B960" s="21"/>
       <c r="C960" s="28"/>
@@ -44506,7 +44495,7 @@
       <c r="AG960" s="28"/>
       <c r="AH960" s="28"/>
     </row>
-    <row r="961" spans="1:34" ht="14.5" hidden="1">
+    <row r="961" spans="1:34" hidden="1">
       <c r="A961" s="21"/>
       <c r="B961" s="21"/>
       <c r="C961" s="28"/>
@@ -44542,7 +44531,7 @@
       <c r="AG961" s="28"/>
       <c r="AH961" s="28"/>
     </row>
-    <row r="962" spans="1:34" ht="14.5" hidden="1">
+    <row r="962" spans="1:34" hidden="1">
       <c r="A962" s="21"/>
       <c r="B962" s="21"/>
       <c r="C962" s="28"/>
@@ -44578,7 +44567,7 @@
       <c r="AG962" s="28"/>
       <c r="AH962" s="28"/>
     </row>
-    <row r="963" spans="1:34" ht="14.5" hidden="1">
+    <row r="963" spans="1:34" hidden="1">
       <c r="A963" s="21"/>
       <c r="B963" s="21"/>
       <c r="C963" s="28"/>
@@ -44614,7 +44603,7 @@
       <c r="AG963" s="28"/>
       <c r="AH963" s="28"/>
     </row>
-    <row r="964" spans="1:34" ht="14.5" hidden="1">
+    <row r="964" spans="1:34" hidden="1">
       <c r="A964" s="21"/>
       <c r="B964" s="21"/>
       <c r="C964" s="28"/>
@@ -44650,7 +44639,7 @@
       <c r="AG964" s="28"/>
       <c r="AH964" s="28"/>
     </row>
-    <row r="965" spans="1:34" ht="14.5" hidden="1">
+    <row r="965" spans="1:34" hidden="1">
       <c r="A965" s="21"/>
       <c r="B965" s="21"/>
       <c r="C965" s="28"/>
@@ -44686,7 +44675,7 @@
       <c r="AG965" s="28"/>
       <c r="AH965" s="28"/>
     </row>
-    <row r="966" spans="1:34" ht="14.5" hidden="1">
+    <row r="966" spans="1:34" hidden="1">
       <c r="A966" s="21"/>
       <c r="B966" s="21"/>
       <c r="C966" s="28"/>
@@ -44722,7 +44711,7 @@
       <c r="AG966" s="28"/>
       <c r="AH966" s="28"/>
     </row>
-    <row r="967" spans="1:34" ht="14.5" hidden="1">
+    <row r="967" spans="1:34" hidden="1">
       <c r="A967" s="21"/>
       <c r="B967" s="21"/>
       <c r="C967" s="28"/>
@@ -44758,7 +44747,7 @@
       <c r="AG967" s="28"/>
       <c r="AH967" s="28"/>
     </row>
-    <row r="968" spans="1:34" ht="14.5" hidden="1">
+    <row r="968" spans="1:34" hidden="1">
       <c r="A968" s="21"/>
       <c r="B968" s="21"/>
       <c r="C968" s="28"/>
@@ -44794,7 +44783,7 @@
       <c r="AG968" s="28"/>
       <c r="AH968" s="28"/>
     </row>
-    <row r="969" spans="1:34" ht="14.5" hidden="1">
+    <row r="969" spans="1:34" hidden="1">
       <c r="A969" s="21"/>
       <c r="B969" s="21"/>
       <c r="C969" s="28"/>
@@ -44830,7 +44819,7 @@
       <c r="AG969" s="28"/>
       <c r="AH969" s="28"/>
     </row>
-    <row r="970" spans="1:34" ht="14.5" hidden="1">
+    <row r="970" spans="1:34" hidden="1">
       <c r="A970" s="21"/>
       <c r="B970" s="21"/>
       <c r="C970" s="28"/>
@@ -44866,7 +44855,7 @@
       <c r="AG970" s="28"/>
       <c r="AH970" s="28"/>
     </row>
-    <row r="971" spans="1:34" ht="14.5" hidden="1">
+    <row r="971" spans="1:34" hidden="1">
       <c r="A971" s="21"/>
       <c r="B971" s="21"/>
       <c r="C971" s="28"/>
@@ -44902,7 +44891,7 @@
       <c r="AG971" s="28"/>
       <c r="AH971" s="28"/>
     </row>
-    <row r="972" spans="1:34" ht="14.5" hidden="1">
+    <row r="972" spans="1:34" hidden="1">
       <c r="A972" s="21"/>
       <c r="B972" s="21"/>
       <c r="C972" s="28"/>
@@ -44938,7 +44927,7 @@
       <c r="AG972" s="28"/>
       <c r="AH972" s="28"/>
     </row>
-    <row r="973" spans="1:34" ht="14.5" hidden="1">
+    <row r="973" spans="1:34" hidden="1">
       <c r="A973" s="21"/>
       <c r="B973" s="21"/>
       <c r="C973" s="28"/>
@@ -44974,7 +44963,7 @@
       <c r="AG973" s="28"/>
       <c r="AH973" s="28"/>
     </row>
-    <row r="974" spans="1:34" ht="14.5" hidden="1">
+    <row r="974" spans="1:34" hidden="1">
       <c r="A974" s="21"/>
       <c r="B974" s="21"/>
       <c r="C974" s="28"/>
@@ -45010,7 +44999,7 @@
       <c r="AG974" s="28"/>
       <c r="AH974" s="28"/>
     </row>
-    <row r="975" spans="1:34" ht="14.5" hidden="1">
+    <row r="975" spans="1:34" hidden="1">
       <c r="A975" s="21"/>
       <c r="B975" s="21"/>
       <c r="C975" s="28"/>
@@ -45046,7 +45035,7 @@
       <c r="AG975" s="28"/>
       <c r="AH975" s="28"/>
     </row>
-    <row r="976" spans="1:34" ht="14.5" hidden="1">
+    <row r="976" spans="1:34" hidden="1">
       <c r="A976" s="21"/>
       <c r="B976" s="21"/>
       <c r="C976" s="28"/>
@@ -45082,7 +45071,7 @@
       <c r="AG976" s="28"/>
       <c r="AH976" s="28"/>
     </row>
-    <row r="977" spans="1:34" ht="14.5" hidden="1">
+    <row r="977" spans="1:34" hidden="1">
       <c r="A977" s="21"/>
       <c r="B977" s="21"/>
       <c r="C977" s="28"/>
@@ -45118,7 +45107,7 @@
       <c r="AG977" s="28"/>
       <c r="AH977" s="28"/>
     </row>
-    <row r="978" spans="1:34" ht="14.5" hidden="1">
+    <row r="978" spans="1:34" hidden="1">
       <c r="A978" s="21"/>
       <c r="B978" s="21"/>
       <c r="C978" s="28"/>
@@ -45154,7 +45143,7 @@
       <c r="AG978" s="28"/>
       <c r="AH978" s="28"/>
     </row>
-    <row r="979" spans="1:34" ht="14.5" hidden="1">
+    <row r="979" spans="1:34" hidden="1">
       <c r="A979" s="21"/>
       <c r="B979" s="21"/>
       <c r="C979" s="28"/>
@@ -45190,7 +45179,7 @@
       <c r="AG979" s="28"/>
       <c r="AH979" s="28"/>
     </row>
-    <row r="980" spans="1:34" ht="14.5" hidden="1">
+    <row r="980" spans="1:34" hidden="1">
       <c r="A980" s="21"/>
       <c r="B980" s="21"/>
       <c r="C980" s="28"/>
@@ -45226,7 +45215,7 @@
       <c r="AG980" s="28"/>
       <c r="AH980" s="28"/>
     </row>
-    <row r="981" spans="1:34" ht="14.5" hidden="1">
+    <row r="981" spans="1:34" hidden="1">
       <c r="A981" s="21"/>
       <c r="B981" s="21"/>
       <c r="C981" s="28"/>
@@ -45304,9 +45293,9 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="15" max="15" width="10.81640625" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -47166,7 +47155,7 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="9" t="s">
@@ -48766,13 +48755,13 @@
       <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
